--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -50,51 +50,15 @@
     <t>ORG-00</t>
   </si>
   <si>
-    <t>Constitution de l'équipe de travail et choix du thème</t>
-  </si>
-  <si>
-    <t>Présentation de l'éuipe au client et validation du thème</t>
-  </si>
-  <si>
-    <t>Exposition de la problématique de la démarche de développement</t>
-  </si>
-  <si>
-    <t>Revue d'avancement avec la présence d'au moins un clients et des membres constituant l'équipe</t>
-  </si>
-  <si>
-    <t>L'équipe se doit de faire des comptes rendus réguliers aux clients</t>
-  </si>
-  <si>
     <t>Livrables</t>
   </si>
   <si>
     <t>Livr-00</t>
   </si>
   <si>
-    <t>Livraison du plan de développement, le cahier de recettes et le code soruce et les données associées</t>
-  </si>
-  <si>
-    <t>Livraison doit se faire sur un support numériques (clé USB, CD, …)</t>
-  </si>
-  <si>
-    <t>Les différents livrables doivent être remis à la réunion de clotûre</t>
-  </si>
-  <si>
-    <t>Planifiation</t>
-  </si>
-  <si>
     <t>Plan-00</t>
   </si>
   <si>
-    <t>Projet réalisé dans le cadre de séances de TD et TP</t>
-  </si>
-  <si>
-    <t>Réunions hebdomadaires de suivi d'avancement du projet</t>
-  </si>
-  <si>
-    <t>La soutenance aura lieu le 24/03/2015</t>
-  </si>
-  <si>
     <t>Exigences sur le produit logiciel</t>
   </si>
   <si>
@@ -104,15 +68,6 @@
     <t>PD-Q-01</t>
   </si>
   <si>
-    <t>Les corus de Gestion de projet sont appliqués au plan de développement</t>
-  </si>
-  <si>
-    <t>Le plan de développement doit présenter les dispositifs d'assurance Qualité mise en place par le fournisseur</t>
-  </si>
-  <si>
-    <t>Le plan de développement doit présenter les dispositfs de gestion de configuration</t>
-  </si>
-  <si>
     <t>Dossier et rapport de validation</t>
   </si>
   <si>
@@ -125,9 +80,6 @@
     <t>Chaque composant logiciel doit faire l'objet d'au moins un cas de test</t>
   </si>
   <si>
-    <t>chaque exigence relative au produit logiciel doit faire l'objet d'au moins un cas de test</t>
-  </si>
-  <si>
     <t>les documents utilisés comme données de validation doivent être collecté à partir de sites portant sur la psychologie sportive</t>
   </si>
   <si>
@@ -143,21 +95,12 @@
     <t>Le serveur de tétralogie pourrait ne pas être disponible pendant une longue durée</t>
   </si>
   <si>
-    <t>Les clients pourraients ne pas être disponible pour els réunions de revues</t>
-  </si>
-  <si>
     <t>Un membre de l'équipe pourrait tomber malade</t>
   </si>
   <si>
-    <t>Il se pourrait que le volume de donnée extrait ne soit pas significatif pour menr à bien les traiements</t>
-  </si>
-  <si>
     <t>Probabilité</t>
   </si>
   <si>
-    <t>Un membre de l'équipe pourrait ne pas être compétent vis-à-vis de la tahc equi lui a été attribué</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gravité </t>
   </si>
   <si>
@@ -167,33 +110,12 @@
     <t xml:space="preserve">Prévention </t>
   </si>
   <si>
-    <t>Utliser une base de donnée cohérente pendant la phase d'extraction</t>
-  </si>
-  <si>
     <t>Avoir un contact à la CICT qui pourrait résoudre le problème</t>
   </si>
   <si>
-    <t>Planifier longtemps à l'avance les différentes réunions</t>
-  </si>
-  <si>
-    <t>un autre membre de l'équipe doit pouvori prendre la releve</t>
-  </si>
-  <si>
-    <t>Prévoir différents scénarios de réaffections des taches aux membres</t>
-  </si>
-  <si>
-    <t>vérifier la taille des données après extraactions avant d'avance dans le traiements</t>
-  </si>
-  <si>
     <t>Le choix du sujet n'est pas pertinent</t>
   </si>
   <si>
-    <t>Vérifier qu'il y ait suffisament de données sur le sujet</t>
-  </si>
-  <si>
-    <t>Rédéfinir l'orientation du sujet et de la problématiue</t>
-  </si>
-  <si>
     <t>Réparation</t>
   </si>
   <si>
@@ -209,21 +131,12 @@
     <t>Toutes les données, les analyses et traitement sont perdus</t>
   </si>
   <si>
-    <t>Sauvergader régulièrement, utiliser une solution de travail partagé</t>
-  </si>
-  <si>
     <t>Revues client- fournisseurs</t>
   </si>
   <si>
     <t>Le délai fourni pour la réalisation du projet pourrait ne pas être tenu</t>
   </si>
   <si>
-    <t>Etablir regulièrement des reunions d'avancement afin de s'assurer du respect de la planification</t>
-  </si>
-  <si>
-    <t>Redistribuer les taches entre les membres de l'équipe</t>
-  </si>
-  <si>
     <t>DATA-MINIG</t>
   </si>
   <si>
@@ -356,21 +269,12 @@
     <t>PD-Q-03</t>
   </si>
   <si>
-    <t>Affectation des rôles aux membres de l'équipe</t>
-  </si>
-  <si>
     <t>Aide état :</t>
   </si>
   <si>
-    <t>0 pour ?</t>
-  </si>
-  <si>
     <t>-1 pour non validé</t>
   </si>
   <si>
-    <t>1 pour validé</t>
-  </si>
-  <si>
     <t>Identificateur</t>
   </si>
   <si>
@@ -429,6 +333,166 @@
   </si>
   <si>
     <t>Gravité</t>
+  </si>
+  <si>
+    <t>La réalisation intégrale du projet est à la charge du Fournisseur constitué d'un groupe de 3 ou 4 étudiants de Master M1 de la formation SID. La promotion actuelle est composé d'un effectif de 18 étudiants, on propose 4 groupes.</t>
+  </si>
+  <si>
+    <t>Le fournisseur doit être en mesure de présenter au client l'état d'avancement du projet pendant toute sa durée</t>
+  </si>
+  <si>
+    <t>les livrables mentionnés en [LIV-00] seront fournis sur support numériques (clé USB, CD, …)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le projet sera réalisé dans le cadre de séances de TD et TP d'une durée de 2 heures ou 4 heures. Les dates et heures précises sont communiquées dans l'emploi du temps. </t>
+  </si>
+  <si>
+    <t>Les réunions d'avancement seront hebdomadaires.</t>
+  </si>
+  <si>
+    <t>ORG-06</t>
+  </si>
+  <si>
+    <t>les livrables mentionnés en [LIV-00] seront remis au client lors de la réunion de clôture du projet</t>
+  </si>
+  <si>
+    <t>Planification</t>
+  </si>
+  <si>
+    <t>La soutenance aura lieu le 2 mars 2015, ceci correspond à la présentation des résultats aux clients.</t>
+  </si>
+  <si>
+    <t>L'organisation de l'équipe de développement mise en place par le fournisseur sera présentée au client lors de la réunion de démarrage</t>
+  </si>
+  <si>
+    <t>Le Fournisseur devra soumettre le thème et les problématique au client.</t>
+  </si>
+  <si>
+    <t>La plan de validation développé par le fournisseur sera présenté et exécuté lors de la réunion de clôture du projet</t>
+  </si>
+  <si>
+    <t>Chaque réunion d'avancement se fera en présence d'au moins un représentant du client, du chef de projet, du responsable de gestion de configuration, du responsable Assurance et Contrôle Qualité, du responsable Rédaction et du développeur</t>
+  </si>
+  <si>
+    <t>1 pour valide</t>
+  </si>
+  <si>
+    <t>0 pour non testé</t>
+  </si>
+  <si>
+    <t>Tout au long du projet</t>
+  </si>
+  <si>
+    <t>Le fournisseur doit assigner, pour toute la durée du projet : 
+   - un chef de projet, 
+   - un responsable de gestion de configuration, 
+   - un responsable Assurance et Contrôle Qualité,  
+   - un responsable Rédaction,  
+   - un développeur</t>
+  </si>
+  <si>
+    <t>Le fournisseur doit livrer au client : 
+   - plan de développement,  
+   - le cahier de recettes
+   - le code source et les données associées. 
+Les exigences relatives à ces éléments sont décrites au chapitre suivant.</t>
+  </si>
+  <si>
+    <t>PV-M-02</t>
+  </si>
+  <si>
+    <t>PV-M-03</t>
+  </si>
+  <si>
+    <t>PV-M-04</t>
+  </si>
+  <si>
+    <t>Les cours de Gestion de projet sont appliqués au plan de développement</t>
+  </si>
+  <si>
+    <t>Le rapport du projet, soit le plan de développement, doit présenter les dispositifs d'assurance Qualité mise en place par le fournisseur, et plus précisément : 
+   - En introduction, la description du sujet d'analyse, 
+   - Les méthodes, techniques et outils utilisés,  
+   - Les règles de développement appliquées : en conception, en codage 
+   - Les dispositifs de suivi du projet 
+   - Et une interprétation rigoureuse du sujet d'analyse</t>
+  </si>
+  <si>
+    <t>Le plan de développement doit présenter les dispositifs de gestion de configuration mise en place pendant toute la durée du projet</t>
+  </si>
+  <si>
+    <t>Chaque exigence relative au produit logiciel doit faire l'objet d'au moins un cas de test</t>
+  </si>
+  <si>
+    <t>Un membre de l'équipe pourrait ne pas être compétent vis-à-vis de la tache qui lui a été attribué</t>
+  </si>
+  <si>
+    <t>Il se pourrait que le volume de donnée extrait ne soit pas significatif pour mener à bien les traitements</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il y ait suffisamment de données sur le sujet</t>
+  </si>
+  <si>
+    <t>Redéfinir l'orientation du sujet et de la problématique</t>
+  </si>
+  <si>
+    <t>Utiliser une base de donnée cohérente pendant la phase d'extraction</t>
+  </si>
+  <si>
+    <t>Les clients pourraient ne pas être disponible pour les réunions de revues</t>
+  </si>
+  <si>
+    <t>Planifier longtemps à l'avance les différentes réunions et anticiper sur l'emploi du temps prévu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les membres doivent mettre leur travail sur la solution de partage (GitHub et OneDrive).
+Ainsi, un autre membre de l'équipe doit pouvoir prendre la relève. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien définir les rôles en prenant en compte les compétences de chacun. </t>
+  </si>
+  <si>
+    <t>Redistribuer les taches entre les membres de l'équipe.</t>
+  </si>
+  <si>
+    <t>Vérifier la taille des données après extractions avant d'avancer dans les traitements</t>
+  </si>
+  <si>
+    <t>Sauvegarder régulièrement et utiliser une solution de travail partagé avec des copies régulières enregistrées en local.</t>
+  </si>
+  <si>
+    <t>Etablir régulièrement des réunions d'avancement afin de s'assurer du respect de la planification. Définir les tâches à effectuer en fonction des besoin de l'équipe.</t>
+  </si>
+  <si>
+    <t>Fournir un travail en dehors des heures de cours prévues permettant de rattraper le retard et ainsi tenir le délai.</t>
+  </si>
+  <si>
+    <t>Le sujet du projet est trop complexe à traiter.</t>
+  </si>
+  <si>
+    <t>Bien cibler les problématiques de recherches.
+Soumettre ces dernières au client.</t>
+  </si>
+  <si>
+    <t>1 à 5</t>
+  </si>
+  <si>
+    <t>Utiliser un ordinateur personnel et un espace de travail partagé (GitHub et OneDrive) afin de pouvoir travailler à domicile ou à la bibliothèque universitaire</t>
+  </si>
+  <si>
+    <t>1 faible</t>
+  </si>
+  <si>
+    <t>5 Extreme</t>
+  </si>
+  <si>
+    <t>4 important</t>
+  </si>
+  <si>
+    <t>3 moyen</t>
+  </si>
+  <si>
+    <t>Des heures de cours prévus pour réaliser le projet sont supprimées</t>
   </si>
 </sst>
 </file>
@@ -522,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +683,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1070,15 +1152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1089,18 +1168,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,15 +1184,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,36 +1194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,9 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,95 +1226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1301,15 +1245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,6 +1265,9 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -1339,8 +1277,167 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,10 +1447,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3B3B"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF7CC3D6"/>
       <color rgb="FFBD92DE"/>
-      <color rgb="FFFF3B3B"/>
       <color rgb="FFF6882E"/>
       <color rgb="FFD2EAF1"/>
       <color rgb="FFE6EED5"/>
@@ -2178,31 +2275,31 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="48"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2211,11 +2308,11 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2224,241 +2321,241 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="106" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="52">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="52">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="99" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="52">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="52">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="102" t="s">
+      <c r="C22" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="101">
-        <v>1</v>
-      </c>
-      <c r="E8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="101">
+      <c r="C23" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="52">
         <v>-1</v>
       </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="101">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="101">
-        <v>1</v>
-      </c>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="101">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="101">
-        <v>0</v>
-      </c>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="101">
-        <v>0</v>
-      </c>
-      <c r="E14" s="48"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101">
-        <v>0</v>
-      </c>
-      <c r="E15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="101">
-        <v>1</v>
-      </c>
-      <c r="E17" s="48"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="101">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="101">
-        <v>0</v>
-      </c>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="101">
-        <v>1</v>
-      </c>
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="101">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="101">
-        <v>0</v>
-      </c>
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="101">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="48"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2500,370 +2597,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53">
+      <c r="A6" s="30"/>
+      <c r="B6" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="79">
         <v>-1</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="48"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="48"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="48"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="48"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="48"/>
-      <c r="K14" s="44"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="30"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="48"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="48"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="48"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="48"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="48"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="48"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="48"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="48"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="48"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="48"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="48"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="48"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="48"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2872,20 +2969,20 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2919,292 +3016,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="103">
+        <v>42037</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="103">
+        <v>42033</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="103">
+        <v>42037</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="103">
+        <v>42093</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="103">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="103">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="104">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
-        <v>42010</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="20">
-        <v>42011</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C26" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="20">
-        <v>42012</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20">
-        <v>42013</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="20">
-        <v>42014</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>42015</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
-        <v>42011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="20">
-        <v>42012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <v>42013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>42011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="20">
-        <v>42012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="25">
-        <v>42013</v>
+      <c r="D26" s="104">
+        <v>42093</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3212,7 +3326,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{4C3BF3F6-3682-47E8-A098-A8095D22CC9A}">
+          <x14:cfRule type="iconSet" priority="4" id="{36BD5F38-6BBF-43F1-989D-C5B8575A336B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3228,10 +3342,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C23:C25</xm:sqref>
+          <xm:sqref>C17:C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{36BD5F38-6BBF-43F1-989D-C5B8575A336B}">
+          <x14:cfRule type="iconSet" priority="7" id="{4C3BF3F6-3682-47E8-A098-A8095D22CC9A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3247,10 +3361,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C16:C18</xm:sqref>
+          <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{7E994C74-6088-4E17-9930-85A745AE1C6F}">
+          <x14:cfRule type="iconSet" priority="1" id="{272271AA-5FA8-41B4-AD3A-3EBA4D9A20BF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3266,10 +3380,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C6:C8</xm:sqref>
+          <xm:sqref>C24:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{F1F00976-5ED4-4763-8BC7-3AC0262B11D7}">
+          <x14:cfRule type="iconSet" priority="12" id="{7E994C74-6088-4E17-9930-85A745AE1C6F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3285,7 +3399,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:C11</xm:sqref>
+          <xm:sqref>C6:C12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3295,151 +3409,174 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="5"/>
+    <col min="4" max="4" width="17.28515625" style="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7">
+    <row r="6" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="D6" s="103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="103">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="104">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
         <v>-1</v>
       </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="D14" s="103">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="103">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="105">
+        <v>42065</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3451,25 +3588,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{13C21962-459E-4063-BDB8-5A2FE8F3F343}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C6:C8</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{8EB7DC16-910B-4F97-88B0-FB761F4ABB7D}">
             <x14:iconSet showValue="0" custom="1">
@@ -3508,6 +3626,25 @@
           </x14:cfRule>
           <xm:sqref>C16</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{13C21962-459E-4063-BDB8-5A2FE8F3F343}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6:C8</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3516,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,269 +3665,367 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="101" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
+        <f>C6*D6</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E16" si="0">C7*D7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="34">
-        <v>3</v>
-      </c>
-      <c r="D6" s="34">
-        <v>3</v>
-      </c>
-      <c r="E6" s="34">
-        <v>9</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="34">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34">
-        <v>4</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="34">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="34">
-        <v>6</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34">
-        <v>3</v>
-      </c>
-      <c r="E9" s="34">
-        <v>3</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="34">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="E17" s="17">
+        <f t="shared" ref="E17" si="1">C17*D17</f>
         <v>2</v>
       </c>
-      <c r="E10" s="34">
-        <v>6</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
-        <v>2</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
-      <c r="D12" s="34">
-        <v>2</v>
-      </c>
-      <c r="E12" s="34">
-        <v>4</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34">
-        <v>3</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="34">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34">
-        <v>6</v>
-      </c>
-      <c r="E14" s="34">
-        <v>12</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="34">
-        <v>3</v>
-      </c>
-      <c r="D15" s="34">
-        <v>4</v>
-      </c>
-      <c r="E15" s="34">
-        <v>12</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="36"/>
+      <c r="F17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:E15">
+  <conditionalFormatting sqref="E6:E16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3812,7 +4047,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -3835,72 +4070,72 @@
       <c r="I1" s="92"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>134</v>
+      <c r="A4" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="37">
         <v>3</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43" t="s">
-        <v>116</v>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43" t="s">
-        <v>118</v>
+      <c r="B7" s="36"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="88">
+      <c r="A9" s="28"/>
+      <c r="B9" s="42">
         <v>1</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="42">
         <v>2</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="42">
         <v>3</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>42</v>
+      <c r="E9" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3923,21 +4158,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="A1" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3959,21 +4194,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
+      <c r="A1" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -1268,6 +1268,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -1286,6 +1325,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,54 +1400,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,45 +1438,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,8 +1575,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1586,7 +1586,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="361950" y="447675"/>
-          <a:ext cx="4572000" cy="2114550"/>
+          <a:ext cx="4572000" cy="2419350"/>
           <a:chOff x="3086100" y="819150"/>
           <a:chExt cx="4572000" cy="2114550"/>
         </a:xfrm>
@@ -1683,7 +1683,469 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>:</a:t>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Date: 29/01</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Personnes présentes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ordre de la réunion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Documents Utilisés :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Décisions et solutions apportées</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Groupe 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5334000" y="409575"/>
+          <a:ext cx="4572000" cy="2419350"/>
+          <a:chOff x="3086100" y="819150"/>
+          <a:chExt cx="4572000" cy="2114550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Arrondir un rectangle avec un coin diagonal 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086100" y="819150"/>
+            <a:ext cx="4562475" cy="2114550"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2DiagRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086100" y="857250"/>
+            <a:ext cx="4572000" cy="2076450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Revue n°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Date: 02/02</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Personnes présentes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ordre de la réunion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Documents Utilisés :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Décisions et solutions apportées</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> :</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Groupe 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="295275" y="3048000"/>
+          <a:ext cx="4572000" cy="2419350"/>
+          <a:chOff x="3086100" y="819150"/>
+          <a:chExt cx="4572000" cy="2114550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Arrondir un rectangle avec un coin diagonal 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086100" y="819150"/>
+            <a:ext cx="4562475" cy="2114550"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2DiagRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086100" y="857250"/>
+            <a:ext cx="4572000" cy="2076450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Revue n° 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Date: 23/02</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1785,13 +2247,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1800,8 +2262,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="666750"/>
-          <a:ext cx="4572000" cy="2114550"/>
+          <a:off x="419100" y="666749"/>
+          <a:ext cx="4572000" cy="2371725"/>
           <a:chOff x="3086100" y="819150"/>
           <a:chExt cx="4572000" cy="2114550"/>
         </a:xfrm>
@@ -1889,7 +2351,32 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Réunion d'avancement n°</a:t>
+              <a:t>Réunion d'avancement n° 1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Date : 09/03</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -2294,11 +2781,11 @@
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="45"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2331,11 +2818,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2452,11 +2939,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2615,14 +3102,14 @@
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2637,44 +3124,44 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="79">
+      <c r="E6" s="88"/>
+      <c r="F6" s="85">
         <v>-1</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2721,14 +3208,14 @@
     </row>
     <row r="11" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,63 +3242,63 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="30"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,26 +3325,26 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2884,26 +3371,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,26 +3417,26 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2964,11 +3451,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B21:G21"/>
@@ -2978,11 +3465,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3027,25 +3514,25 @@
     <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3058,7 +3545,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="58" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -3069,13 +3556,13 @@
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="59" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -3086,13 +3573,13 @@
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="55" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="59">
         <v>42037</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -3103,13 +3590,13 @@
       <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="59">
         <v>42033</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -3120,13 +3607,13 @@
       <c r="A9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="55" t="s">
         <v>113</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="59">
         <v>42037</v>
       </c>
       <c r="F9" s="3"/>
@@ -3135,13 +3622,13 @@
       <c r="A10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="59">
         <v>42093</v>
       </c>
       <c r="F10" s="3"/>
@@ -3150,13 +3637,13 @@
       <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="59" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4"/>
@@ -3165,13 +3652,13 @@
       <c r="A12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="56" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="60" t="s">
         <v>118</v>
       </c>
       <c r="F12" s="4"/>
@@ -3180,12 +3667,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3198,7 +3685,7 @@
       <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="F16"/>
@@ -3207,13 +3694,13 @@
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="55" t="s">
         <v>120</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="59">
         <v>42093</v>
       </c>
     </row>
@@ -3221,13 +3708,13 @@
       <c r="A18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="59">
         <v>42093</v>
       </c>
     </row>
@@ -3235,23 +3722,23 @@
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="56" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="60">
         <v>42093</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3264,7 +3751,7 @@
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="58" t="s">
         <v>6</v>
       </c>
       <c r="F23"/>
@@ -3273,13 +3760,13 @@
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="59" t="s">
         <v>118</v>
       </c>
       <c r="F24"/>
@@ -3288,13 +3775,13 @@
       <c r="A25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="55" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="59" t="s">
         <v>118</v>
       </c>
       <c r="F25"/>
@@ -3303,13 +3790,13 @@
       <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="56" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="60">
         <v>42093</v>
       </c>
     </row>
@@ -3420,24 +3907,24 @@
     <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="17.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3937,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3458,13 +3945,13 @@
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="55" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="59" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3472,13 +3959,13 @@
       <c r="A7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="55" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="59">
         <v>42093</v>
       </c>
     </row>
@@ -3486,23 +3973,23 @@
       <c r="A8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="56" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="60">
         <v>42093</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3515,7 +4002,7 @@
       <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3523,13 +4010,13 @@
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="59" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3537,13 +4024,13 @@
       <c r="A14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>-1</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="59">
         <v>42093</v>
       </c>
     </row>
@@ -3551,13 +4038,13 @@
       <c r="A15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="55" t="s">
         <v>127</v>
       </c>
       <c r="C15" s="6">
         <v>-1</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="59">
         <v>42093</v>
       </c>
     </row>
@@ -3565,18 +4052,18 @@
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="61">
         <v>42065</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="101"/>
+      <c r="B17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3655,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3665,20 +4152,20 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="101" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3700,15 +4187,15 @@
       <c r="E5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="66" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -3733,7 +4220,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="63" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3758,7 +4245,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="64" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -3783,7 +4270,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="64" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -3808,7 +4295,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="64" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -3835,7 +4322,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="64" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -3860,7 +4347,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="63" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -3884,7 +4371,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="64" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -3908,7 +4395,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3930,7 +4417,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -3954,7 +4441,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="67" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3976,7 +4463,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="67" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4057,17 +4544,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -4151,28 +4638,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4188,27 +4675,27 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Facteurs de risque</t>
   </si>
   <si>
-    <t>Apparition d'un problème complexe de synonymie</t>
-  </si>
-  <si>
-    <t>Le serveur de tétralogie pourrait ne pas être disponible pendant une longue durée</t>
-  </si>
-  <si>
     <t>Un membre de l'équipe pourrait tomber malade</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t xml:space="preserve">Prévention </t>
   </si>
   <si>
-    <t>Avoir un contact à la CICT qui pourrait résoudre le problème</t>
-  </si>
-  <si>
-    <t>Le choix du sujet n'est pas pertinent</t>
-  </si>
-  <si>
     <t>Réparation</t>
   </si>
   <si>
@@ -294,9 +282,6 @@
   </si>
   <si>
     <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
   </si>
   <si>
     <t>R8</t>
@@ -430,15 +415,6 @@
     <t>Il se pourrait que le volume de donnée extrait ne soit pas significatif pour mener à bien les traitements</t>
   </si>
   <si>
-    <t>Vérifier qu'il y ait suffisamment de données sur le sujet</t>
-  </si>
-  <si>
-    <t>Redéfinir l'orientation du sujet et de la problématique</t>
-  </si>
-  <si>
-    <t>Utiliser une base de donnée cohérente pendant la phase d'extraction</t>
-  </si>
-  <si>
     <t>Les clients pourraient ne pas être disponible pour les réunions de revues</t>
   </si>
   <si>
@@ -474,13 +450,7 @@
 Soumettre ces dernières au client.</t>
   </si>
   <si>
-    <t>1 à 5</t>
-  </si>
-  <si>
     <t>Utiliser un ordinateur personnel et un espace de travail partagé (GitHub et OneDrive) afin de pouvoir travailler à domicile ou à la bibliothèque universitaire</t>
-  </si>
-  <si>
-    <t>1 faible</t>
   </si>
   <si>
     <t>5 Extreme</t>
@@ -586,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,25 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1289,24 +1241,9 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -1325,80 +1262,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,6 +1384,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4BACC6"/>
       <color rgb="FFFF3B3B"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF7CC3D6"/>
@@ -1568,109 +1506,295 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Groupe 3"/>
+        <xdr:cNvPr id="19" name="Groupe 18"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="361950" y="447675"/>
-          <a:ext cx="4572000" cy="2419350"/>
-          <a:chOff x="3086100" y="819150"/>
-          <a:chExt cx="4572000" cy="2114550"/>
+          <a:off x="314325" y="457201"/>
+          <a:ext cx="4581525" cy="3257549"/>
+          <a:chOff x="5343525" y="561975"/>
+          <a:chExt cx="4581525" cy="3257549"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Arrondir un rectangle avec un coin diagonal 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="Groupe 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3086100" y="819150"/>
-            <a:ext cx="4562475" cy="2114550"/>
+            <a:off x="5353050" y="581022"/>
+            <a:ext cx="4572000" cy="3238502"/>
+            <a:chOff x="3086100" y="852447"/>
+            <a:chExt cx="4572000" cy="2830502"/>
           </a:xfrm>
-          <a:prstGeom prst="round2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="ZoneTexte 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3086100" y="857250"/>
-            <a:ext cx="4572000" cy="2076450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Arrondir un rectangle avec un coin diagonal 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="852447"/>
+              <a:ext cx="4562475" cy="2830502"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="ZoneTexte 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857250"/>
+              <a:ext cx="4572000" cy="2817374"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 1	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     - </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mme Bahsoun </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> (Client)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 29/01/2015			                     - Toute l'équipe (fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la revue </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>Discution sur le thème et les</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t> problématiques</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1678,34 +1802,480 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Revue n°</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> 1</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Date: 29/01</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Validation du thème de la psychologie sportive</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> sous condition d'obtenir suffisament de données</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Validation de l'équipe</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Affiner les axes</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Axe intéressant : étudier les différences de prise en charge entre pays développés ou non, comparaison du parcours au niveau socio-économique</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Affiner</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> le thème et les problématiques</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="Groupe 20"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="22" name="Connecteur droit 21"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="Connecteur droit 22"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Groupe 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5324475" y="438151"/>
+          <a:ext cx="4581525" cy="3047999"/>
+          <a:chOff x="5343525" y="561975"/>
+          <a:chExt cx="4581525" cy="3047999"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="Groupe 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="581020"/>
+            <a:ext cx="4572000" cy="3028954"/>
+            <a:chOff x="3086100" y="852445"/>
+            <a:chExt cx="4572000" cy="2647354"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Arrondir un rectangle avec un coin diagonal 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="852445"/>
+              <a:ext cx="4562475" cy="2647354"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="ZoneTexte 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857248"/>
+              <a:ext cx="4572000" cy="2567626"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 2	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     - </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mme Bahsoun </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> (Client)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 02/02/2015			                     - Toute l'équipe (fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la revue </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>Discution sur le thème et les</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t> problématiques</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1713,20 +2283,471 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Personnes présentes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Axes intéressants</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Faire</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> attention à ne pas avoir un sujet trop élargie -&gt; Suppression du dernier axe sur le temps</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Définir les termes importants en 3 lignes</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Travailler sur la requête</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> permettant de trouver des articles intéressants</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="Groupe 27"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="Connecteur droit 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="Connecteur droit 29"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Groupe 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="333375" y="4000501"/>
+          <a:ext cx="4581525" cy="1904999"/>
+          <a:chOff x="5343525" y="561975"/>
+          <a:chExt cx="4581525" cy="1904999"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="Groupe 33"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="581022"/>
+            <a:ext cx="4572000" cy="1885952"/>
+            <a:chOff x="3086100" y="852447"/>
+            <a:chExt cx="4572000" cy="1648352"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="Arrondir un rectangle avec un coin diagonal 37"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="852447"/>
+              <a:ext cx="4562475" cy="1640027"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="ZoneTexte 38"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857250"/>
+              <a:ext cx="4572000" cy="1643549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 3	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     - Mme Bahsoun (Client)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 23/02/2015			                     - Toute l'équipe (fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la revue </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>Lecture du plan</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t> et du rapport</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1734,506 +2755,123 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ordre de la réunion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Documents Utilisés :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Décisions et solutions apportées</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Groupe 4"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5334000" y="409575"/>
-          <a:ext cx="4572000" cy="2419350"/>
-          <a:chOff x="3086100" y="819150"/>
-          <a:chExt cx="4572000" cy="2114550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Arrondir un rectangle avec un coin diagonal 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Vérification,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> ajout, modification d'éléments dans le rapport</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Groupe 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3086100" y="819150"/>
-            <a:ext cx="4562475" cy="2114550"/>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
           </a:xfrm>
-          <a:prstGeom prst="round2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="ZoneTexte 6"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3086100" y="857250"/>
-            <a:ext cx="4572000" cy="2076450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Revue n°</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> 2</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Date: 02/02</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Personnes présentes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ordre de la réunion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Documents Utilisés :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Décisions et solutions apportées</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Groupe 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="295275" y="3048000"/>
-          <a:ext cx="4572000" cy="2419350"/>
-          <a:chOff x="3086100" y="819150"/>
-          <a:chExt cx="4572000" cy="2114550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Arrondir un rectangle avec un coin diagonal 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3086100" y="819150"/>
-            <a:ext cx="4562475" cy="2114550"/>
-          </a:xfrm>
-          <a:prstGeom prst="round2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="ZoneTexte 9"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3086100" y="857250"/>
-            <a:ext cx="4572000" cy="2076450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Revue n° 3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Date: 23/02</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Personnes présentes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ordre de la réunion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Documents Utilisés :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Décisions et solutions apportées</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="Connecteur droit 35"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Connecteur droit 36"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2245,104 +2883,279 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Groupe 1"/>
+        <xdr:cNvPr id="12" name="Groupe 11"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="666749"/>
-          <a:ext cx="4572000" cy="2371725"/>
-          <a:chOff x="3086100" y="819150"/>
-          <a:chExt cx="4572000" cy="2114550"/>
+          <a:off x="638175" y="457198"/>
+          <a:ext cx="4581525" cy="3257551"/>
+          <a:chOff x="5343525" y="542923"/>
+          <a:chExt cx="4581525" cy="3257551"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Arrondir un rectangle avec un coin diagonal 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Groupe 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3086100" y="819150"/>
-            <a:ext cx="4562475" cy="2114550"/>
+            <a:off x="5353050" y="542923"/>
+            <a:ext cx="4572000" cy="3257551"/>
+            <a:chOff x="3086100" y="819148"/>
+            <a:chExt cx="4572000" cy="2847151"/>
           </a:xfrm>
-          <a:prstGeom prst="round2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="ZoneTexte 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3086100" y="857250"/>
-            <a:ext cx="4572000" cy="2076450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Arrondir un rectangle avec un coin diagonal 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="819148"/>
+              <a:ext cx="4562475" cy="2847151"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857249"/>
+              <a:ext cx="4572000" cy="2800725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 1	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 29/01/2015			                     - Toute l'équipe (Fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la réunion </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>Définition du</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t> thème et des problématiques</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2350,24 +3163,500 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Réunion d'avancement n° 1</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Choix de la psychologie sportive.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Problématique</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> : Comment un sportif de haut niveau prépare-t-il mentalement une compétition ?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Rôles attribués</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Axes : Types de sport, Âge, Post-Retraite sportive, Différence sport collectif-Individuel</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Rôles attribués</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Affiner</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> le thème et les problématiques</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Groupe 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="Connecteur droit 6"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="Connecteur droit 7"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Groupe 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5543550" y="466723"/>
+          <a:ext cx="4581525" cy="3438527"/>
+          <a:chOff x="5343525" y="542923"/>
+          <a:chExt cx="4581525" cy="3438527"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Groupe 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="542923"/>
+            <a:ext cx="4572000" cy="3438527"/>
+            <a:chOff x="3086100" y="819148"/>
+            <a:chExt cx="4572000" cy="3005327"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Arrondir un rectangle avec un coin diagonal 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="819148"/>
+              <a:ext cx="4562475" cy="3005327"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857249"/>
+              <a:ext cx="4572000" cy="2925601"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 2	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 02/02/2015			                     - Toute l'équipe (Fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la réunion </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> Red</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>éfinition du</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t> thème et modification des axes</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2375,17 +3664,111 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Date : 09/03</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Axes choisis :</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>	-</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> Pays (émergent/développé)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>	- Sports collectifs - individuels</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>	- Âge des sportifs : junior, espoir, senior, ...</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>	- Evolution dans le temps des articles</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100" u="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2393,20 +3776,446 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Personnes présentes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Trouver des sources de données</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Travailler sur la requête</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> permettant de trouver des articles intéressants</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t>Chercher le nombre d'articles</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> disponible</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Groupe 14"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="16" name="Connecteur droit 15"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="Connecteur droit 16"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Groupe 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="3990973"/>
+          <a:ext cx="4581525" cy="5534027"/>
+          <a:chOff x="5343525" y="542923"/>
+          <a:chExt cx="4581525" cy="5534027"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="Groupe 27"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="542923"/>
+            <a:ext cx="4572000" cy="5534027"/>
+            <a:chOff x="3086100" y="819148"/>
+            <a:chExt cx="4572000" cy="4836827"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Arrondir un rectangle avec un coin diagonal 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="819148"/>
+              <a:ext cx="4562475" cy="4836827"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="ZoneTexte 32"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857249"/>
+              <a:ext cx="4572000" cy="4732126"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 4	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 09/03/2015			                     - Toute l'équipe (Fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la réunion </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> Point sur le</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> projet avec rédefinition des tâches</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2414,20 +4223,678 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ordre de la réunion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Chacun</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> présente son travail :</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marine a travaillé sur HTrackt afin d'extraire les articles                       d'un blog parlant de la psychologie sportive</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Cassie travaille sur le programme perl qui nettoie l'extraction précedente</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marie, Mélanie ont travaillé sur tetralogie afin de réaliser les filtrages et les synonymies</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Thibault a travaillé sur une 3ième base de données afin d'enrichir nos données</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Redéfinition des tâches :</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Cassie met en pause sa tâche et se charge de programmer le code visant à fusionner les 3 bases de données (PubPsych, PubMed, PsychInfo)</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marine s'attele à construire la base de donnée sur Oracle</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marie et Mélanie continuent leur travail sur tetralogie</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Thibault s'occupe de la Qualité</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="457200" lvl="1" indent="0">
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Concertation entre le développeur (Cassie) et les personnes travaillant sur les 3 B.D. afin d'obtenir le fichier fusion voulu</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Réalisation des tâches</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Reprise de la tâche de Cassie (nettoyage des articles du blog)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="29" name="Groupe 28"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="Connecteur droit 29"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="Connecteur droit 30"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Groupe 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5695950" y="4086224"/>
+          <a:ext cx="4581525" cy="3238501"/>
+          <a:chOff x="5343525" y="542924"/>
+          <a:chExt cx="4581525" cy="3238501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Groupe 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="542924"/>
+            <a:ext cx="4572000" cy="3238501"/>
+            <a:chOff x="3086100" y="819149"/>
+            <a:chExt cx="4572000" cy="2830501"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="Arrondir un rectangle avec un coin diagonal 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="819149"/>
+              <a:ext cx="4562475" cy="2830501"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="ZoneTexte 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857249"/>
+              <a:ext cx="4572000" cy="2784075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 3	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 23/02/2015			                     - Toute l'équipe (Fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la réunion </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> Point sur le</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> projet avec definition des tâches</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2435,37 +4902,268 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Documents Utilisés :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Décisions et solutions apportées</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Source de données trouvées : PubPsych et PubMed</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Tâches </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marine cherche une solution pour insérer les articles d'un blog dans nos données</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Cassie, Marie et Mélanie continue le travail précedent, c'est-à-dire recherche de la requête optimal faisant ressortir des articles intéressants</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Thibault complète le rapport</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="36" name="Groupe 35"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Connecteur droit 36"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="Connecteur droit 37"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2781,11 +5479,11 @@
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="45"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2818,17 +5516,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="49"/>
@@ -2837,7 +5535,7 @@
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
@@ -2846,10 +5544,10 @@
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="52">
         <v>1</v>
@@ -2859,10 +5557,10 @@
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="52">
         <v>-1</v>
@@ -2872,10 +5570,10 @@
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="52">
         <v>0</v>
@@ -2886,7 +5584,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="52">
         <v>1</v>
@@ -2897,7 +5595,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="52">
         <v>-1</v>
@@ -2908,7 +5606,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="52">
         <v>0</v>
@@ -2918,10 +5616,10 @@
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="52">
         <v>0</v>
@@ -2939,20 +5637,20 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="52">
         <v>1</v>
@@ -2962,10 +5660,10 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="52">
         <v>-1</v>
@@ -2975,10 +5673,10 @@
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="52">
         <v>0</v>
@@ -2988,10 +5686,10 @@
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="52">
         <v>1</v>
@@ -3001,10 +5699,10 @@
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="52">
         <v>-1</v>
@@ -3014,10 +5712,10 @@
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="52">
         <v>0</v>
@@ -3027,10 +5725,10 @@
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" s="52">
         <v>-1</v>
@@ -3102,14 +5800,14 @@
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="B2" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3124,44 +5822,44 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="84"/>
+      <c r="B4" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="86"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="85">
+      <c r="B6" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="87">
         <v>-1</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3197,7 +5895,7 @@
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -3208,14 +5906,14 @@
     </row>
     <row r="11" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="B11" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,7 +5929,7 @@
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -3242,57 +5940,57 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="B14" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="30"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="B15" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="B16" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
+      <c r="B17" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="74" t="s">
-        <v>99</v>
+      <c r="B18" s="81" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -3314,7 +6012,7 @@
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -3325,26 +6023,26 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
+      <c r="B21" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
+      <c r="B22" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3360,7 +6058,7 @@
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -3371,26 +6069,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
+      <c r="B25" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
+      <c r="B26" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3406,7 +6104,7 @@
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -3417,26 +6115,26 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
+      <c r="B29" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
-      <c r="B30" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76"/>
+      <c r="B30" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3451,11 +6149,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B21:G21"/>
@@ -3465,11 +6163,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3519,20 +6217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3549,7 +6247,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3557,24 +6255,24 @@
         <v>7</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -3583,15 +6281,15 @@
         <v>42037</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -3600,15 +6298,15 @@
         <v>42033</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -3620,10 +6318,10 @@
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -3635,31 +6333,31 @@
     </row>
     <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -3667,12 +6365,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3695,7 +6393,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -3706,10 +6404,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -3720,10 +6418,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -3733,12 +6431,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="A21" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,37 +6459,37 @@
         <v>10</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -3911,20 +6609,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3946,21 +6644,21 @@
         <v>13</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -3971,10 +6669,10 @@
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
@@ -3984,12 +6682,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,12 +6715,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>17</v>
@@ -4036,10 +6734,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>127</v>
       </c>
       <c r="C15" s="6">
         <v>-1</v>
@@ -4050,7 +6748,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>18</v>
@@ -4140,10 +6838,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,15 +6855,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -4173,334 +6871,248 @@
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>21</v>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="17">
         <v>3</v>
       </c>
       <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E13" si="0">C6*D6</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
-        <f>C6*D6</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="I6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E16" si="0">C7*D7</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
-        <v>86</v>
+      <c r="A8" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C8" s="17">
         <v>3</v>
       </c>
       <c r="D8" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>87</v>
+        <v>128</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C9" s="17">
         <v>2</v>
       </c>
       <c r="D9" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
-        <v>88</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C10" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="17">
         <v>3</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
-        <v>89</v>
+      <c r="A11" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C11" s="17">
         <v>2</v>
       </c>
       <c r="D11" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="I11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
+    </row>
+    <row r="12" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17">
         <v>4</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>3</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>34</v>
+        <v>135</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="D14" s="17">
-        <v>5</v>
-      </c>
       <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="E14" si="1">C14*D14</f>
+        <v>2</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17">
-        <v>4</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>4</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17" si="1">C17*D17</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:E16">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4512,8 +7124,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E6:E14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4544,17 +7168,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
+      <c r="A1" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -4569,7 +7193,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4577,7 +7201,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -4589,7 +7213,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,7 +7223,7 @@
       <c r="B7" s="36"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4622,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4638,28 +7262,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
+      <c r="A1" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4675,27 +7299,27 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="A1" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Fiches" sheetId="7" r:id="rId2"/>
-    <sheet name="Processus" sheetId="2" r:id="rId3"/>
-    <sheet name="Dvlpment" sheetId="3" r:id="rId4"/>
-    <sheet name="Risques" sheetId="4" r:id="rId5"/>
-    <sheet name="Graphe" sheetId="8" r:id="rId6"/>
-    <sheet name="Revues" sheetId="5" r:id="rId7"/>
-    <sheet name="Réunions" sheetId="6" r:id="rId8"/>
+    <sheet name="Preuves" sheetId="9" r:id="rId3"/>
+    <sheet name="Processus" sheetId="2" r:id="rId4"/>
+    <sheet name="Dvlpment" sheetId="3" r:id="rId5"/>
+    <sheet name="Risques" sheetId="4" r:id="rId6"/>
+    <sheet name="Graphe" sheetId="8" r:id="rId7"/>
+    <sheet name="Revues" sheetId="5" r:id="rId8"/>
+    <sheet name="Réunions" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Fiches!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Fiches!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="417">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -128,9 +129,6 @@
     <t>DATA-MINIG</t>
   </si>
   <si>
-    <t>Recherche d'information</t>
-  </si>
-  <si>
     <t>Préparation de données</t>
   </si>
   <si>
@@ -182,9 +180,6 @@
     <t>Projet :</t>
   </si>
   <si>
-    <t>Date du test</t>
-  </si>
-  <si>
     <t>Resultat du test:</t>
   </si>
   <si>
@@ -194,15 +189,6 @@
     <t>Actions à réaliser</t>
   </si>
   <si>
-    <t>Test du fichier nettoyage.pl qui permet de nettoyer les docuemnts HTML et de créer…</t>
-  </si>
-  <si>
-    <t>- lancement du fichier nettoyage.pl par la commande perl …</t>
-  </si>
-  <si>
-    <t>- identification et récupération des inforamtiosn sur els balises utils</t>
-  </si>
-  <si>
     <t>Résultat attendus</t>
   </si>
   <si>
@@ -291,24 +277,6 @@
   </si>
   <si>
     <t>R10</t>
-  </si>
-  <si>
-    <t>Auteur :</t>
-  </si>
-  <si>
-    <t>N° de fiche :</t>
-  </si>
-  <si>
-    <t>- Ouverture du fichier .htlm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Comptage des terms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Ovuerture du ficheri </t>
-  </si>
-  <si>
-    <t>- Verification du comptage manuel</t>
   </si>
   <si>
     <t>Réunions d'avancement</t>
@@ -464,12 +432,906 @@
   <si>
     <t>Des heures de cours prévus pour réaliser le projet sont supprimées</t>
   </si>
+  <si>
+    <t>ExtractModif -&gt; Récupère le texte de tous les .html entre les balises spécifiées</t>
+  </si>
+  <si>
+    <t>lebon.pl -&gt; Récupère les bons index.html dans les résultats de HTTRACK (pas ceux dans les dossiers 'feed')</t>
+  </si>
+  <si>
+    <t>url.pl -&gt; Va cherche dans tous les .html les url utiles et les stocke dans un fichier texte résultat</t>
+  </si>
+  <si>
+    <t>ligne.pl -&gt; Permet de mettre sur une seul ligne tout un fichier</t>
+  </si>
+  <si>
+    <t>bd.pl -&gt; change les formats des identifiants et met les résultat dans un fichier txt pour faire une fusion</t>
+  </si>
+  <si>
+    <t>N° de fiche : 1</t>
+  </si>
+  <si>
+    <t>Auteur : Thibault</t>
+  </si>
+  <si>
+    <t>- lancement du fichier URL.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Ouverture du fichier généré URL.txt</t>
+  </si>
+  <si>
+    <t>Test du fichier url.pl qui cherche dans tous les .html (extrait par Marine) les URL utiles et les stocke dans un fichier texte résultat (URL.txt)</t>
+  </si>
+  <si>
+    <t>- Comparaison des URLs du fichier résultat avec ceux présents dans les articles</t>
+  </si>
+  <si>
+    <t>- Génération du fichier URL.txt</t>
+  </si>
+  <si>
+    <t>- Présence des URLs de l'article dans le fichier résultat</t>
+  </si>
+  <si>
+    <t>- ?</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Faide-psy-sportifs%2F&amp;amp;linkname=Quand%20les%20sportifs%20ont%20recours%20%C3%A0%20une%20aide%20psychologique%20%28La%20Croix%29</t>
+  </si>
+  <si>
+    <t>www.la-croix.com/Actualite/Sport/Quand-les-sportifs-ont-recours-a-une-aide-psychologique-_NG_-2013-02-08-909017.html</t>
+  </si>
+  <si>
+    <t>Extrait fichier URL HTTRACK.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans l'article 1 du blog, il y a bien deux références. Bonne extraction. Pourtant aucun des articles se retrouvent ensuite ! Anomalie : URL de la croix ne marche pas ! </t>
+  </si>
+  <si>
+    <t>Question : Pourquoi même l'article du blog n'apparait pas ensuite ?</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/aide-psy-sportifs/</t>
+  </si>
+  <si>
+    <t>http://www.la-croix.com/Actualite/Sport/Quand-les-sportifs-ont-recours-a-une-aide-psychologique-_NG_-2013-02-08-909017</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/bernard-tomic-et-la-relation-avec-son-pere/</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Fbernard-tomic-et-la-relation-avec-son-pere%2F&amp;amp;linkname=Bernard%20Tomic%20et%20la%20relation%20avec%20son%20p%C3%A8</t>
+  </si>
+  <si>
+    <t>Article n'apparaisant pas dans BD après ! Et liens pas extrait (normal puisque pas dans BD)</t>
+  </si>
+  <si>
+    <t>http://rue89.nouvelobs.com/rue89-sport/2013/05/09/bernard-tomic-espoir-tennis-plombe-pere-abominable-242140</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/competition-incertitude/</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/psy-blessures-sportif/</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Fcompetition-incertitude%2F&amp;amp;linkname=Apprivoiser%20l%E2%80%99incertitude%20la%20comp%C3%A9tition</t>
+  </si>
+  <si>
+    <t>Article apparaisant dans BD après ! Et liens pas extrait mais apparaissant dans BD !</t>
+  </si>
+  <si>
+    <t>htlm 72</t>
+  </si>
+  <si>
+    <t>htlm 15</t>
+  </si>
+  <si>
+    <t>Question : lien interne pas extrait ??</t>
+  </si>
+  <si>
+    <t>htlm 16</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Fcomprendre-stress%2F&amp;amp;linkname=Comprendre%20son%20stress</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/comprendre-stress/</t>
+  </si>
+  <si>
+    <t>Rien à dire ! Good !</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Fdepression-football%2F&amp;amp;linkname=A%20lire%3A%20La%20d%C3%A9pression%20du%20footballeur</t>
+  </si>
+  <si>
+    <t>www.20minutes.fr/sport/1360005-20140424-20140424-au-dela-fantasmes-footballeur-depressif-comme-autre.html?xtor=AL-82</t>
+  </si>
+  <si>
+    <t>Bonne extraction. Article psycho n'apparait pas dans les BD. L'article cité oui !</t>
+  </si>
+  <si>
+    <t>http://www.20minutes.fr/sport/1360005-20140424-20140424-au-dela-fantasmes-footballeur-depressif-comme-autre?xtor=AL-82</t>
+  </si>
+  <si>
+    <t>htlm 101</t>
+  </si>
+  <si>
+    <t>www.psychologiesport.fr%2Fformation-psychologie-du-sport-et-preparation-mentale-3%2F&amp;amp;linkname=Formation%20%E2%80%9Cpsychologie%20du%20sport%20et%20pr%C3%A9paration%20mentale%E2%80%9D</t>
+  </si>
+  <si>
+    <t>www.trans-faire.fr/fr/formation-psychologie-du-sport-et-preparateur-mental-paris.html?page=35</t>
+  </si>
+  <si>
+    <t>http://www.psychologiesport.fr/formation-psychologie-du-sport-et-preparation-mentale-3/</t>
+  </si>
+  <si>
+    <t>http://www.trans-faire.fr/fr/formation-psychologie-du-sport-et-preparateur-mental-paris.html</t>
+  </si>
+  <si>
+    <t>Good !</t>
+  </si>
+  <si>
+    <t>- Ouverture de 6 fichiers .htlm tirés au hasard</t>
+  </si>
+  <si>
+    <t>N° de fiche : 2</t>
+  </si>
+  <si>
+    <t>- lancement du fichier lebon.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Ouverture du répertoire index/</t>
+  </si>
+  <si>
+    <t>- Ouverture du répertoire www.psychologiesport.fr/</t>
+  </si>
+  <si>
+    <t>Test du fichier lebon.pl qui extrait les bons index.html présent dans le répertoire crée par HTTRACK (www.psychologiesport.fr) et les copie dans le répertoire index/ en incrémentant</t>
+  </si>
+  <si>
+    <t>- Incrémentation des html (1.html, 2.html,…)</t>
+  </si>
+  <si>
+    <t>- copie des html dans le dossier index/</t>
+  </si>
+  <si>
+    <t>- Copie des bons htlm</t>
+  </si>
+  <si>
+    <t>- Comparaison des html entre ces deux répertoires</t>
+  </si>
+  <si>
+    <t>- Copie d'un html par sous-répertoire dans le répertoire www.psychologiesport.fr/
+=&gt; 133 sous-dossier (un par article) pour 133 .html copiés dans le dossier index/</t>
+  </si>
+  <si>
+    <t>- Les htlms copiés correspondent à ceux qui renvoient vers un article</t>
+  </si>
+  <si>
+    <t>- les .htlms vont de 1 à 133</t>
+  </si>
+  <si>
+    <t>N° de fiche : 3</t>
+  </si>
+  <si>
+    <t>N° de fiche : 4</t>
+  </si>
+  <si>
+    <t>- lancement du fichier ExtractModif.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Ouverture du fichier résultat réponse.txt</t>
+  </si>
+  <si>
+    <t>Test du fichier ExtractModif.pl qui récupère le texte de tous les .html entre les balises spécifiées et l'insère dans le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- Comparaison des htmls avec le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- génération du fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- le texte de l'article dont l'html fait référence se retrouve dans le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- le texte fait référence au bon article et au bon html</t>
+  </si>
+  <si>
+    <t>- Recherche de l'htlm X dans le fichier résultat</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Ouverture htlm 17</t>
+  </si>
+  <si>
+    <t>Pointe vers article Congrès de la Société Française de Psychologie du sport à Nice</t>
+  </si>
+  <si>
+    <t>Recherche dans fichiers résultat</t>
+  </si>
+  <si>
+    <t>Ligne 58 à 60</t>
+  </si>
+  <si>
+    <t>Comparaison des textes</t>
+  </si>
+  <si>
+    <t>Ouverture htlm 35</t>
+  </si>
+  <si>
+    <t>Pointe vers article Formation Psychologie du Sport et Préparation Mentale</t>
+  </si>
+  <si>
+    <t>Ligne 102 à 104</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>- Ouverture de 4 htmls</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Pointe vers article Entretien avec Ronan Lafaix, auteur de “Tennis, un nouveau coaching pour gagner”</t>
+  </si>
+  <si>
+    <t>Ouverture htlm 88</t>
+  </si>
+  <si>
+    <t>Ligne 250 à 252</t>
+  </si>
+  <si>
+    <t>- On retrouve l'HTML dans le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>Ouverture htlm 110</t>
+  </si>
+  <si>
+    <t>Pointe vers article Roland-Garros: père et entraîneur, quel est le problème?</t>
+  </si>
+  <si>
+    <t>Ligne 26 à 28</t>
+  </si>
+  <si>
+    <t>- Les accents ressortent mal</t>
+  </si>
+  <si>
+    <t>- Sur les liens externes, liens inutiles apparaissent (publicité, liens vers d'autres articles, …) et des balises htlms se fondent dans le texte</t>
+  </si>
+  <si>
+    <t>N° de fiche : 5</t>
+  </si>
+  <si>
+    <t>Test du fichier ligne.pl qui permet de mettre sur une seul ligne tout un fichier. Ce fichier a été appliqué sur tous les htlms.</t>
+  </si>
+  <si>
+    <t>- lancement du fichier ligne.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Ouverture du répertoire index2/ (dossier où les nouveaux html sont créés</t>
+  </si>
+  <si>
+    <t>- Ouverture de 4 fichiers htmls du dossier index/</t>
+  </si>
+  <si>
+    <t>- Ouverture des 4 fichiers htmls corrspondants à ceux déjà ouverts (même numéro) du dossier index2/</t>
+  </si>
+  <si>
+    <t>- Conservation des numéros d'incrémentation des htlm</t>
+  </si>
+  <si>
+    <t>- Conservation du texte</t>
+  </si>
+  <si>
+    <t>- Affichage du texte sur une ligne</t>
+  </si>
+  <si>
+    <t>- Génération d'html dans le dossier index2/</t>
+  </si>
+  <si>
+    <t>- Génération d'un html dans le répertoire index2/
+=&gt; 72 htmls dans dossier index/ pour 72 .html générés dans le dossier index2/</t>
+  </si>
+  <si>
+    <t>- les numéros d'incrémentation sont conservé et correspondent bien</t>
+  </si>
+  <si>
+    <t>- Le texte n'est pas modifié et apparait sur une ligne.</t>
+  </si>
+  <si>
+    <t>Aucune</t>
+  </si>
+  <si>
+    <t>- lancement du fichier bd.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Ouverture des 3 fichiers créés FusionPP.txt, FusionPQ.txt et FusionPU.txt</t>
+  </si>
+  <si>
+    <t>- Ouverture des 3 fichiers sources : PP - Copie.txt, PQ - Copie.txt et PU - Copie.txt</t>
+  </si>
+  <si>
+    <t>- Vérification de la conservation du texte</t>
+  </si>
+  <si>
+    <t>- Vérification des autres modifications souhaitées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          → Pour PM : 
+                     TI -&gt; TI (Identique) 
+                     AU -&gt; AU (Identique) 
+                     DP -&gt; DA (Modifié, Conservé que les années) 
+                     ABHR-&gt; AB (Modifié) 
+                     OT -&gt; MC (Modifié)  
+                     MH -&gt; MC (Modifié) 
+                     AD -&gt; AD (Modifié)</t>
+  </si>
+  <si>
+    <t>Test du fichier bd.pl qui change les formats des variables des 3 bases de données et met les résultats dans 3 fichier txt (un par base) pour faire une fusion par la suite. 
+Modifications souhaitées :</t>
+  </si>
+  <si>
+    <t>- Génération de fichiers : FusionPP.txt, FusionPQ.txt, FusionPU.txt</t>
+  </si>
+  <si>
+    <t>- Vérification par comptage de la modification du nom des balises désirées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID- PP8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI - Sportpsychologie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU - Alfermann, Dorothee - Stoll, Oliver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM - alferman@rz.uni-leipzig.de (Alfermann, Dorothee) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD - Universität Leipzig; Sportwissenschaftliche Fakultät </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY - GERMANY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD - http://www.uni-leipzig.de/~sportfak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA - 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA - German </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB - Das Lehrbuch erläutert die allgemeinpsychologischen, entwicklungspsychologischen und sozialpsychologischen Grundlagen des Sports und zeigt wie die Sportpsychologie diese Erkenntnisse in der Praxis umsetzt. - Inhalt: (1) Was ist Sportpsychologie? (2) Kognitionen. (3) Visualisierung und Mentales Training. (4) Emotionen und Stress. (5) Entspannungsverfahren. (6) Motivation. (7) Zielsetzungstraining. (8) Entwicklung. (9) Karriere im Leistungssport. (10) Trainer-Athlet-Interaktion. (11) Gruppe und Mannschaft. (12) Zuschauer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Sport Psychology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Sports - Athletic Performance - Athletic Training - Coaches - Audiences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Mental Training </t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>DFK_0174336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TI:</t>
+  </si>
+  <si>
+    <t>Sportpsychologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AU:</t>
+  </si>
+  <si>
+    <t>Alfermann, Dorothee - Stoll, Oliver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMAILO:</t>
+  </si>
+  <si>
+    <t>alferman@rz.uni-leipzig.de (Alfermann, Dorothee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS:</t>
+  </si>
+  <si>
+    <t>Universität Leipzig; Sportwissenschaftliche Fakultät</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COU:</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URLCS:</t>
+  </si>
+  <si>
+    <t>http://www.uni-leipzig.de/~sportfak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUWWW1:</t>
+  </si>
+  <si>
+    <t>Aachen: Meyer &amp; Meyer, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUWWW2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267 S., EUR 18,95 [Sportwissenschaft studieren, Band 4] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUWWW3:</t>
+  </si>
+  <si>
+    <t>Etwa 300 Literaturang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA:</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABHR:</t>
+  </si>
+  <si>
+    <t>Das Lehrbuch erläutert die allgemeinpsychologischen, entwicklungspsychologischen und sozialpsychologischen Grundlagen des Sports und zeigt wie die Sportpsychologie diese Erkenntnisse in der Praxis umsetzt. - Inhalt: (1) Was ist Sportpsychologie? (2) Kognitionen. (3) Visualisierung und Mentales Training. (4) Emotionen und Stress. (5) Entspannungsverfahren. (6) Motivation. (7) Zielsetzungstraining. (8) Entwicklung. (9) Karriere im Leistungssport. (10) Trainer-Athlet-Interaktion. (11) Gruppe und Mannschaft. (12) Zuschauer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHE:</t>
+  </si>
+  <si>
+    <t>3720 Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTDH:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTEH:</t>
+  </si>
+  <si>
+    <t>Sport Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTDL:</t>
+  </si>
+  <si>
+    <t>Sport - Sportliche Leistung - Sporttraining - Trainer - Publikum</t>
+  </si>
+  <si>
+    <t>Sports - Athletic Performance - Athletic Training - Coaches - Audiences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ITDL:</t>
+  </si>
+  <si>
+    <t>Mentales Training</t>
+  </si>
+  <si>
+    <t>Mental Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DB:</t>
+  </si>
+  <si>
+    <t>PSYNDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          → Pour PP : 
+                     TI -&gt; TI (Identique) 
+                     AU -&gt; AU (Identique) 
+                     PY -&gt; DA (Modifié) 
+                     ABHR-&gt; AB (Modifié) 
+                     CTEH -&gt; MC (Modifié) 
+                     CS -&gt; AD (Modifié) 
+                     COU -&gt; PY (Modifié) 
+                     EMAILO -&gt; EM (Modifié)</t>
+  </si>
+  <si>
+    <t>- Comparaison d'articles références (c-a-d article avec toutes les modifications voulues), un par BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          → Pour PM : La balise AD est créé plusieurs fois. Cause : Apparation du terme CS dans plusieurs balises (URLCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          → Pour PQ : 
+                     Titre -&gt; TI (Modifié) 
+                     Auteur -&gt; AU (Modifié)  
+                     Auteur -&gt; AD (Modifié) 
+                     Date de publication -&gt; DA (Modifié) 
+                     Langue-&gt; LA (Modifié) 
+                     Résumé -&gt; AB (Modifié) 
+                     Sujet -&gt; MC (Modifié) 
+                     Identification -&gt; MC (Modifié) 
+                     Adresse courriel -&gt; EM (Modifié)</t>
+  </si>
+  <si>
+    <t>____________________________________________________________</t>
+  </si>
+  <si>
+    <t>What a difference a “Mentally Toughening” year makes: The acculturation of a rookie.</t>
+  </si>
+  <si>
+    <t>http://search.proquest.com/docview/1634753832?accountid=16511</t>
+  </si>
+  <si>
+    <t>Résumé: Objectives: This study investigated how one subculture's norms, traditions, ideals, and imperatives influenced the attitudes, beliefs, emotions, and behaviours of a young athlete (Joe) as he moved from resistance to acculturation. Design: Longitudinal case study of one athlete in one specific sport subculture. Method: Joe took part in five open</t>
+  </si>
+  <si>
+    <t>ended in</t>
+  </si>
+  <si>
+    <t>depth interviews over a 14</t>
+  </si>
+  <si>
+    <t>month period to investigate his experiences as an elite athlete within an Australian football team. Joe's story was analysed through an acculturation</t>
+  </si>
+  <si>
+    <t>process lens and models on mental toughness, overtraining, and stress</t>
+  </si>
+  <si>
+    <t>recovery to evaluate the indoctrination of one athlete. Findings: During the initial interviews Joe resisted the subculture demands of the football club and tried to find success by maintaining his own beliefs. By the end of the 14</t>
+  </si>
+  <si>
+    <t>month study Joe had realised that to be successful in the club he needed to embrace the norms, traditions, ideals, and imperatives of the football culture. Joe gained acceptance at the club when he eventually internalised the hypermasculine subculture and ignored injury, played in pain, subjugated his interests for football, and viewed physical abuse as a positive and necessary part of the toughening process. Conclusion: Joe's case study demonstrates that the subcultural ideals of mental toughness mean ignoring injury, playing in pain, denying emotion and vulnerability, and sacrificing individuality, which inevitably lead to stress/recovery imbalance and overtraining. In this subculture, demonstrating mental toughness is similar to a hypermasculine environment typified by slogans such as no</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>gain and rest</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>dead where success is more important than individual wellbeing. (PsycINFO Database Record (c) 2015 APA, all rights reserved)(journal abstract)</t>
+  </si>
+  <si>
+    <t>Liens: http://BY4BU7LN5E.search.serialssolutions.com/?ctx_ver=Z39.88</t>
+  </si>
+  <si>
+    <t>2004&amp;amp;ctx_enc=info:ofi/enc:UTF</t>
+  </si>
+  <si>
+    <t>8&amp;amp;rfr_id=info:sid/ProQ%3Apsycinfo&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;rft.genre=article&amp;amp;rft.jtitle=Psychology+of+Sport+and+Exercise&amp;amp;rft.atitle=What+a+difference+a+%E2%80%9CMentally+Toughening%E2%80%9D+year+makes%3A+The+acculturation+of+a+rookie.&amp;amp;rft.au=Tibbert%2C+Stephanie+J.%3BAndersen%2C+Mark+B.%3BMorris%2C+Tony&amp;amp;rft.aulast=Tibbert&amp;amp;rft.aufirst=Stephanie&amp;amp;rft.date=2015</t>
+  </si>
+  <si>
+    <t>01&amp;amp;rft.volume=17&amp;amp;rft.issue=&amp;amp;rft.spage=68&amp;amp;rft.isbn=&amp;amp;rft.btitle=&amp;amp;rft.title=Psychology+of+Sport+and+Exercise&amp;amp;rft.issn=14690292&amp;amp;rft_id=info:doi/10.1016%2Fj.psychsport.2014.10.007</t>
+  </si>
+  <si>
+    <t>Adresse de courriel de l'auteur: mark.andersen@hh.se</t>
+  </si>
+  <si>
+    <t>Auteur: Tibbert, Stephanie J.1; Andersen, Mark B.2; Morris, Tony11 College of Sport and Exercise Science, Institute for Sport, Exercise and Active Living, Victoria University, Melbourne, VIC, Australia2 Centre for Research on Welfare, Health, and Sport, Halmstad University, Halmstad, Sweden mark.andersen@hh.se</t>
+  </si>
+  <si>
+    <t>Base de données: PsycINFO</t>
+  </si>
+  <si>
+    <t>Date de publication: Mar 2015</t>
+  </si>
+  <si>
+    <t>Date de publication: 08 déc. 2014 (PsycINFO)</t>
+  </si>
+  <si>
+    <t>ID de document ProQuest: 1634753832</t>
+  </si>
+  <si>
+    <t>ISSN: 1469</t>
+  </si>
+  <si>
+    <t>Identificateur (mot clé): Cultural influences Mental toughness Overtraining Traditions Norms</t>
+  </si>
+  <si>
+    <t>Langue: Anglais</t>
+  </si>
+  <si>
+    <t>Lieu: Australia</t>
+  </si>
+  <si>
+    <t>Méthodologie: Empirical Study, Longitudinal Study, Interview, Quantitative Study</t>
+  </si>
+  <si>
+    <t>Sujet: Acculturation (principal); Athletes (principal); Resistance (principal); Sport Psychology (principal); Emotions; Football</t>
+  </si>
+  <si>
+    <t>Titre: What a difference a “Mentally Toughening” year makes: The acculturation of a rookie.</t>
+  </si>
+  <si>
+    <t>Type de document: Journal, Peer</t>
+  </si>
+  <si>
+    <t>reviewed Journal, Journal Article</t>
+  </si>
+  <si>
+    <t>------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID- PQ1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB - Objectives: This study investigated how one subculture's norms, traditions, ideals, and imperatives influenced the attitudes, beliefs, emotions, and behaviours of a young athlete (Joe) as he moved from resistance to acculturation. Design: Longitudinal case study of one athlete in one specific sport subculture. Method: Joe took part in five open-ended in-depth interviews over a 14-month period to investigate his experiences as an elite athlete within an Australian football team. Joe's story was analysed through an acculturation-process lens and models on mental toughness, overtraining, and stress-recovery to evaluate the indoctrination of one athlete. Findings: During the initial interviews Joe resisted the subculture demands of the football club and tried to find success by maintaining his own beliefs. By the end of the 14-month study Joe had realised that to be successful in the club he needed to embrace the norms, traditions, ideals, and imperatives of the football culture. Joe gained acceptance at the club when he eventually internalised the hypermasculine subculture and ignored injury, played in pain, subjugated his interests for football, and viewed physical abuse as a positive and necessary part of the toughening process. Conclusion: Joe's case study demonstrates that the subcultural ideals of mental toughness mean ignoring injury, playing in pain, denying emotion and vulnerability, and sacrificing individuality, which inevitably lead to stress/recovery imbalance and overtraining. In this subculture, demonstrating mental toughness is similar to a hypermasculine environment typified by slogans such as no-pain-no-gain and rest-is-for-the-dead where success is more important than individual wellbeing. (PsycINFO Database Record (c) 2015 APA, all rights reserved)(journal abstract) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM - mark.andersen@hh.se </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU - Tibbert, Stephanie J.1; Andersen, Mark B.2; Morris, Tony11 College of Sport and Exercise Science, Institute for Sport, Exercise and Active Living, Victoria University, Melbourne, VIC, Australia2 Centre for Research on Welfare, Health, and Sport, Halmstad University, Halmstad, Sweden mark.andersen@hh.se </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD - Tibbert, Stephanie J.1; Andersen, Mark B.2; Morris, Tony11 College of Sport and Exercise Science, Institute for Sport, Exercise and Active Living, Victoria University, Melbourne, VIC, Australia2 Centre for Research on Welfare, Health, and Sport, Halmstad University, Halmstad, Sweden mark.andersen@hh.se </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA - Mar 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA - 08 déc. 2014 (PsycINFO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Cultural influences Mental toughness Overtraining Traditions Norms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA - Anglais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Acculturation (principal); Athletes (principal); Resistance (principal); Sport Psychology (principal); Emotions; Football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI - What a difference a “Mentally Toughening” year makes: The acculturation of a rookie. </t>
+  </si>
+  <si>
+    <t>- Aucune perte de texte :
+'          → Pour PM : 668 balises (TI, AU, …) fichiers sources ET résultats
+'          → Pour PQ : 1310 balises (Langue/LA, …) fichiers sources ET résultats
+'          → Pour PP : 1097 balises fichiers sources ET résultats</t>
+  </si>
+  <si>
+    <t>- Bonne modification des balises :
+'          → Pour PM : PY en DA, …
+'          → Pour PQ : Titre en TI, …
+'          → Pour PM : DP en DA, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PMID- 25648198</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWN - NLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAT- Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DA  - 20150204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LR  - 20150205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS  - 1600-0838 (Electronic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS  - 0905-7188 (Linking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DP  - 2015 Feb 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TI  - Motivational climate, goal orientation, perceived sport ability, and enjoyment within Finnish junior ice hockey players.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LID - 10.1111/sms.12410 [doi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB  - The aim of this study was to investigate the relations among situational</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CI  - (c) 2015 John Wiley &amp; Sons A/S. Published by John Wiley &amp; Sons Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAU - Jaakkola, T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AU  - Jaakkola T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD  - Department of Sport Sciences, University of Jyvaskyla, Jyvaskyla, Finland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAU - Ntoumanis, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AU  - Ntoumanis N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAU - Liukkonen, J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AU  - Liukkonen J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA  - ENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PT  - JOURNAL ARTICLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEP - 20150203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TA  - Scand J Med Sci Sports	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JT  - Scandinavian journal of medicine &amp; science in sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JID - 9111504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTO - NOTNLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OT  - Motivational climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OT  - achievement goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OT  - enjoyment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OT  - sport ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OT  - youth sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDAT- 2015/02/05 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MHDA- 2015/02/05 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRDT- 2015/02/05 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHST- 2014/12/15 [accepted]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AID - 10.1111/sms.12410 [doi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PST - aheadofprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SO  - Scand J Med Sci Sports. 2015 Feb 3. doi: 10.1111/sms.12410.</t>
+  </si>
+  <si>
+    <t>PMID- 25648198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA - 2015 Feb 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - Motivational climate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - achievement goals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - enjoyment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - sport ability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC - youth sports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          → Pour PP : Les balises non voulues non pas été supprimées et la date pas modifiée comme convenue</t>
+  </si>
+  <si>
+    <t>Date du test : 13/03/2015</t>
+  </si>
+  <si>
+    <t>Date du test : 17/03/2015</t>
+  </si>
+  <si>
+    <t>Date du test : 09/03/2015</t>
+  </si>
+  <si>
+    <t>Preuves Test N°1 : URL.pl</t>
+  </si>
+  <si>
+    <t>Preuves Test N°4 : ExtracModif.pl</t>
+  </si>
+  <si>
+    <t>Preuves Test N°5 : BD.pl</t>
+  </si>
+  <si>
+    <t>Preuves</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>URL.pl</t>
+  </si>
+  <si>
+    <t>Préparation de données du blog</t>
+  </si>
+  <si>
+    <t>N°1</t>
+  </si>
+  <si>
+    <t>lebon.pl</t>
+  </si>
+  <si>
+    <t>N°2</t>
+  </si>
+  <si>
+    <t>ligne.pl</t>
+  </si>
+  <si>
+    <t>N°3</t>
+  </si>
+  <si>
+    <t>N°4</t>
+  </si>
+  <si>
+    <t>ExtractModif.pl</t>
+  </si>
+  <si>
+    <t>Préparation des bases de données</t>
+  </si>
+  <si>
+    <t>bd.pl</t>
+  </si>
+  <si>
+    <t>N°5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom </t>
+  </si>
+  <si>
+    <t>Description test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,8 +1417,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +1531,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -725,19 +1615,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1101,10 +1978,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1117,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1130,70 +2008,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1202,12 +2080,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1220,37 +2092,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,80 +2143,83 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,16 +2260,76 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3B3B"/>
       <color rgb="FF4BACC6"/>
-      <color rgb="FFFF3B3B"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF7CC3D6"/>
       <color rgb="FFBD92DE"/>
@@ -2482,8 +3426,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2493,9 +3437,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="333375" y="4000501"/>
-          <a:ext cx="4581525" cy="1904999"/>
+          <a:ext cx="4581525" cy="2047874"/>
           <a:chOff x="5343525" y="561975"/>
-          <a:chExt cx="4581525" cy="1904999"/>
+          <a:chExt cx="4581525" cy="2047874"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2506,9 +3450,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="5353050" y="581022"/>
-            <a:ext cx="4572000" cy="1885952"/>
+            <a:ext cx="4572000" cy="2028827"/>
             <a:chOff x="3086100" y="852447"/>
-            <a:chExt cx="4572000" cy="1648352"/>
+            <a:chExt cx="4572000" cy="1773227"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2519,7 +3463,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3086100" y="852447"/>
-              <a:ext cx="4562475" cy="1640027"/>
+              <a:ext cx="4562475" cy="1773227"/>
             </a:xfrm>
             <a:prstGeom prst="round2DiagRect">
               <a:avLst/>
@@ -2561,7 +3505,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3086100" y="857250"/>
-              <a:ext cx="4572000" cy="1643549"/>
+              <a:ext cx="4572000" cy="1726799"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2794,6 +3738,19 @@
               <a:r>
                 <a:rPr lang="fr-FR" u="none" baseline="0"/>
                 <a:t> ajout, modification d'éléments dans le rapport</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst>
+                  <a:tab pos="360000" algn="l"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t>Le responsabilité doit réaliser une fiche de test pour chaque test, ainsi qu'un cahier de recette</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR" u="none"/>
             </a:p>
@@ -5457,296 +6414,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="30"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="126"/>
+      <c r="C5" s="127" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="123">
+        <v>0</v>
+      </c>
+      <c r="F6" s="121">
+        <v>42072</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="48">
+        <v>1</v>
+      </c>
+      <c r="F7" s="121">
+        <v>42072</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+      <c r="F8" s="121">
+        <v>42076</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1</v>
+      </c>
+      <c r="F9" s="121">
+        <v>42076</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="127" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="120">
+        <v>0</v>
+      </c>
+      <c r="F11" s="121">
+        <v>42080</v>
+      </c>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="50" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="53" t="s">
+      <c r="D14" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="52">
+      <c r="E15" s="48">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="48">
+        <v>0</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="48">
         <v>1</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="52">
+      <c r="F17" s="48"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="48">
         <v>-1</v>
       </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="53" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="48">
+        <v>0</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="48">
+        <v>0</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48">
+        <v>0</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="52">
+      <c r="D23" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="48">
+        <v>1</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="48">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="52">
+      <c r="F25" s="48"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="48">
         <v>1</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="52">
+      <c r="F26" s="48"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="48">
         <v>-1</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="52">
+      <c r="F27" s="48"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="48">
         <v>0</v>
       </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="52">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="52">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="52">
+      <c r="F28" s="48"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="48">
         <v>-1</v>
       </c>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="52">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="52">
-        <v>1</v>
-      </c>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="52">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="52">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="52">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="30"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="5">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5754,7 +6867,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{6A2CEF1C-4F63-4CF3-9327-2EB0BB15EF0C}">
+          <x14:cfRule type="iconSet" priority="28" id="{6A2CEF1C-4F63-4CF3-9327-2EB0BB15EF0C}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5770,7 +6883,121 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D1:D4 D6:D1048576</xm:sqref>
+          <xm:sqref>E13:F1048576 E1:F4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{BCE6A7D9-E57B-4556-B727-67C5FAD75137}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{704C89C1-61D9-4856-887E-C48FCF76F375}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{A1C70F02-BDF6-4405-9EEB-33BECCC1EE66}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E8:E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{63C51EBE-D05F-49D9-B11E-0B76D22CE5EC}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{C1BB5D85-761B-4066-AFA3-4688F030B4F2}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{C5F62DF8-207F-4231-B8AB-9754EB0A324E}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5780,15 +7007,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -5798,19 +7025,19 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -5820,49 +7047,49 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="82" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="87">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="88"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85">
+        <v>0</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -5872,291 +7099,1816 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="72" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="95"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="82" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85">
+        <v>1</v>
+      </c>
+      <c r="G35" s="86"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="30"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+    </row>
+    <row r="62" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="B64" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="95"/>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="30"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="C66" s="83"/>
+      <c r="D66" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="84"/>
+      <c r="F66" s="85">
+        <v>1</v>
+      </c>
+      <c r="G66" s="86"/>
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="30"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+      <c r="B69" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="30"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="30"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
+      <c r="B74" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="30"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="30"/>
+    </row>
+    <row r="76" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="30"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
+      <c r="B78" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="30"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="30"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="30"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="30"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="30"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+      <c r="B84" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="30"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="30"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="30"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="30"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="B89" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="30"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="30"/>
+      <c r="B90" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="30"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="109"/>
+      <c r="L92" s="109"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+    </row>
+    <row r="94" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="94"/>
+      <c r="H94" s="30"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="B96" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" s="95"/>
+      <c r="H96" s="30"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="30"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="95"/>
+      <c r="H97" s="30"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="30"/>
+      <c r="B98" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" s="83"/>
+      <c r="D98" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="84"/>
+      <c r="F98" s="85">
+        <v>1</v>
+      </c>
+      <c r="G98" s="86"/>
+      <c r="H98" s="30"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="30"/>
+    </row>
+    <row r="101" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30"/>
+      <c r="B101" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="30"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="30"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="30"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="30"/>
+      <c r="B103" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="30"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="30"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="30"/>
+      <c r="B105" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="30"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="30"/>
+      <c r="B106" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="30"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="30"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="30"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="30"/>
+      <c r="B110" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="30"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="30"/>
+      <c r="B111" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="30"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="30"/>
+      <c r="B112" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="30"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="30"/>
+      <c r="B113" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="30"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="30"/>
+      <c r="B114" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="30"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="30"/>
+      <c r="B116" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="30"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="30"/>
+      <c r="B117" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="30"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="30"/>
+      <c r="B118" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="30"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="30"/>
+      <c r="B119" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="30"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="30"/>
+      <c r="B121" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="30"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="30"/>
+      <c r="B122" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="30"/>
+    </row>
+    <row r="123" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="30"/>
+      <c r="B123" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="30"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="109"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="109"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="109"/>
+      <c r="H125" s="109"/>
+      <c r="I125" s="109"/>
+      <c r="J125" s="109"/>
+      <c r="K125" s="109"/>
+      <c r="L125" s="109"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+    </row>
+    <row r="127" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="30"/>
+      <c r="B127" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="94"/>
+      <c r="H127" s="30"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="30"/>
+      <c r="B129" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="95"/>
+      <c r="D129" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E129" s="95"/>
+      <c r="F129" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G129" s="95"/>
+      <c r="H129" s="30"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="30"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="95"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="95"/>
+      <c r="G130" s="95"/>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="30"/>
+      <c r="B131" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" s="83"/>
+      <c r="D131" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="84"/>
+      <c r="F131" s="85">
+        <v>0</v>
+      </c>
+      <c r="G131" s="86"/>
+      <c r="H131" s="30"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="30"/>
+      <c r="B133" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="30"/>
+    </row>
+    <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30"/>
+      <c r="B134" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="112"/>
+      <c r="D134" s="112"/>
+      <c r="E134" s="112"/>
+      <c r="F134" s="112"/>
+      <c r="G134" s="114"/>
+      <c r="H134" s="30"/>
+    </row>
+    <row r="135" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="30"/>
+      <c r="B135" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="30"/>
+    </row>
+    <row r="136" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="30"/>
+      <c r="B136" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="110"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="110"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="111"/>
+      <c r="H136" s="30"/>
+    </row>
+    <row r="137" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="30"/>
+      <c r="B137" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" s="115"/>
+      <c r="D137" s="115"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="115"/>
+      <c r="G137" s="116"/>
+      <c r="H137" s="30"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="30"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="30"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="30"/>
+      <c r="B139" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="30"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="30"/>
+      <c r="B140" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="90"/>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="30"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="30"/>
+      <c r="B141" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="30"/>
+    </row>
+    <row r="142" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="30"/>
+      <c r="B142" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C142" s="90"/>
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="91"/>
+      <c r="H142" s="30"/>
+    </row>
+    <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="30"/>
+      <c r="B143" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="81"/>
+      <c r="H143" s="30"/>
+    </row>
+    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="30"/>
+      <c r="B144" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="30"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="30"/>
+      <c r="B145" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="30"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="30"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="30"/>
+      <c r="B147" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="30"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="30"/>
+      <c r="B148" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="75"/>
+      <c r="H148" s="30"/>
+    </row>
+    <row r="149" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="30"/>
+      <c r="B149" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="30"/>
+    </row>
+    <row r="150" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="30"/>
+      <c r="B150" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="30"/>
+    </row>
+    <row r="151" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="30"/>
+      <c r="B151" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="78"/>
+      <c r="H151" s="30"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="30"/>
+      <c r="B153" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="30"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="30"/>
+      <c r="B154" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="74"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="30"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="30"/>
+      <c r="B155" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="75"/>
+      <c r="H155" s="30"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="30"/>
+      <c r="B156" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" s="71"/>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="71"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="30"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="30"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="30"/>
+      <c r="B158" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="30"/>
+    </row>
+    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="30"/>
+      <c r="B159" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" s="110"/>
+      <c r="D159" s="110"/>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="111"/>
+      <c r="H159" s="30"/>
+    </row>
+    <row r="160" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="30"/>
+      <c r="B160" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="78"/>
+      <c r="H160" s="30"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="30"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B17:G17"/>
+  <mergeCells count="107">
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
@@ -6164,10 +8916,104 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="D96:E97"/>
+    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B129:C130"/>
+    <mergeCell ref="D129:E130"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6175,7 +9021,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{7CCA0742-ED86-4D73-9743-14F7D02BAFF9}">
+          <x14:cfRule type="iconSet" priority="6" id="{7CCA0742-ED86-4D73-9743-14F7D02BAFF9}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{BC998A7D-1F4B-462B-99DC-47C2731FA9A7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6191,7 +9056,64 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F6</xm:sqref>
+          <xm:sqref>F35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{17A550B4-2B89-4B7F-B779-A977F8A2D4F0}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{9E2341E7-471D-464F-B221-4A60BBBBE839}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{D5278E66-6307-4C4B-BA56-0D390F0AA21B}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F131</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6200,6 +9122,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S166"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="117" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="63"/>
+      <c r="B25" s="61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="118"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="119"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="F84" t="s">
+        <v>259</v>
+      </c>
+      <c r="G84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
+      <c r="G85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" t="s">
+        <v>263</v>
+      </c>
+      <c r="G86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>271</v>
+      </c>
+      <c r="G90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" t="s">
+        <v>273</v>
+      </c>
+      <c r="G91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" t="s">
+        <v>275</v>
+      </c>
+      <c r="G92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F94" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" t="s">
+        <v>278</v>
+      </c>
+      <c r="G95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" t="s">
+        <v>280</v>
+      </c>
+      <c r="G96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>282</v>
+      </c>
+      <c r="G97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G101" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>285</v>
+      </c>
+      <c r="G103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>293</v>
+      </c>
+      <c r="G104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>335</v>
+      </c>
+      <c r="F107" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>337</v>
+      </c>
+      <c r="F109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>339</v>
+      </c>
+      <c r="F111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" t="s">
+        <v>303</v>
+      </c>
+      <c r="H111" t="s">
+        <v>304</v>
+      </c>
+      <c r="I111" t="s">
+        <v>305</v>
+      </c>
+      <c r="J111" t="s">
+        <v>306</v>
+      </c>
+      <c r="K111" t="s">
+        <v>307</v>
+      </c>
+      <c r="L111" t="s">
+        <v>308</v>
+      </c>
+      <c r="M111" t="s">
+        <v>309</v>
+      </c>
+      <c r="N111" t="s">
+        <v>310</v>
+      </c>
+      <c r="O111" t="s">
+        <v>311</v>
+      </c>
+      <c r="P111" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>313</v>
+      </c>
+      <c r="R111" t="s">
+        <v>314</v>
+      </c>
+      <c r="S111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>340</v>
+      </c>
+      <c r="F112" t="s">
+        <v>316</v>
+      </c>
+      <c r="G112" t="s">
+        <v>317</v>
+      </c>
+      <c r="H112" t="s">
+        <v>318</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>341</v>
+      </c>
+      <c r="F113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>342</v>
+      </c>
+      <c r="F114" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>343</v>
+      </c>
+      <c r="F115" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>344</v>
+      </c>
+      <c r="F116" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="F117" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>346</v>
+      </c>
+      <c r="F118" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>335</v>
+      </c>
+      <c r="F119" t="s">
+        <v>326</v>
+      </c>
+      <c r="G119">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>333</v>
+      </c>
+      <c r="G126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>387</v>
+      </c>
+      <c r="F129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>350</v>
+      </c>
+      <c r="F130" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>351</v>
+      </c>
+      <c r="F131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="F132" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>353</v>
+      </c>
+      <c r="F133" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+      <c r="F134" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>355</v>
+      </c>
+      <c r="F135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>388</v>
+      </c>
+      <c r="F136" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="F137" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>358</v>
+      </c>
+      <c r="F138" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>359</v>
+      </c>
+      <c r="F139" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>360</v>
+      </c>
+      <c r="F140" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>361</v>
+      </c>
+      <c r="F141" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>363</v>
+      </c>
+      <c r="F143" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+      <c r="F144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="F145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="F146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="F147" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>368</v>
+      </c>
+      <c r="F148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>369</v>
+      </c>
+      <c r="F149" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>370</v>
+      </c>
+      <c r="F150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>371</v>
+      </c>
+      <c r="F151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>372</v>
+      </c>
+      <c r="F152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>373</v>
+      </c>
+      <c r="F153" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>374</v>
+      </c>
+      <c r="F154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>389</v>
+      </c>
+      <c r="F155" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>390</v>
+      </c>
+      <c r="F156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>391</v>
+      </c>
+      <c r="F157" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>392</v>
+      </c>
+      <c r="F158" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>393</v>
+      </c>
+      <c r="F159" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>380</v>
+      </c>
+      <c r="F160" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>381</v>
+      </c>
+      <c r="F161" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>382</v>
+      </c>
+      <c r="F162" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>383</v>
+      </c>
+      <c r="F163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>384</v>
+      </c>
+      <c r="F164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>385</v>
+      </c>
+      <c r="F165" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>386</v>
+      </c>
+      <c r="F166" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A81:H81"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -6212,25 +10298,25 @@
     <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6243,121 +10329,121 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>98</v>
+      <c r="B6" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>113</v>
+      <c r="D6" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>114</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>42037</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>42033</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="55">
         <v>42037</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <v>42093</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>110</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>113</v>
+      <c r="D11" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>113</v>
+      <c r="D12" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -6365,12 +10451,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6383,7 +10469,7 @@
       <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F16"/>
@@ -6392,51 +10478,51 @@
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>115</v>
+      <c r="B17" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="56">
         <v>42093</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6449,7 +10535,7 @@
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F23"/>
@@ -6458,43 +10544,43 @@
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>101</v>
+      <c r="B24" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>113</v>
+      <c r="D24" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>113</v>
+      <c r="D25" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>95</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="56">
         <v>42093</v>
       </c>
     </row>
@@ -6592,7 +10678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -6605,24 +10691,24 @@
     <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6635,7 +10721,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6643,51 +10729,51 @@
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>119</v>
+      <c r="B6" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>113</v>
+      <c r="D6" s="55" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="56">
         <v>42093</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6700,7 +10786,7 @@
       <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6708,60 +10794,60 @@
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>113</v>
+      <c r="D13" s="55" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>-1</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>111</v>
       </c>
       <c r="C15" s="6">
         <v>-1</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="57">
         <v>42065</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6836,11 +10922,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6850,20 +10936,20 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="53" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6871,7 +10957,7 @@
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
@@ -6885,19 +10971,19 @@
       <c r="E5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" s="17">
         <v>3</v>
@@ -6910,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G6" s="18"/>
       <c r="I6">
@@ -6919,7 +11005,7 @@
     </row>
     <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>21</v>
@@ -6935,19 +11021,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C8" s="17">
         <v>3</v>
@@ -6960,21 +11046,21 @@
         <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C9" s="17">
         <v>2</v>
@@ -6987,16 +11073,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>27</v>
@@ -7020,7 +11106,7 @@
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>30</v>
@@ -7036,13 +11122,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>32</v>
@@ -7058,18 +11144,18 @@
         <v>8</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -7082,16 +11168,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -7104,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -7153,7 +11239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -7168,17 +11254,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="A1" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -7193,7 +11279,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7201,7 +11287,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -7213,7 +11299,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7223,7 +11309,7 @@
       <c r="B7" s="36"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7252,42 +11338,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7299,27 +11349,66 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="A1" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Réunions" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Fiches!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Fiches!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="419">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -460,21 +460,12 @@
     <t>- Ouverture du fichier généré URL.txt</t>
   </si>
   <si>
-    <t>Test du fichier url.pl qui cherche dans tous les .html (extrait par Marine) les URL utiles et les stocke dans un fichier texte résultat (URL.txt)</t>
-  </si>
-  <si>
     <t>- Comparaison des URLs du fichier résultat avec ceux présents dans les articles</t>
   </si>
   <si>
-    <t>- Génération du fichier URL.txt</t>
-  </si>
-  <si>
     <t>- Présence des URLs de l'article dans le fichier résultat</t>
   </si>
   <si>
-    <t>- ?</t>
-  </si>
-  <si>
     <t>www.psychologiesport.fr%2Faide-psy-sportifs%2F&amp;amp;linkname=Quand%20les%20sportifs%20ont%20recours%20%C3%A0%20une%20aide%20psychologique%20%28La%20Croix%29</t>
   </si>
   <si>
@@ -589,58 +580,18 @@
     <t>Test du fichier lebon.pl qui extrait les bons index.html présent dans le répertoire crée par HTTRACK (www.psychologiesport.fr) et les copie dans le répertoire index/ en incrémentant</t>
   </si>
   <si>
-    <t>- Incrémentation des html (1.html, 2.html,…)</t>
-  </si>
-  <si>
-    <t>- copie des html dans le dossier index/</t>
-  </si>
-  <si>
-    <t>- Copie des bons htlm</t>
-  </si>
-  <si>
-    <t>- Comparaison des html entre ces deux répertoires</t>
-  </si>
-  <si>
-    <t>- Copie d'un html par sous-répertoire dans le répertoire www.psychologiesport.fr/
-=&gt; 133 sous-dossier (un par article) pour 133 .html copiés dans le dossier index/</t>
-  </si>
-  <si>
-    <t>- Les htlms copiés correspondent à ceux qui renvoient vers un article</t>
-  </si>
-  <si>
-    <t>- les .htlms vont de 1 à 133</t>
-  </si>
-  <si>
     <t>N° de fiche : 3</t>
   </si>
   <si>
     <t>N° de fiche : 4</t>
   </si>
   <si>
-    <t>- lancement du fichier ExtractModif.pl par la commande perl …</t>
-  </si>
-  <si>
     <t>- Ouverture du fichier résultat réponse.txt</t>
   </si>
   <si>
     <t>Test du fichier ExtractModif.pl qui récupère le texte de tous les .html entre les balises spécifiées et l'insère dans le fichier réponse.txt</t>
   </si>
   <si>
-    <t>- Comparaison des htmls avec le fichier réponse.txt</t>
-  </si>
-  <si>
-    <t>- génération du fichier réponse.txt</t>
-  </si>
-  <si>
-    <t>- le texte de l'article dont l'html fait référence se retrouve dans le fichier réponse.txt</t>
-  </si>
-  <si>
-    <t>- le texte fait référence au bon article et au bon html</t>
-  </si>
-  <si>
-    <t>- Recherche de l'htlm X dans le fichier résultat</t>
-  </si>
-  <si>
     <t>1)</t>
   </si>
   <si>
@@ -671,9 +622,6 @@
     <t>2)</t>
   </si>
   <si>
-    <t>- Ouverture de 4 htmls</t>
-  </si>
-  <si>
     <t>3)</t>
   </si>
   <si>
@@ -710,24 +658,9 @@
     <t>N° de fiche : 5</t>
   </si>
   <si>
-    <t>Test du fichier ligne.pl qui permet de mettre sur une seul ligne tout un fichier. Ce fichier a été appliqué sur tous les htlms.</t>
-  </si>
-  <si>
-    <t>- lancement du fichier ligne.pl par la commande perl …</t>
-  </si>
-  <si>
     <t>- Ouverture du répertoire index2/ (dossier où les nouveaux html sont créés</t>
   </si>
   <si>
-    <t>- Ouverture de 4 fichiers htmls du dossier index/</t>
-  </si>
-  <si>
-    <t>- Ouverture des 4 fichiers htmls corrspondants à ceux déjà ouverts (même numéro) du dossier index2/</t>
-  </si>
-  <si>
-    <t>- Conservation des numéros d'incrémentation des htlm</t>
-  </si>
-  <si>
     <t>- Conservation du texte</t>
   </si>
   <si>
@@ -737,20 +670,10 @@
     <t>- Génération d'html dans le dossier index2/</t>
   </si>
   <si>
-    <t>- Génération d'un html dans le répertoire index2/
-=&gt; 72 htmls dans dossier index/ pour 72 .html générés dans le dossier index2/</t>
-  </si>
-  <si>
-    <t>- les numéros d'incrémentation sont conservé et correspondent bien</t>
-  </si>
-  <si>
     <t>- Le texte n'est pas modifié et apparait sur une ligne.</t>
   </si>
   <si>
     <t>Aucune</t>
-  </si>
-  <si>
-    <t>- lancement du fichier bd.pl par la commande perl …</t>
   </si>
   <si>
     <t>- Ouverture des 3 fichiers créés FusionPP.txt, FusionPQ.txt et FusionPU.txt</t>
@@ -1285,46 +1208,129 @@
     <t>Date</t>
   </si>
   <si>
-    <t>URL.pl</t>
-  </si>
-  <si>
     <t>Préparation de données du blog</t>
   </si>
   <si>
-    <t>N°1</t>
-  </si>
-  <si>
-    <t>lebon.pl</t>
-  </si>
-  <si>
-    <t>N°2</t>
-  </si>
-  <si>
-    <t>ligne.pl</t>
-  </si>
-  <si>
-    <t>N°3</t>
-  </si>
-  <si>
-    <t>N°4</t>
-  </si>
-  <si>
-    <t>ExtractModif.pl</t>
-  </si>
-  <si>
     <t>Préparation des bases de données</t>
   </si>
   <si>
-    <t>bd.pl</t>
-  </si>
-  <si>
-    <t>N°5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom </t>
-  </si>
-  <si>
     <t>Description test</t>
+  </si>
+  <si>
+    <t>N°1) Stockage des URLs des HTMLs (URL.pl)</t>
+  </si>
+  <si>
+    <t>N°2) Copie des bons HTLMS (lebon.pl)</t>
+  </si>
+  <si>
+    <t>N°3)  Affichage sur une ligne (ligne.pl)</t>
+  </si>
+  <si>
+    <t>N°4) Extrait du texte des HTMLs (ExtractModif.pl)</t>
+  </si>
+  <si>
+    <t>N°5) Création de fichier pour fusionner les 3 BD (bd.pl)</t>
+  </si>
+  <si>
+    <t>Test du fichier url.pl qui cherche dans tous les .html (extrait par Marine) les URLs utiles et les stocke dans un fichier texte résultat (URL.txt)</t>
+  </si>
+  <si>
+    <t>Résultat du test:</t>
+  </si>
+  <si>
+    <t>- Copie des bons HTMLs</t>
+  </si>
+  <si>
+    <t>- Les HTMLs copiés correspondent à ceux qui renvoient vers un article</t>
+  </si>
+  <si>
+    <t>Test du fichier ligne.pl qui permet de mettre sur une seul ligne tout un fichier. Ce fichier a été appliqué sur tous les HTMLs.</t>
+  </si>
+  <si>
+    <t>- Conservation des numéros d'incrémentation des HTMLs</t>
+  </si>
+  <si>
+    <t>- Ouverture de 4 HTMLs</t>
+  </si>
+  <si>
+    <t>- Génération du fichier url.txt</t>
+  </si>
+  <si>
+    <t>- Comparaison des HTMLs entre ces deux répertoires</t>
+  </si>
+  <si>
+    <t>- Copie des html dans le dossier index/</t>
+  </si>
+  <si>
+    <t>- Incrémentation des HTMLs (1.html, 2.html,…)</t>
+  </si>
+  <si>
+    <t>- Copie d'un HTML par sous-répertoire dans le répertoire www.psychologiesport.fr/
+=&gt; 133 sous-dossier (un par article) pour 133 .html copiés dans le dossier index/</t>
+  </si>
+  <si>
+    <t>- Ouverture de 4 fichiers HTMLs du dossier index/</t>
+  </si>
+  <si>
+    <t>- Ouverture des 4 fichiers HTMLs correspondants à ceux déjà ouverts (même numéro) du dossier index2/</t>
+  </si>
+  <si>
+    <t>- Génération d'un HTMLs dans le répertoire index2/
+=&gt; 72 html dans dossier index/ pour 72 .html générés dans le dossier index2/</t>
+  </si>
+  <si>
+    <t>- Les numéros d'incrémentation sont conservé et correspondent bien</t>
+  </si>
+  <si>
+    <t>- Lancement du fichier ligne.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Les .html vont de 1 à 133</t>
+  </si>
+  <si>
+    <t>- Lancement du fichier ExtractModif.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Recherche de l'HTML X dans le fichier résultat</t>
+  </si>
+  <si>
+    <t>- Comparaison des HTMLs avec le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- Génération du fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- Le texte de l'article dont l'html fait référence se retrouve dans le fichier réponse.txt</t>
+  </si>
+  <si>
+    <t>- Le texte fait référence au bon article et au bon HTML</t>
+  </si>
+  <si>
+    <t>- Fichier réponse.txt créé</t>
+  </si>
+  <si>
+    <t>- Le texte est conservé</t>
+  </si>
+  <si>
+    <t>- Aucune perte d'HTML</t>
+  </si>
+  <si>
+    <t>- Les articles sont nettoyé (Balises Titre, Auteur et Résumé)</t>
+  </si>
+  <si>
+    <t>- Récupération des URLs lors qu'ils sont présents dans l'article et qu'ils pointent vers un article externe au blog</t>
+  </si>
+  <si>
+    <t>- Certains URLs ne marchent pas</t>
+  </si>
+  <si>
+    <t>- Lancement du fichier bd.pl par la commande perl …</t>
+  </si>
+  <si>
+    <t>- Aucune perte de texte</t>
+  </si>
+  <si>
+    <t>- Bonne modification des balises</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1602,19 +1608,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1982,7 +1975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1995,7 +1988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2008,70 +2001,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2089,125 +2082,102 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="12"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2215,13 +2185,76 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2260,64 +2293,34 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6414,452 +6417,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="5"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="5"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="45"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="124" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="122" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>402</v>
-      </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="E6" s="123">
+      <c r="B6" s="127"/>
+      <c r="C6" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="123">
         <v>0</v>
       </c>
-      <c r="F6" s="121">
+      <c r="E6" s="63">
         <v>42072</v>
       </c>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="B7" s="128"/>
+      <c r="C7" s="129" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="124">
         <v>1</v>
       </c>
-      <c r="F7" s="121">
+      <c r="E7" s="63">
         <v>42072</v>
       </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="124">
         <v>1</v>
       </c>
-      <c r="F8" s="121">
+      <c r="E8" s="63">
         <v>42076</v>
       </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="B9" s="130"/>
+      <c r="C9" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="124">
         <v>1</v>
       </c>
-      <c r="F9" s="121">
+      <c r="E9" s="63">
         <v>42076</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="127" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="125" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="E11" s="120">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="62">
         <v>0</v>
       </c>
-      <c r="F11" s="121">
+      <c r="E11" s="63">
         <v>42080</v>
       </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="C14" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="48">
+      <c r="D14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="48"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="48">
+      <c r="D15" s="48">
         <v>-1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="48"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="48">
+      <c r="D16" s="48">
         <v>0</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="48"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="48">
+      <c r="D17" s="48">
         <v>1</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="48"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="48">
+      <c r="D18" s="48">
         <v>-1</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="48"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="48">
+      <c r="D19" s="48">
         <v>0</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="48"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="48">
+      <c r="D20" s="48">
         <v>0</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="48"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48">
         <v>0</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="48"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="64" t="s">
+      <c r="B22" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="48">
+      <c r="D23" s="48">
         <v>1</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="48"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="48">
+      <c r="D24" s="48">
         <v>-1</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="48"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="48">
+      <c r="D25" s="48">
         <v>0</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="48"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="48">
+      <c r="D26" s="48">
         <v>1</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="48"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="48">
+      <c r="D27" s="48">
         <v>-1</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="48"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="48">
+      <c r="D28" s="48">
         <v>0</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="48"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="48">
+      <c r="D29" s="48">
         <v>-1</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="48"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6883,7 +6842,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E13:F1048576 E1:F4</xm:sqref>
+          <xm:sqref>D13:E1048576 D1:E1 D3:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{BCE6A7D9-E57B-4556-B727-67C5FAD75137}">
@@ -6902,7 +6861,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{704C89C1-61D9-4856-887E-C48FCF76F375}">
@@ -6921,7 +6880,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{A1C70F02-BDF6-4405-9EEB-33BECCC1EE66}">
@@ -6940,7 +6899,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E8:E9</xm:sqref>
+          <xm:sqref>D8:D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{63C51EBE-D05F-49D9-B11E-0B76D22CE5EC}">
@@ -6959,45 +6918,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{C1BB5D85-761B-4066-AFA3-4688F030B4F2}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>B2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{C5F62DF8-207F-4231-B8AB-9754EB0A324E}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>D11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7007,13 +6928,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
@@ -7027,14 +6952,14 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7049,44 +6974,44 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="82" t="s">
-        <v>397</v>
+      <c r="B6" s="81" t="s">
+        <v>372</v>
       </c>
       <c r="C6" s="83"/>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85">
+      <c r="E6" s="82"/>
+      <c r="F6" s="79">
         <v>0</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7114,7 +7039,7 @@
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="87" t="s">
-        <v>139</v>
+        <v>386</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -7147,50 +7072,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="B13" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="B15" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7217,26 +7142,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7261,75 +7186,75 @@
       <c r="G21" s="33"/>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="B22" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -7341,19 +7266,17 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
+    <row r="29" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
@@ -7365,448 +7288,448 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
+      <c r="B31" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="78"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="95"/>
+      <c r="B33" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="82"/>
+      <c r="F33" s="79">
+        <v>1</v>
+      </c>
+      <c r="G33" s="80"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
-      <c r="B35" s="82" t="s">
-        <v>397</v>
-      </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85">
-        <v>1</v>
-      </c>
-      <c r="G35" s="86"/>
+      <c r="B35" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="B36" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
-      <c r="B38" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="B38" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="B39" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="B40" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
+      <c r="B41" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
+      <c r="B42" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
-      <c r="B43" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="30"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
-      <c r="B44" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
+      <c r="B44" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
+      <c r="B45" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+      <c r="B46" s="75" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="B47" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
-      <c r="B48" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
-      <c r="B49" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="B49" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
+      <c r="B50" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="77"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="B51" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="B52" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
-      <c r="B53" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
-      <c r="B54" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="72"/>
+      <c r="B54" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="B55" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="97"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
-      <c r="B56" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="30"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
-      <c r="B58" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="72"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
+      <c r="B59" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="B61" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="78"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
       <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
+      <c r="B63" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" s="82"/>
+      <c r="F63" s="79">
+        <v>1</v>
+      </c>
+      <c r="G63" s="80"/>
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
-      <c r="B64" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="95"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="30"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
+      <c r="B65" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
       <c r="H65" s="30"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="85">
-        <v>1</v>
-      </c>
-      <c r="G66" s="86"/>
+      <c r="B66" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="89"/>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
@@ -7817,224 +7740,224 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="89"/>
+      <c r="B69" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="92"/>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
+      <c r="B70" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="94"/>
       <c r="H70" s="30"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="33"/>
+      <c r="B71" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="94"/>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="91"/>
+      <c r="B72" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
       <c r="H72" s="30"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="81"/>
+      <c r="B73" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="74"/>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
-      <c r="B74" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="81"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="81"/>
+      <c r="B75" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="33"/>
       <c r="H75" s="30"/>
     </row>
-    <row r="76" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="B76" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
       <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
+      <c r="B77" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="77"/>
       <c r="H77" s="30"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="33"/>
+      <c r="B78" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="77"/>
       <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="B79" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="97"/>
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
-      <c r="B80" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="75"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
       <c r="H80" s="30"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
-      <c r="B81" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="75"/>
+      <c r="B81" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="30"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="72"/>
+      <c r="B82" s="90" t="s">
+        <v>400</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="B83" s="90" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="77"/>
       <c r="H83" s="30"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="33"/>
+      <c r="B84" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="97"/>
       <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
-      <c r="B85" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="75"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
-      <c r="B86" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="75"/>
+      <c r="B86" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="33"/>
       <c r="H86" s="30"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="72"/>
+      <c r="B87" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="97"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -8047,142 +7970,142 @@
       <c r="G88" s="30"/>
       <c r="H88" s="30"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="30"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
-      <c r="B90" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="72"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
       <c r="H90" s="30"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
+      <c r="B91" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="86"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
+      <c r="B93" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93" s="78"/>
       <c r="H93" s="30"/>
     </row>
-    <row r="94" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="94"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
       <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
+      <c r="B95" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" s="83"/>
+      <c r="D95" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="E95" s="82"/>
+      <c r="F95" s="79">
+        <v>1</v>
+      </c>
+      <c r="G95" s="80"/>
       <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
-      <c r="B96" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G96" s="95"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
       <c r="H96" s="30"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="95"/>
+      <c r="B97" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="30"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E98" s="84"/>
-      <c r="F98" s="85">
-        <v>1</v>
-      </c>
-      <c r="G98" s="86"/>
+      <c r="B98" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="89"/>
       <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
       <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
@@ -8191,273 +8114,275 @@
       <c r="G100" s="33"/>
       <c r="H100" s="30"/>
     </row>
-    <row r="101" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="89"/>
+      <c r="B101" s="90" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="92"/>
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
+      <c r="B102" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="94"/>
       <c r="H102" s="30"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="33"/>
+      <c r="B103" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="94"/>
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="91"/>
+      <c r="B104" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="93"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="81"/>
+      <c r="B105" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="74"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
-      <c r="B106" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="80"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="81"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
       <c r="H106" s="30"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
-      <c r="B107" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="C107" s="80"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="81"/>
+      <c r="B107" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="33"/>
       <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="78"/>
+      <c r="B108" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="77"/>
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
+      <c r="B109" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="77"/>
       <c r="H109" s="30"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="33"/>
+      <c r="B110" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="102"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
-      <c r="B111" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="75"/>
+      <c r="B111" s="95" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="97"/>
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
-      <c r="B112" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="75"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
       <c r="H112" s="30"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
-      <c r="B113" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="B113" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
       <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="71"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="72"/>
+      <c r="B114" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
+      <c r="B115" s="90" t="s">
+        <v>412</v>
+      </c>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="77"/>
       <c r="H115" s="30"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="33"/>
+      <c r="B116" s="90" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="77"/>
       <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="75"/>
+      <c r="B117" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="97"/>
       <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
-      <c r="B118" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="75"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
       <c r="H118" s="30"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
-      <c r="B119" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="71"/>
-      <c r="D119" s="71"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="72"/>
+      <c r="B119" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="33"/>
       <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
+      <c r="B120" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="77"/>
       <c r="H120" s="30"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
-      <c r="B121" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="33"/>
+      <c r="B121" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="73"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="74"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
-      <c r="B122" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="74"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="75"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
       <c r="H122" s="30"/>
     </row>
-    <row r="123" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="30"/>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="61"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
@@ -8469,19 +8394,17 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="109"/>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="109"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="109"/>
-      <c r="L125" s="109"/>
+    <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="30"/>
+      <c r="B125" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="30"/>
@@ -8493,420 +8416,482 @@
       <c r="G126" s="30"/>
       <c r="H126" s="30"/>
     </row>
-    <row r="127" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
-      <c r="B127" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" s="93"/>
-      <c r="D127" s="93"/>
-      <c r="E127" s="93"/>
-      <c r="F127" s="93"/>
-      <c r="G127" s="94"/>
+      <c r="B127" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="78"/>
       <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="78"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="95"/>
-      <c r="D129" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="E129" s="95"/>
-      <c r="F129" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" s="95"/>
+      <c r="B129" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="C129" s="83"/>
+      <c r="D129" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="82"/>
+      <c r="F129" s="79">
+        <v>0</v>
+      </c>
+      <c r="G129" s="80"/>
       <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="95"/>
-      <c r="D130" s="95"/>
-      <c r="E130" s="95"/>
-      <c r="F130" s="95"/>
-      <c r="G130" s="95"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
       <c r="H130" s="30"/>
     </row>
-    <row r="131" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
-      <c r="B131" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="C131" s="83"/>
-      <c r="D131" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E131" s="84"/>
-      <c r="F131" s="85">
-        <v>0</v>
-      </c>
-      <c r="G131" s="86"/>
+      <c r="B131" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="33"/>
       <c r="H131" s="30"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
+      <c r="B132" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="C132" s="99"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="100"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
-      <c r="B133" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="33"/>
+      <c r="B133" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="93"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="94"/>
       <c r="H133" s="30"/>
     </row>
-    <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
-      <c r="B134" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="112"/>
-      <c r="D134" s="112"/>
-      <c r="E134" s="112"/>
-      <c r="F134" s="112"/>
-      <c r="G134" s="114"/>
+      <c r="B134" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" s="101"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="102"/>
       <c r="H134" s="30"/>
     </row>
-    <row r="135" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
-      <c r="B135" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="C135" s="80"/>
-      <c r="D135" s="80"/>
-      <c r="E135" s="80"/>
-      <c r="F135" s="80"/>
-      <c r="G135" s="81"/>
+      <c r="B135" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" s="103"/>
+      <c r="D135" s="103"/>
+      <c r="E135" s="103"/>
+      <c r="F135" s="103"/>
+      <c r="G135" s="104"/>
       <c r="H135" s="30"/>
     </row>
-    <row r="136" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
-      <c r="B136" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="C136" s="110"/>
-      <c r="D136" s="110"/>
-      <c r="E136" s="110"/>
-      <c r="F136" s="110"/>
-      <c r="G136" s="111"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
       <c r="H136" s="30"/>
     </row>
-    <row r="137" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
-      <c r="B137" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" s="115"/>
-      <c r="D137" s="115"/>
-      <c r="E137" s="115"/>
-      <c r="F137" s="115"/>
-      <c r="G137" s="116"/>
+      <c r="B137" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="33"/>
       <c r="H137" s="30"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
+      <c r="B138" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="C138" s="91"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="91"/>
+      <c r="G138" s="92"/>
       <c r="H138" s="30"/>
     </row>
-    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="33"/>
+      <c r="B139" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="93"/>
+      <c r="G139" s="94"/>
       <c r="H139" s="30"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="C140" s="90"/>
-      <c r="D140" s="90"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="91"/>
+      <c r="B140" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="91"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="91"/>
+      <c r="G140" s="92"/>
       <c r="H140" s="30"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="C141" s="80"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="81"/>
+      <c r="B141" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="93"/>
+      <c r="D141" s="93"/>
+      <c r="E141" s="93"/>
+      <c r="F141" s="93"/>
+      <c r="G141" s="94"/>
       <c r="H141" s="30"/>
     </row>
-    <row r="142" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C142" s="90"/>
-      <c r="D142" s="90"/>
-      <c r="E142" s="90"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="91"/>
+      <c r="B142" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="91"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="91"/>
+      <c r="G142" s="92"/>
       <c r="H142" s="30"/>
     </row>
-    <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C143" s="80"/>
-      <c r="D143" s="80"/>
-      <c r="E143" s="80"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="91"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="91"/>
+      <c r="G143" s="92"/>
       <c r="H143" s="30"/>
     </row>
-    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C144" s="80"/>
-      <c r="D144" s="80"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="80"/>
-      <c r="G144" s="81"/>
+      <c r="B144" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="74"/>
       <c r="H144" s="30"/>
     </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
-      <c r="B145" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="78"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
       <c r="H145" s="30"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
+      <c r="B146" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="33"/>
       <c r="H146" s="30"/>
     </row>
-    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="33"/>
+      <c r="B147" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="77"/>
       <c r="H147" s="30"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="75"/>
+      <c r="B148" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="77"/>
       <c r="H148" s="30"/>
     </row>
-    <row r="149" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="75"/>
+      <c r="B149" s="90" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="77"/>
       <c r="H149" s="30"/>
     </row>
-    <row r="150" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
-      <c r="B150" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="C150" s="74"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="74"/>
-      <c r="F150" s="74"/>
-      <c r="G150" s="75"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
       <c r="H150" s="30"/>
     </row>
-    <row r="151" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
-      <c r="B151" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="77"/>
-      <c r="G151" s="78"/>
+      <c r="B151" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="33"/>
       <c r="H151" s="30"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
+      <c r="B152" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="77"/>
       <c r="H152" s="30"/>
     </row>
-    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="33"/>
+      <c r="B153" s="90" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="77"/>
       <c r="H153" s="30"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="75"/>
+      <c r="B154" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="96"/>
+      <c r="D154" s="96"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="96"/>
+      <c r="G154" s="97"/>
       <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
-      <c r="B155" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="75"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
       <c r="H155" s="30"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="30"/>
-      <c r="B156" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156" s="71"/>
-      <c r="D156" s="71"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="71"/>
-      <c r="G156" s="72"/>
-      <c r="H156" s="30"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="30"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="30"/>
-      <c r="B158" s="31" t="s">
+    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="30"/>
-    </row>
-    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="30"/>
-      <c r="B159" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" s="110"/>
-      <c r="D159" s="110"/>
-      <c r="E159" s="110"/>
-      <c r="F159" s="110"/>
-      <c r="G159" s="111"/>
-      <c r="H159" s="30"/>
-    </row>
-    <row r="160" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="30"/>
-      <c r="B160" s="76" t="s">
-        <v>394</v>
-      </c>
-      <c r="C160" s="77"/>
-      <c r="D160" s="77"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="78"/>
-      <c r="H160" s="30"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="30"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="33"/>
+    </row>
+    <row r="157" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="101"/>
+      <c r="D157" s="101"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="101"/>
+      <c r="G157" s="102"/>
+    </row>
+    <row r="158" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="C158" s="73"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="74"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="105">
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B127:C128"/>
+    <mergeCell ref="D127:E128"/>
+    <mergeCell ref="F127:G128"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B4:C5"/>
@@ -8920,100 +8905,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="D96:E97"/>
-    <mergeCell ref="F96:G97"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B129:C130"/>
-    <mergeCell ref="D129:E130"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9056,7 +8947,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F35</xm:sqref>
+          <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{17A550B4-2B89-4B7F-B779-A977F8A2D4F0}">
@@ -9075,7 +8966,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F66</xm:sqref>
+          <xm:sqref>F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{9E2341E7-471D-464F-B221-4A60BBBBE839}">
@@ -9094,7 +8985,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F98</xm:sqref>
+          <xm:sqref>F95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{D5278E66-6307-4C4B-BA56-0D390F0AA21B}">
@@ -9113,7 +9004,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F131</xm:sqref>
+          <xm:sqref>F129</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9125,23 +9016,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
+      <c r="A1" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9170,518 +9061,518 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="117" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
+      <c r="A9" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="59">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+      <c r="A22" s="60">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="60"/>
       <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="59">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" t="s">
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" t="s">
+      <c r="G33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="59">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="59">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="G38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="59">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="117" t="s">
-        <v>399</v>
-      </c>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
+      <c r="A55" s="105" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="117" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="118"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="118"/>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="119"/>
+      <c r="A81" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="B81" s="106"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="107"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="G83" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="F84" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G86" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G88" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F89" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G89" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="F92" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G92" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F93" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G94">
         <v>2004</v>
@@ -9689,240 +9580,240 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="F95" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="G95" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96" t="s">
         <v>256</v>
-      </c>
-      <c r="F96" t="s">
-        <v>280</v>
-      </c>
-      <c r="G96" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="G97" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="G98" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="G99" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G100" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G102" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G104" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="F109" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="F110" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="G111" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="H111" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="I111" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="J111" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="K111" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="L111" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="M111" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="N111" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="O111" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Q111" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="R111" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="S111" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F112" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="G112" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="H112" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="I112">
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="F113" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="F116" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="F118" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G119">
         <v>292</v>
@@ -9930,344 +9821,344 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="G126" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="F129" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="F131" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="F132" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="F134" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F135" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F136" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F137" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F138" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="F139" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="F140" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="F141" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F142" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="F143" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F144" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F145" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F146" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="F147" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F148" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="F149" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="F150" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F151" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F152" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F153" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="F154" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F155" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="F156" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="F158" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="F159" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="F160" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F161" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="F162" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F163" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F164" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F165" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F166" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -10298,25 +10189,25 @@
     <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10329,7 +10220,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -10340,13 +10231,13 @@
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -10357,13 +10248,13 @@
       <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>42037</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -10374,13 +10265,13 @@
       <c r="A8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>42033</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -10391,13 +10282,13 @@
       <c r="A9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>42037</v>
       </c>
       <c r="F9" s="3"/>
@@ -10406,13 +10297,13 @@
       <c r="A10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>42093</v>
       </c>
       <c r="F10" s="3"/>
@@ -10421,13 +10312,13 @@
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="4"/>
@@ -10436,13 +10327,13 @@
       <c r="A12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="4"/>
@@ -10451,12 +10342,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10469,7 +10360,7 @@
       <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F16"/>
@@ -10478,13 +10369,13 @@
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="54">
         <v>42093</v>
       </c>
     </row>
@@ -10492,13 +10383,13 @@
       <c r="A18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="54">
         <v>42093</v>
       </c>
     </row>
@@ -10506,23 +10397,23 @@
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10535,7 +10426,7 @@
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F23"/>
@@ -10544,13 +10435,13 @@
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>102</v>
       </c>
       <c r="F24"/>
@@ -10559,13 +10450,13 @@
       <c r="A25" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>102</v>
       </c>
       <c r="F25"/>
@@ -10574,13 +10465,13 @@
       <c r="A26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="55">
         <v>42093</v>
       </c>
     </row>
@@ -10691,24 +10582,24 @@
     <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10721,7 +10612,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10729,13 +10620,13 @@
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10743,13 +10634,13 @@
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>42093</v>
       </c>
     </row>
@@ -10757,23 +10648,23 @@
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>42093</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10786,7 +10677,7 @@
       <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10794,13 +10685,13 @@
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10808,13 +10699,13 @@
       <c r="A14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>-1</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <v>42093</v>
       </c>
     </row>
@@ -10822,13 +10713,13 @@
       <c r="A15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="6">
         <v>-1</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <v>42093</v>
       </c>
     </row>
@@ -10836,18 +10727,18 @@
       <c r="A16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <v>42065</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
+      <c r="B17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10936,20 +10827,20 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="53" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -10971,10 +10862,10 @@
       <c r="E5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11254,17 +11145,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -11358,21 +11249,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11394,21 +11285,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="429">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -1331,6 +1331,36 @@
   </si>
   <si>
     <t>- Bonne modification des balises</t>
+  </si>
+  <si>
+    <t>N° de fiche : 6</t>
+  </si>
+  <si>
+    <t>Date du test : 20/03/2015</t>
+  </si>
+  <si>
+    <t>- Insertion des tuples sans erreurs</t>
+  </si>
+  <si>
+    <t>- Création de la base sans erreurs</t>
+  </si>
+  <si>
+    <t>- base créée et alimentée correctement</t>
+  </si>
+  <si>
+    <t>Test du fichier createbase.sql qui permet de créer la base de données sous Oracle</t>
+  </si>
+  <si>
+    <t>- Lancer le fichier createbase.sql pour créer la base de données</t>
+  </si>
+  <si>
+    <t>- Lancer les fichier .sql (DA.sql, LA.sql,…) pour vérifier la cohérence de la base de donnée</t>
+  </si>
+  <si>
+    <t>- Taper les commandes "desc &lt;table&gt;;" et "SELECT table_name FROM user_tables;" pour vérifier que les tables sont conformes</t>
+  </si>
+  <si>
+    <t>N°6)  Création et peuplement de la base</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2122,6 +2152,21 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -2131,14 +2176,41 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -2149,16 +2221,40 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,15 +2262,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2185,37 +2272,10 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2227,17 +2287,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2249,12 +2312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,35 +2350,8 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2349,7 +2379,250 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Risques!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probabilité</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Risques!$A$6:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>R3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Risques!$C$6:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Risques!$E$6:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="99139584"/>
+        <c:axId val="98909504"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="99139584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98909504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98909504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99139584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2448,7 +2721,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3838,7 +4111,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5170,7 +5443,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="fr-FR" u="none" baseline="0"/>
-                <a:t> projet avec rédefinition des tâches</a:t>
+                <a:t> projet avec redefinition des tâches</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -5343,6 +5616,21 @@
                 </a:rPr>
                 <a:t>    - Thibault a travaillé sur une 3ième base de données afin d'enrichir nos données</a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" sz="1100" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="628650" lvl="1" indent="-171450">
@@ -6097,6 +6385,932 @@
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="38" name="Connecteur droit 37"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7820025" y="561975"/>
+              <a:ext cx="0" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Groupe 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7467601"/>
+          <a:ext cx="4581525" cy="5410200"/>
+          <a:chOff x="5343525" y="542925"/>
+          <a:chExt cx="4581525" cy="5410200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="42" name="Groupe 41"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5353050" y="542925"/>
+            <a:ext cx="4572000" cy="5410200"/>
+            <a:chOff x="3086100" y="819150"/>
+            <a:chExt cx="4572000" cy="4728600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Arrondir un rectangle avec un coin diagonal 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="819150"/>
+              <a:ext cx="4562475" cy="4728600"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2DiagRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="857248"/>
+              <a:ext cx="4572000" cy="4690501"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="252000" tIns="180000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réunion</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> d'avancement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> n°5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t> 	                  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Personnes présentes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> :</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR"/>
+                <a:t>				                     </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" baseline="0"/>
+                <a:t>Date : 17/03/2015			                     - Toute l'équipe (Fournisseur)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr>
+                <a:tabLst>
+                  <a:tab pos="720000" algn="r"/>
+                  <a:tab pos="1080000" algn="r"/>
+                  <a:tab pos="1440000" algn="r"/>
+                </a:tabLst>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objet de la réunion </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> Point sur le</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                <a:t> projet avec redefinition des tâches</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sujets abordés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>et solutions apportées</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t> :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Chacun présente son travail :</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marine a créé et peuplé la base de données sur Oracle</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Cassie a produit tous les codes perl</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marie, Mélanie ont finis </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>les filtrages et les synonymies</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> sur tetralogie</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Thibault s'est occupé de la Contrôle Qualité en testant tous les programmes perl</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Redéfinition des tâches :</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Cassie se charge de réaliser l'analyse sémantique grâce au logciel Tropes</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marie et Mélanie continuent leur travail sur tetralogie en produisant les croisements puis la visualiation de ses croisements.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    - Marine et Thibault, après avoir finis leurs tâches resptive précédente, s'occupe également de la visualisation des croisements</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" lvl="1" indent="-171450">
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="ü"/>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" u="sng"/>
+                <a:t>Reste à faire :</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" u="none"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Réalisation des tâches</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Se concentrer sur l'analyse</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Remplir le rapport</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="628650" marR="0" lvl="1" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+                <a:buChar char="Ø"/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Commencer le power-point</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" u="none"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="43" name="Groupe 42"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5343525" y="561975"/>
+            <a:ext cx="4581525" cy="800100"/>
+            <a:chOff x="5343525" y="561975"/>
+            <a:chExt cx="4581525" cy="800100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="Connecteur droit 43"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="1362075"/>
+              <a:ext cx="4581525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="45" name="Connecteur droit 44"/>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -6420,13 +7634,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="5"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
@@ -6442,12 +7656,12 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="45"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6472,11 +7686,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="124" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="64" t="s">
@@ -6486,21 +7700,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="67">
         <v>0</v>
       </c>
       <c r="E6" s="63">
@@ -6510,11 +7724,11 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="124">
+      <c r="D7" s="68">
         <v>1</v>
       </c>
       <c r="E7" s="63">
@@ -6524,11 +7738,11 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="133" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="68">
         <v>1</v>
       </c>
       <c r="E8" s="63">
@@ -6538,11 +7752,11 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="D9" s="124">
+      <c r="D9" s="68">
         <v>1</v>
       </c>
       <c r="E9" s="63">
@@ -6552,18 +7766,18 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="133" t="s">
         <v>385</v>
       </c>
       <c r="D11" s="62">
@@ -6576,11 +7790,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="65"/>
       <c r="F12" s="30"/>
     </row>
@@ -6698,26 +7912,26 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="65"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="48">
+      <c r="B23" s="132"/>
+      <c r="C23" s="133" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="68">
         <v>1</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="63">
+        <v>42076</v>
+      </c>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6826,7 +8040,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{6A2CEF1C-4F63-4CF3-9327-2EB0BB15EF0C}">
+          <x14:cfRule type="iconSet" priority="29" id="{6A2CEF1C-4F63-4CF3-9327-2EB0BB15EF0C}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6842,10 +8056,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D13:E1048576 D1:E1 D3:E4</xm:sqref>
+          <xm:sqref>D13:E22 D1:E1 D3:E4 D24:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{BCE6A7D9-E57B-4556-B727-67C5FAD75137}">
+          <x14:cfRule type="iconSet" priority="7" id="{BCE6A7D9-E57B-4556-B727-67C5FAD75137}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6864,7 +8078,7 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{704C89C1-61D9-4856-887E-C48FCF76F375}">
+          <x14:cfRule type="iconSet" priority="6" id="{704C89C1-61D9-4856-887E-C48FCF76F375}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6883,7 +8097,7 @@
           <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{A1C70F02-BDF6-4405-9EEB-33BECCC1EE66}">
+          <x14:cfRule type="iconSet" priority="5" id="{A1C70F02-BDF6-4405-9EEB-33BECCC1EE66}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6902,7 +8116,7 @@
           <xm:sqref>D8:D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{63C51EBE-D05F-49D9-B11E-0B76D22CE5EC}">
+          <x14:cfRule type="iconSet" priority="4" id="{63C51EBE-D05F-49D9-B11E-0B76D22CE5EC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6920,6 +8134,25 @@
           </x14:cfRule>
           <xm:sqref>D11</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{0BF39690-F421-4464-BCBB-3E88D49D0436}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D23</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -6928,10 +8161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:C94"/>
+    <sheetView topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,14 +8185,14 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6974,44 +8207,44 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="79">
+      <c r="E6" s="100"/>
+      <c r="F6" s="101">
         <v>0</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7038,14 +8271,14 @@
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7072,50 +8305,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7142,19 +8375,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="107" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="96"/>
@@ -7188,14 +8421,14 @@
     </row>
     <row r="22" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7222,7 +8455,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="107" t="s">
         <v>415</v>
       </c>
       <c r="C25" s="96"/>
@@ -7268,14 +8501,14 @@
     </row>
     <row r="29" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7290,44 +8523,44 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78" t="s">
+      <c r="C31" s="106"/>
+      <c r="D31" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78" t="s">
+      <c r="E31" s="106"/>
+      <c r="F31" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="81" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="79">
+      <c r="E33" s="100"/>
+      <c r="F33" s="101">
         <v>1</v>
       </c>
-      <c r="G33" s="80"/>
+      <c r="G33" s="102"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7354,14 +8587,14 @@
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -7388,50 +8621,50 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="93"/>
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="88"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7458,31 +8691,31 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="107" t="s">
         <v>396</v>
       </c>
       <c r="C47" s="96"/>
@@ -7516,31 +8749,31 @@
     </row>
     <row r="50" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="83" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="77"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="83" t="s">
         <v>403</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="77"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="90"/>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="107" t="s">
         <v>389</v>
       </c>
       <c r="C52" s="96"/>
@@ -7574,7 +8807,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="107" t="s">
         <v>210</v>
       </c>
       <c r="C55" s="96"/>
@@ -7620,14 +8853,14 @@
     </row>
     <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -7642,44 +8875,44 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78" t="s">
+      <c r="C61" s="106"/>
+      <c r="D61" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78" t="s">
+      <c r="E61" s="106"/>
+      <c r="F61" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="78"/>
+      <c r="G61" s="106"/>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
       <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="81" t="s">
+      <c r="C63" s="99"/>
+      <c r="D63" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="79">
+      <c r="E63" s="100"/>
+      <c r="F63" s="101">
         <v>1</v>
       </c>
-      <c r="G63" s="80"/>
+      <c r="G63" s="102"/>
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -7706,14 +8939,14 @@
     </row>
     <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="113" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="89"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7740,62 +8973,62 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="83" t="s">
         <v>402</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="92"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="95"/>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="94"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="93"/>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="94"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="93"/>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="93"/>
       <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="86" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="74"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="88"/>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -7822,43 +9055,43 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="91" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="77"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="90"/>
       <c r="H77" s="30"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="77"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
       <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="95" t="s">
+      <c r="B79" s="107" t="s">
         <v>207</v>
       </c>
       <c r="C79" s="96"/>
@@ -7892,31 +9125,31 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="83" t="s">
         <v>400</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="83" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="77"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="90"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="95" t="s">
+      <c r="B84" s="107" t="s">
         <v>209</v>
       </c>
       <c r="C84" s="96"/>
@@ -7950,7 +9183,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="95" t="s">
+      <c r="B87" s="107" t="s">
         <v>210</v>
       </c>
       <c r="C87" s="96"/>
@@ -7996,14 +9229,14 @@
     </row>
     <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="84" t="s">
+      <c r="B91" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="86"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="105"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -8018,44 +9251,44 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78" t="s">
+      <c r="C93" s="106"/>
+      <c r="D93" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78" t="s">
+      <c r="E93" s="106"/>
+      <c r="F93" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G93" s="78"/>
+      <c r="G93" s="106"/>
       <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
       <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="81" t="s">
+      <c r="B95" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="81" t="s">
+      <c r="C95" s="99"/>
+      <c r="D95" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="82"/>
-      <c r="F95" s="79">
+      <c r="E95" s="100"/>
+      <c r="F95" s="101">
         <v>1</v>
       </c>
-      <c r="G95" s="80"/>
+      <c r="G95" s="102"/>
       <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -8082,14 +9315,14 @@
     </row>
     <row r="98" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="87" t="s">
+      <c r="B98" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="88"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="88"/>
-      <c r="G98" s="89"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -8116,62 +9349,62 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="90" t="s">
+      <c r="B101" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="92"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="95"/>
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="75" t="s">
+      <c r="B102" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="94"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="93"/>
       <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="75" t="s">
+      <c r="B103" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="94"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="93"/>
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="75" t="s">
+      <c r="B104" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="93"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="94"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="93"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="72" t="s">
+      <c r="B105" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="74"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="88"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -8198,43 +9431,43 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="75" t="s">
+      <c r="B108" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="77"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="77"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="90" t="s">
+      <c r="B110" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="102"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="85"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="107" t="s">
         <v>409</v>
       </c>
       <c r="C111" s="96"/>
@@ -8268,43 +9501,43 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" s="90" t="s">
+      <c r="B114" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="77"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="90"/>
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="90" t="s">
+      <c r="B115" s="83" t="s">
         <v>412</v>
       </c>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="77"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="90"/>
       <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="90" t="s">
+      <c r="B116" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="77"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="89"/>
+      <c r="G116" s="90"/>
       <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="95" t="s">
+      <c r="B117" s="107" t="s">
         <v>413</v>
       </c>
       <c r="C117" s="96"/>
@@ -8338,26 +9571,26 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
-      <c r="B120" s="75" t="s">
+      <c r="B120" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="77"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="90"/>
       <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="74"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="88"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -8396,14 +9629,14 @@
     </row>
     <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
-      <c r="B125" s="84" t="s">
+      <c r="B125" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="86"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="104"/>
+      <c r="G125" s="105"/>
       <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -8418,44 +9651,44 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
-      <c r="B127" s="78" t="s">
+      <c r="B127" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78" t="s">
+      <c r="C127" s="106"/>
+      <c r="D127" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78" t="s">
+      <c r="E127" s="106"/>
+      <c r="F127" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G127" s="78"/>
+      <c r="G127" s="106"/>
       <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
-      <c r="B128" s="78"/>
-      <c r="C128" s="78"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="78"/>
-      <c r="G128" s="78"/>
+      <c r="B128" s="106"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="106"/>
+      <c r="E128" s="106"/>
+      <c r="F128" s="106"/>
+      <c r="G128" s="106"/>
       <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="81" t="s">
+      <c r="B129" s="98" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="83"/>
-      <c r="D129" s="81" t="s">
+      <c r="C129" s="99"/>
+      <c r="D129" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="82"/>
-      <c r="F129" s="79">
+      <c r="E129" s="100"/>
+      <c r="F129" s="101">
         <v>0</v>
       </c>
-      <c r="G129" s="80"/>
+      <c r="G129" s="102"/>
       <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,50 +9715,50 @@
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="98" t="s">
+      <c r="B132" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="99"/>
-      <c r="D132" s="99"/>
-      <c r="E132" s="99"/>
-      <c r="F132" s="99"/>
-      <c r="G132" s="100"/>
+      <c r="C132" s="109"/>
+      <c r="D132" s="109"/>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="110"/>
       <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
-      <c r="B133" s="90" t="s">
+      <c r="B133" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="93"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="93"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="94"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="93"/>
       <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
-      <c r="B134" s="90" t="s">
+      <c r="B134" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="C134" s="101"/>
-      <c r="D134" s="101"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="102"/>
+      <c r="C134" s="84"/>
+      <c r="D134" s="84"/>
+      <c r="E134" s="84"/>
+      <c r="F134" s="84"/>
+      <c r="G134" s="85"/>
       <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
-      <c r="B135" s="72" t="s">
+      <c r="B135" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C135" s="103"/>
-      <c r="D135" s="103"/>
-      <c r="E135" s="103"/>
-      <c r="F135" s="103"/>
-      <c r="G135" s="104"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="111"/>
+      <c r="E135" s="111"/>
+      <c r="F135" s="111"/>
+      <c r="G135" s="112"/>
       <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -8552,86 +9785,86 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="90" t="s">
+      <c r="B138" s="83" t="s">
         <v>416</v>
       </c>
-      <c r="C138" s="91"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="91"/>
-      <c r="F138" s="91"/>
-      <c r="G138" s="92"/>
+      <c r="C138" s="94"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="95"/>
       <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="75" t="s">
+      <c r="B139" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C139" s="93"/>
-      <c r="D139" s="93"/>
-      <c r="E139" s="93"/>
-      <c r="F139" s="93"/>
-      <c r="G139" s="94"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="93"/>
       <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="90" t="s">
+      <c r="B140" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="C140" s="91"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="91"/>
-      <c r="F140" s="91"/>
-      <c r="G140" s="92"/>
+      <c r="C140" s="94"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="95"/>
       <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="75" t="s">
+      <c r="B141" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="93"/>
-      <c r="D141" s="93"/>
-      <c r="E141" s="93"/>
-      <c r="F141" s="93"/>
-      <c r="G141" s="94"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="93"/>
       <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="90" t="s">
+      <c r="B142" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C142" s="91"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="91"/>
-      <c r="G142" s="92"/>
+      <c r="C142" s="94"/>
+      <c r="D142" s="94"/>
+      <c r="E142" s="94"/>
+      <c r="F142" s="94"/>
+      <c r="G142" s="95"/>
       <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="90" t="s">
+      <c r="B143" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="91"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="91"/>
-      <c r="G143" s="92"/>
+      <c r="C143" s="94"/>
+      <c r="D143" s="94"/>
+      <c r="E143" s="94"/>
+      <c r="F143" s="94"/>
+      <c r="G143" s="95"/>
       <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="72" t="s">
+      <c r="B144" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="74"/>
+      <c r="C144" s="87"/>
+      <c r="D144" s="87"/>
+      <c r="E144" s="87"/>
+      <c r="F144" s="87"/>
+      <c r="G144" s="88"/>
       <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -8658,38 +9891,38 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="75" t="s">
+      <c r="B147" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="77"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="89"/>
+      <c r="G147" s="90"/>
       <c r="H147" s="30"/>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="90" t="s">
+      <c r="B148" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="C148" s="76"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="90"/>
       <c r="H148" s="30"/>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="90" t="s">
+      <c r="B149" s="83" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="76"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="77"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="90"/>
       <c r="H149" s="30"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -8716,31 +9949,31 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="75" t="s">
+      <c r="B152" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="76"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="77"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="90"/>
       <c r="H152" s="30"/>
     </row>
     <row r="153" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="90" t="s">
+      <c r="B153" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="C153" s="76"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="76"/>
-      <c r="G153" s="77"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="89"/>
+      <c r="G153" s="90"/>
       <c r="H153" s="30"/>
     </row>
     <row r="154" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="72" t="s">
+      <c r="B154" s="86" t="s">
         <v>323</v>
       </c>
       <c r="C154" s="96"/>
@@ -8771,24 +10004,24 @@
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="90" t="s">
+      <c r="B157" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="101"/>
-      <c r="D157" s="101"/>
-      <c r="E157" s="101"/>
-      <c r="F157" s="101"/>
-      <c r="G157" s="102"/>
+      <c r="C157" s="84"/>
+      <c r="D157" s="84"/>
+      <c r="E157" s="84"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="85"/>
     </row>
     <row r="158" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="72" t="s">
+      <c r="B158" s="86" t="s">
         <v>369</v>
       </c>
-      <c r="C158" s="73"/>
-      <c r="D158" s="73"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="74"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="87"/>
+      <c r="F158" s="87"/>
+      <c r="G158" s="88"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="30"/>
@@ -8798,22 +10031,393 @@
       <c r="F159" s="30"/>
       <c r="G159" s="30"/>
     </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="61"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="61"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="30"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+    </row>
+    <row r="162" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="30"/>
+      <c r="B162" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="104"/>
+      <c r="D162" s="104"/>
+      <c r="E162" s="104"/>
+      <c r="F162" s="104"/>
+      <c r="G162" s="105"/>
+      <c r="H162" s="30"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="30"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="30"/>
+      <c r="B164" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="106"/>
+      <c r="D164" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E164" s="106"/>
+      <c r="F164" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="G164" s="106"/>
+      <c r="H164" s="30"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="30"/>
+      <c r="B165" s="106"/>
+      <c r="C165" s="106"/>
+      <c r="D165" s="106"/>
+      <c r="E165" s="106"/>
+      <c r="F165" s="106"/>
+      <c r="G165" s="106"/>
+      <c r="H165" s="30"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="30"/>
+      <c r="B166" s="98" t="s">
+        <v>420</v>
+      </c>
+      <c r="C166" s="99"/>
+      <c r="D166" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="E166" s="100"/>
+      <c r="F166" s="101">
+        <v>1</v>
+      </c>
+      <c r="G166" s="102"/>
+      <c r="H166" s="30"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="30"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="30"/>
+      <c r="B168" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="30"/>
+    </row>
+    <row r="169" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="30"/>
+      <c r="B169" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="C169" s="114"/>
+      <c r="D169" s="114"/>
+      <c r="E169" s="114"/>
+      <c r="F169" s="114"/>
+      <c r="G169" s="115"/>
+      <c r="H169" s="30"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="30"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="66"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="30"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="30"/>
+      <c r="B171" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="30"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="30"/>
+      <c r="B172" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="C172" s="94"/>
+      <c r="D172" s="94"/>
+      <c r="E172" s="94"/>
+      <c r="F172" s="94"/>
+      <c r="G172" s="95"/>
+      <c r="H172" s="30"/>
+    </row>
+    <row r="173" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="30"/>
+      <c r="B173" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="C173" s="94"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="94"/>
+      <c r="F173" s="94"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="30"/>
+    </row>
+    <row r="174" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="30"/>
+      <c r="B174" s="86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C174" s="87"/>
+      <c r="D174" s="87"/>
+      <c r="E174" s="87"/>
+      <c r="F174" s="87"/>
+      <c r="G174" s="88"/>
+      <c r="H174" s="30"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="30"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="30"/>
+      <c r="B176" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="30"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="30"/>
+      <c r="B177" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C177" s="89"/>
+      <c r="D177" s="89"/>
+      <c r="E177" s="89"/>
+      <c r="F177" s="89"/>
+      <c r="G177" s="90"/>
+      <c r="H177" s="30"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="30"/>
+      <c r="B178" s="107" t="s">
+        <v>421</v>
+      </c>
+      <c r="C178" s="96"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="96"/>
+      <c r="F178" s="96"/>
+      <c r="G178" s="97"/>
+      <c r="H178" s="30"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="30"/>
+      <c r="B180" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="30"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="30"/>
+      <c r="B181" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="C181" s="96"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="96"/>
+      <c r="G181" s="97"/>
+      <c r="H181" s="30"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="30"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="30"/>
+      <c r="B183" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="30"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="30"/>
+      <c r="B184" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" s="96"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="96"/>
+      <c r="G184" s="97"/>
+      <c r="H184" s="30"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="30"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B143:G143"/>
+  <mergeCells count="120">
+    <mergeCell ref="B184:G184"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B164:C165"/>
+    <mergeCell ref="D164:E165"/>
+    <mergeCell ref="F164:G165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:G129"/>
@@ -8835,76 +10439,20 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8912,7 +10460,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{7CCA0742-ED86-4D73-9743-14F7D02BAFF9}">
+          <x14:cfRule type="iconSet" priority="7" id="{7CCA0742-ED86-4D73-9743-14F7D02BAFF9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8931,7 +10479,7 @@
           <xm:sqref>F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{BC998A7D-1F4B-462B-99DC-47C2731FA9A7}">
+          <x14:cfRule type="iconSet" priority="6" id="{BC998A7D-1F4B-462B-99DC-47C2731FA9A7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8950,7 +10498,7 @@
           <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{17A550B4-2B89-4B7F-B779-A977F8A2D4F0}">
+          <x14:cfRule type="iconSet" priority="5" id="{17A550B4-2B89-4B7F-B779-A977F8A2D4F0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8969,7 +10517,7 @@
           <xm:sqref>F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{9E2341E7-471D-464F-B221-4A60BBBBE839}">
+          <x14:cfRule type="iconSet" priority="4" id="{9E2341E7-471D-464F-B221-4A60BBBBE839}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8988,7 +10536,7 @@
           <xm:sqref>F95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{D5278E66-6307-4C4B-BA56-0D390F0AA21B}">
+          <x14:cfRule type="iconSet" priority="2" id="{D5278E66-6307-4C4B-BA56-0D390F0AA21B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9006,6 +10554,25 @@
           </x14:cfRule>
           <xm:sqref>F129</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{D4CCB5E3-2F09-415A-A523-04D73B48F5FD}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F166</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -9016,23 +10583,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9061,16 +10628,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="116" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -9310,16 +10877,16 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="105" t="s">
+      <c r="A55" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="107"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="118"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -9435,16 +11002,16 @@
     </row>
     <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="105" t="s">
+      <c r="A81" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="107"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="118"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -10194,20 +11761,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10342,12 +11909,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10408,12 +11975,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10586,20 +12153,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10659,12 +12226,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10817,8 +12384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="C5:D14 A5:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10832,15 +12399,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -11127,6 +12694,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11145,17 +12713,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -11249,21 +12817,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11278,28 +12846,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="122"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests" sheetId="1" r:id="rId1"/>
-    <sheet name="Fiches" sheetId="7" r:id="rId2"/>
-    <sheet name="Preuves" sheetId="9" r:id="rId3"/>
-    <sheet name="Processus" sheetId="2" r:id="rId4"/>
-    <sheet name="Dvlpment" sheetId="3" r:id="rId5"/>
-    <sheet name="Risques" sheetId="4" r:id="rId6"/>
-    <sheet name="Graphe" sheetId="8" r:id="rId7"/>
+    <sheet name="Processus" sheetId="2" r:id="rId1"/>
+    <sheet name="Dvlpment" sheetId="3" r:id="rId2"/>
+    <sheet name="Risques" sheetId="4" r:id="rId3"/>
+    <sheet name="Graphe" sheetId="8" r:id="rId4"/>
+    <sheet name="Tests" sheetId="1" r:id="rId5"/>
+    <sheet name="Fiches" sheetId="7" r:id="rId6"/>
+    <sheet name="Preuves" sheetId="9" r:id="rId7"/>
     <sheet name="Revues" sheetId="5" r:id="rId8"/>
     <sheet name="Réunions" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Fiches!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Fiches!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="432">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -1361,6 +1361,15 @@
   </si>
   <si>
     <t>N°6)  Création et peuplement de la base</t>
+  </si>
+  <si>
+    <t>pas mettre dans rapport !!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>pas mettre dans rapport pour le moment …</t>
+  </si>
+  <si>
+    <t>Pas mettre</t>
   </si>
 </sst>
 </file>
@@ -2167,6 +2176,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -2203,13 +2214,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,32 +2241,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2263,20 +2277,26 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2292,15 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2350,8 +2361,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2379,250 +2388,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:bubbleChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Risques!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Probabilité</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Risques!$A$6:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>R3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>R5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>R9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>R10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>R10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Risques!$C$6:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>Risques!$E$6:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:bubbleScale val="100"/>
-        <c:showNegBubbles val="0"/>
-        <c:axId val="99139584"/>
-        <c:axId val="98909504"/>
-      </c:bubbleChart>
-      <c:valAx>
-        <c:axId val="99139584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98909504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98909504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99139584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2721,7 +2487,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4111,7 +3877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7631,10 +7397,1072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="54">
+        <v>42037</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="54">
+        <v>42033</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="54">
+        <v>42037</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <v>42093</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="54">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>42093</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{36BD5F38-6BBF-43F1-989D-C5B8575A336B}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C17:C19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{4C3BF3F6-3682-47E8-A098-A8095D22CC9A}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{272271AA-5FA8-41B4-AD3A-3EBA4D9A20BF}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C24:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{7E994C74-6088-4E17-9930-85A745AE1C6F}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6:C12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="5"/>
+    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="54">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="54">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="56">
+        <v>42065</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{8EB7DC16-910B-4F97-88B0-FB761F4ABB7D}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C13:C15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{DFEB6DAD-6A2F-4983-89D6-BD93FAC0AC6E}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{13C21962-459E-4063-BDB8-5A2FE8F3F343}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C6:C8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="C5:D14 A5:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E13" si="0">C6*D6</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14" si="1">C14*D14</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2</v>
+      </c>
+      <c r="D9" s="42">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7656,12 +8484,12 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="45"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -7700,18 +8528,18 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72" t="s">
         <v>381</v>
       </c>
       <c r="D6" s="67">
@@ -7724,8 +8552,8 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72" t="s">
         <v>382</v>
       </c>
       <c r="D7" s="68">
@@ -7735,11 +8563,14 @@
         <v>42072</v>
       </c>
       <c r="F7" s="30"/>
+      <c r="H7" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
         <v>383</v>
       </c>
       <c r="D8" s="68">
@@ -7752,8 +8583,8 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72" t="s">
         <v>384</v>
       </c>
       <c r="D9" s="68">
@@ -7766,18 +8597,18 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="72" t="s">
         <v>385</v>
       </c>
       <c r="D11" s="62">
@@ -7790,11 +8621,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="65"/>
       <c r="F12" s="30"/>
     </row>
@@ -7912,18 +8743,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="65"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="72" t="s">
         <v>428</v>
       </c>
       <c r="D23" s="68">
@@ -8159,12 +8990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8185,14 +9016,14 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8207,44 +9038,44 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="98" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101">
+      <c r="E6" s="103"/>
+      <c r="F6" s="104">
         <v>0</v>
       </c>
-      <c r="G6" s="102"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8271,14 +9102,14 @@
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="106" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,50 +9136,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8375,26 +9206,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -8421,14 +9252,14 @@
     </row>
     <row r="22" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -8455,14 +9286,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -8501,14 +9332,14 @@
     </row>
     <row r="29" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8523,44 +9354,44 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106" t="s">
+      <c r="C31" s="100"/>
+      <c r="D31" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106" t="s">
+      <c r="E31" s="100"/>
+      <c r="F31" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="106"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="98" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101">
+      <c r="E33" s="103"/>
+      <c r="F33" s="104">
         <v>1</v>
       </c>
-      <c r="G33" s="102"/>
+      <c r="G33" s="105"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8587,14 +9418,14 @@
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8621,50 +9452,50 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="93"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="93"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="88"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="93"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -8691,38 +9522,38 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="94" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="90"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="90"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="96"/>
       <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="97"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="87"/>
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -8749,38 +9580,38 @@
     </row>
     <row r="50" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="90"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="88" t="s">
         <v>403</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="90"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="85" t="s">
         <v>389</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -8807,14 +9638,14 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="87"/>
       <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -8853,14 +9684,14 @@
     </row>
     <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="105"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="99"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -8875,44 +9706,44 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106" t="s">
+      <c r="C61" s="100"/>
+      <c r="D61" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106" t="s">
+      <c r="E61" s="100"/>
+      <c r="F61" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="106"/>
+      <c r="G61" s="100"/>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
       <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="98" t="s">
+      <c r="C63" s="102"/>
+      <c r="D63" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="100"/>
-      <c r="F63" s="101">
+      <c r="E63" s="103"/>
+      <c r="F63" s="104">
         <v>1</v>
       </c>
-      <c r="G63" s="102"/>
+      <c r="G63" s="105"/>
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -8939,14 +9770,14 @@
     </row>
     <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="115"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="108"/>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -8973,62 +9804,62 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="95"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="93"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="110"/>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="91" t="s">
+      <c r="B71" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="93"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="110"/>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="93"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="110"/>
       <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="88"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="93"/>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -9055,50 +9886,50 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="90"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="96"/>
       <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="90"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="96"/>
       <c r="H77" s="30"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="90"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="96"/>
       <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="107" t="s">
+      <c r="B79" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="97"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="87"/>
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -9125,38 +9956,38 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="90"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="96"/>
       <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="90"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="96"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="97"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="87"/>
       <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9183,14 +10014,14 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="107" t="s">
+      <c r="B87" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="96"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="97"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="87"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -9229,14 +10060,14 @@
     </row>
     <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="103" t="s">
+      <c r="B91" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="105"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="99"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9251,44 +10082,44 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="106" t="s">
+      <c r="C93" s="100"/>
+      <c r="D93" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="106"/>
-      <c r="F93" s="106" t="s">
+      <c r="E93" s="100"/>
+      <c r="F93" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G93" s="106"/>
+      <c r="G93" s="100"/>
       <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="100"/>
       <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="98" t="s">
+      <c r="B95" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="98" t="s">
+      <c r="C95" s="102"/>
+      <c r="D95" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="101">
+      <c r="E95" s="103"/>
+      <c r="F95" s="104">
         <v>1</v>
       </c>
-      <c r="G95" s="102"/>
+      <c r="G95" s="105"/>
       <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9315,14 +10146,14 @@
     </row>
     <row r="98" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="113" t="s">
+      <c r="B98" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="115"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="107"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="107"/>
+      <c r="G98" s="108"/>
       <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -9349,62 +10180,62 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="83" t="s">
+      <c r="B101" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="94"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="94"/>
-      <c r="F101" s="94"/>
-      <c r="G101" s="95"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="90"/>
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="91" t="s">
+      <c r="B102" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="93"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="109"/>
+      <c r="F102" s="109"/>
+      <c r="G102" s="110"/>
       <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="93"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="110"/>
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="93"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="86" t="s">
+      <c r="B105" s="91" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="88"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="93"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -9431,50 +10262,50 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="91" t="s">
+      <c r="B108" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="90"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="95"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="96"/>
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="91" t="s">
+      <c r="B109" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="90"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="96"/>
       <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="83" t="s">
+      <c r="B110" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="84"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
-      <c r="F110" s="84"/>
-      <c r="G110" s="85"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="112"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="97"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="87"/>
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -9501,50 +10332,50 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" s="83" t="s">
+      <c r="B114" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="C114" s="89"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="89"/>
-      <c r="G114" s="90"/>
+      <c r="C114" s="95"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+      <c r="G114" s="96"/>
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="83" t="s">
+      <c r="B115" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="90"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="96"/>
       <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="83" t="s">
+      <c r="B116" s="88" t="s">
         <v>411</v>
       </c>
-      <c r="C116" s="89"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="89"/>
-      <c r="G116" s="90"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="96"/>
       <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="97"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="86"/>
+      <c r="G117" s="87"/>
       <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -9571,26 +10402,26 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
-      <c r="B120" s="91" t="s">
+      <c r="B120" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="90"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="95"/>
+      <c r="G120" s="96"/>
       <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
-      <c r="B121" s="86" t="s">
+      <c r="B121" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="87"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
-      <c r="G121" s="88"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="93"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -9629,14 +10460,14 @@
     </row>
     <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
-      <c r="B125" s="103" t="s">
+      <c r="B125" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="104"/>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="104"/>
-      <c r="G125" s="105"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="99"/>
       <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -9651,44 +10482,44 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
-      <c r="B127" s="106" t="s">
+      <c r="B127" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="106" t="s">
+      <c r="C127" s="100"/>
+      <c r="D127" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="E127" s="106"/>
-      <c r="F127" s="106" t="s">
+      <c r="E127" s="100"/>
+      <c r="F127" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G127" s="106"/>
+      <c r="G127" s="100"/>
       <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
-      <c r="B128" s="106"/>
-      <c r="C128" s="106"/>
-      <c r="D128" s="106"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="106"/>
-      <c r="G128" s="106"/>
+      <c r="B128" s="100"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="100"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="100"/>
+      <c r="G128" s="100"/>
       <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="98" t="s">
+      <c r="B129" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="99"/>
-      <c r="D129" s="98" t="s">
+      <c r="C129" s="102"/>
+      <c r="D129" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="100"/>
-      <c r="F129" s="101">
+      <c r="E129" s="103"/>
+      <c r="F129" s="104">
         <v>0</v>
       </c>
-      <c r="G129" s="102"/>
+      <c r="G129" s="105"/>
       <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -9715,50 +10546,50 @@
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="108" t="s">
+      <c r="B132" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="109"/>
-      <c r="D132" s="109"/>
-      <c r="E132" s="109"/>
-      <c r="F132" s="109"/>
-      <c r="G132" s="110"/>
+      <c r="C132" s="114"/>
+      <c r="D132" s="114"/>
+      <c r="E132" s="114"/>
+      <c r="F132" s="114"/>
+      <c r="G132" s="115"/>
       <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
-      <c r="B133" s="83" t="s">
+      <c r="B133" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="92"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="93"/>
+      <c r="C133" s="109"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="110"/>
       <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
-      <c r="B134" s="83" t="s">
+      <c r="B134" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C134" s="84"/>
-      <c r="D134" s="84"/>
-      <c r="E134" s="84"/>
-      <c r="F134" s="84"/>
-      <c r="G134" s="85"/>
+      <c r="C134" s="111"/>
+      <c r="D134" s="111"/>
+      <c r="E134" s="111"/>
+      <c r="F134" s="111"/>
+      <c r="G134" s="112"/>
       <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
-      <c r="B135" s="86" t="s">
+      <c r="B135" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="C135" s="111"/>
-      <c r="D135" s="111"/>
-      <c r="E135" s="111"/>
-      <c r="F135" s="111"/>
-      <c r="G135" s="112"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="117"/>
       <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -9785,86 +10616,86 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="83" t="s">
+      <c r="B138" s="88" t="s">
         <v>416</v>
       </c>
-      <c r="C138" s="94"/>
-      <c r="D138" s="94"/>
-      <c r="E138" s="94"/>
-      <c r="F138" s="94"/>
-      <c r="G138" s="95"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="90"/>
       <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="91" t="s">
+      <c r="B139" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="92"/>
-      <c r="F139" s="92"/>
-      <c r="G139" s="93"/>
+      <c r="C139" s="109"/>
+      <c r="D139" s="109"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109"/>
+      <c r="G139" s="110"/>
       <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="83" t="s">
+      <c r="B140" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C140" s="94"/>
-      <c r="D140" s="94"/>
-      <c r="E140" s="94"/>
-      <c r="F140" s="94"/>
-      <c r="G140" s="95"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="89"/>
+      <c r="G140" s="90"/>
       <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="91" t="s">
+      <c r="B141" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="93"/>
+      <c r="C141" s="109"/>
+      <c r="D141" s="109"/>
+      <c r="E141" s="109"/>
+      <c r="F141" s="109"/>
+      <c r="G141" s="110"/>
       <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="83" t="s">
+      <c r="B142" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="C142" s="94"/>
-      <c r="D142" s="94"/>
-      <c r="E142" s="94"/>
-      <c r="F142" s="94"/>
-      <c r="G142" s="95"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="89"/>
+      <c r="G142" s="90"/>
       <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="83" t="s">
+      <c r="B143" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="94"/>
-      <c r="D143" s="94"/>
-      <c r="E143" s="94"/>
-      <c r="F143" s="94"/>
-      <c r="G143" s="95"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="89"/>
+      <c r="G143" s="90"/>
       <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="86" t="s">
+      <c r="B144" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="C144" s="87"/>
-      <c r="D144" s="87"/>
-      <c r="E144" s="87"/>
-      <c r="F144" s="87"/>
-      <c r="G144" s="88"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="92"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="93"/>
       <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -9891,38 +10722,38 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="91" t="s">
+      <c r="B147" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="89"/>
-      <c r="G147" s="90"/>
+      <c r="C147" s="95"/>
+      <c r="D147" s="95"/>
+      <c r="E147" s="95"/>
+      <c r="F147" s="95"/>
+      <c r="G147" s="96"/>
       <c r="H147" s="30"/>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="83" t="s">
+      <c r="B148" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="89"/>
-      <c r="G148" s="90"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="95"/>
+      <c r="F148" s="95"/>
+      <c r="G148" s="96"/>
       <c r="H148" s="30"/>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="83" t="s">
+      <c r="B149" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
-      <c r="G149" s="90"/>
+      <c r="C149" s="95"/>
+      <c r="D149" s="95"/>
+      <c r="E149" s="95"/>
+      <c r="F149" s="95"/>
+      <c r="G149" s="96"/>
       <c r="H149" s="30"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -9949,38 +10780,38 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="91" t="s">
+      <c r="B152" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
-      <c r="G152" s="90"/>
+      <c r="C152" s="95"/>
+      <c r="D152" s="95"/>
+      <c r="E152" s="95"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="96"/>
       <c r="H152" s="30"/>
     </row>
     <row r="153" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="83" t="s">
+      <c r="B153" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
-      <c r="G153" s="90"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="96"/>
       <c r="H153" s="30"/>
     </row>
     <row r="154" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="86" t="s">
+      <c r="B154" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="96"/>
-      <c r="D154" s="96"/>
-      <c r="E154" s="96"/>
-      <c r="F154" s="96"/>
-      <c r="G154" s="97"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="86"/>
+      <c r="G154" s="87"/>
       <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -10004,24 +10835,24 @@
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="83" t="s">
+      <c r="B157" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="84"/>
-      <c r="D157" s="84"/>
-      <c r="E157" s="84"/>
-      <c r="F157" s="84"/>
-      <c r="G157" s="85"/>
+      <c r="C157" s="111"/>
+      <c r="D157" s="111"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="111"/>
+      <c r="G157" s="112"/>
     </row>
     <row r="158" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="86" t="s">
+      <c r="B158" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="87"/>
-      <c r="F158" s="87"/>
-      <c r="G158" s="88"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="93"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="30"/>
@@ -10053,14 +10884,14 @@
     </row>
     <row r="162" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
-      <c r="B162" s="103" t="s">
+      <c r="B162" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="104"/>
-      <c r="D162" s="104"/>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
-      <c r="G162" s="105"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="99"/>
       <c r="H162" s="30"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10075,44 +10906,44 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
-      <c r="B164" s="106" t="s">
+      <c r="B164" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C164" s="106"/>
-      <c r="D164" s="106" t="s">
+      <c r="C164" s="100"/>
+      <c r="D164" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="E164" s="106"/>
-      <c r="F164" s="106" t="s">
+      <c r="E164" s="100"/>
+      <c r="F164" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G164" s="106"/>
+      <c r="G164" s="100"/>
       <c r="H164" s="30"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
-      <c r="B165" s="106"/>
-      <c r="C165" s="106"/>
-      <c r="D165" s="106"/>
-      <c r="E165" s="106"/>
-      <c r="F165" s="106"/>
-      <c r="G165" s="106"/>
+      <c r="B165" s="100"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="100"/>
+      <c r="E165" s="100"/>
+      <c r="F165" s="100"/>
+      <c r="G165" s="100"/>
       <c r="H165" s="30"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
-      <c r="B166" s="98" t="s">
+      <c r="B166" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="C166" s="99"/>
-      <c r="D166" s="98" t="s">
+      <c r="C166" s="102"/>
+      <c r="D166" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="100"/>
-      <c r="F166" s="101">
+      <c r="E166" s="103"/>
+      <c r="F166" s="104">
         <v>1</v>
       </c>
-      <c r="G166" s="102"/>
+      <c r="G166" s="105"/>
       <c r="H166" s="30"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -10139,14 +10970,14 @@
     </row>
     <row r="169" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
-      <c r="B169" s="113" t="s">
+      <c r="B169" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="C169" s="114"/>
-      <c r="D169" s="114"/>
-      <c r="E169" s="114"/>
-      <c r="F169" s="114"/>
-      <c r="G169" s="115"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="107"/>
+      <c r="G169" s="108"/>
       <c r="H169" s="30"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -10173,38 +11004,38 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
-      <c r="B172" s="83" t="s">
+      <c r="B172" s="88" t="s">
         <v>425</v>
       </c>
-      <c r="C172" s="94"/>
-      <c r="D172" s="94"/>
-      <c r="E172" s="94"/>
-      <c r="F172" s="94"/>
-      <c r="G172" s="95"/>
+      <c r="C172" s="89"/>
+      <c r="D172" s="89"/>
+      <c r="E172" s="89"/>
+      <c r="F172" s="89"/>
+      <c r="G172" s="90"/>
       <c r="H172" s="30"/>
     </row>
     <row r="173" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
-      <c r="B173" s="83" t="s">
+      <c r="B173" s="88" t="s">
         <v>427</v>
       </c>
-      <c r="C173" s="94"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="94"/>
-      <c r="F173" s="94"/>
-      <c r="G173" s="95"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="89"/>
+      <c r="E173" s="89"/>
+      <c r="F173" s="89"/>
+      <c r="G173" s="90"/>
       <c r="H173" s="30"/>
     </row>
     <row r="174" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
-      <c r="B174" s="86" t="s">
+      <c r="B174" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="C174" s="87"/>
-      <c r="D174" s="87"/>
-      <c r="E174" s="87"/>
-      <c r="F174" s="87"/>
-      <c r="G174" s="88"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="93"/>
       <c r="H174" s="30"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -10231,26 +11062,26 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
-      <c r="B177" s="91" t="s">
+      <c r="B177" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="C177" s="89"/>
-      <c r="D177" s="89"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="89"/>
-      <c r="G177" s="90"/>
+      <c r="C177" s="95"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="95"/>
+      <c r="F177" s="95"/>
+      <c r="G177" s="96"/>
       <c r="H177" s="30"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
-      <c r="B178" s="107" t="s">
+      <c r="B178" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="C178" s="96"/>
-      <c r="D178" s="96"/>
-      <c r="E178" s="96"/>
-      <c r="F178" s="96"/>
-      <c r="G178" s="97"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="87"/>
       <c r="H178" s="30"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -10277,14 +11108,14 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
-      <c r="B181" s="107" t="s">
+      <c r="B181" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="C181" s="96"/>
-      <c r="D181" s="96"/>
-      <c r="E181" s="96"/>
-      <c r="F181" s="96"/>
-      <c r="G181" s="97"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="86"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="86"/>
+      <c r="G181" s="87"/>
       <c r="H181" s="30"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -10311,14 +11142,14 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
-      <c r="B184" s="107" t="s">
+      <c r="B184" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C184" s="96"/>
-      <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="97"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="86"/>
+      <c r="E184" s="86"/>
+      <c r="F184" s="86"/>
+      <c r="G184" s="87"/>
       <c r="H184" s="30"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -10333,91 +11164,20 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B184:G184"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B164:C165"/>
-    <mergeCell ref="D164:E165"/>
-    <mergeCell ref="F164:G165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:G129"/>
@@ -10439,20 +11199,91 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B184:G184"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B164:C165"/>
+    <mergeCell ref="D164:E165"/>
+    <mergeCell ref="F164:G165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B172:G172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10579,27 +11410,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10628,16 +11459,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="118" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -10674,28 +11505,33 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>2</v>
       </c>
@@ -10703,31 +11539,31 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
       <c r="B24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="59">
         <v>3</v>
       </c>
@@ -10735,19 +11571,19 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" t="s">
         <v>152</v>
@@ -10877,16 +11713,16 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="116" t="s">
+      <c r="A55" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="118"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -11002,16 +11838,16 @@
     </row>
     <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="118" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="118"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="120"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -11743,1072 +12579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="54">
-        <v>42037</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="54">
-        <v>42033</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="54">
-        <v>42037</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="54">
-        <v>42093</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="54">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="54">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <v>42093</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:D14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{36BD5F38-6BBF-43F1-989D-C5B8575A336B}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C17:C19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{4C3BF3F6-3682-47E8-A098-A8095D22CC9A}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{272271AA-5FA8-41B4-AD3A-3EBA4D9A20BF}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C24:C25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{7E994C74-6088-4E17-9930-85A745AE1C6F}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C6:C12</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="54">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="54">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="54">
-        <v>42093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="56">
-        <v>42065</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{8EB7DC16-910B-4F97-88B0-FB761F4ABB7D}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C13:C15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{DFEB6DAD-6A2F-4983-89D6-BD93FAC0AC6E}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{13C21962-459E-4063-BDB8-5A2FE8F3F343}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C6:C8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="C5:D14 A5:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="52" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="52" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="17">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E13" si="0">C6*D6</f>
-        <v>6</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="I7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>3</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17">
-        <v>4</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17">
-        <v>4</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" ref="E14" si="1">C14*D14</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E14">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E13">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>3</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>2</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>1</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="42">
-        <v>1</v>
-      </c>
-      <c r="C9" s="42">
-        <v>2</v>
-      </c>
-      <c r="D9" s="42">
-        <v>3</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:Q13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12817,21 +12593,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12846,28 +12622,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Processus" sheetId="2" r:id="rId1"/>
-    <sheet name="Dvlpment" sheetId="3" r:id="rId2"/>
-    <sheet name="Risques" sheetId="4" r:id="rId3"/>
-    <sheet name="Graphe" sheetId="8" r:id="rId4"/>
-    <sheet name="Tests" sheetId="1" r:id="rId5"/>
-    <sheet name="Fiches" sheetId="7" r:id="rId6"/>
-    <sheet name="Preuves" sheetId="9" r:id="rId7"/>
-    <sheet name="Revues" sheetId="5" r:id="rId8"/>
-    <sheet name="Réunions" sheetId="6" r:id="rId9"/>
+    <sheet name="Processus OK" sheetId="2" r:id="rId1"/>
+    <sheet name="Dvlpment OK" sheetId="3" r:id="rId2"/>
+    <sheet name="Risques OK" sheetId="4" r:id="rId3"/>
+    <sheet name="Graphe NON" sheetId="8" r:id="rId4"/>
+    <sheet name="Tests NON" sheetId="1" r:id="rId5"/>
+    <sheet name="Fiches OK" sheetId="7" r:id="rId6"/>
+    <sheet name="Preuves NON" sheetId="9" r:id="rId7"/>
+    <sheet name="Revues OK" sheetId="5" r:id="rId8"/>
+    <sheet name="Réunions OK" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Fiches!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Fiches OK'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2178,6 +2178,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="12"/>
     </xf>
@@ -2205,31 +2235,13 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2241,26 +2253,32 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2277,26 +2295,20 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2313,6 +2325,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2321,27 +2342,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7400,7 +7400,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,20 +7413,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7561,12 +7561,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7627,12 +7627,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7793,7 +7793,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7805,20 +7805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7878,12 +7878,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="C5:D14 A5:A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8051,15 +8051,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -8364,17 +8364,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -8484,12 +8484,12 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="45"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -8528,12 +8528,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8597,12 +8597,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8621,11 +8621,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="65"/>
       <c r="F12" s="30"/>
     </row>
@@ -8743,11 +8743,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="65"/>
       <c r="F22" s="30"/>
     </row>
@@ -8994,8 +8994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,14 +9016,14 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9038,44 +9038,44 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="100"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="101" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104">
+      <c r="E6" s="109"/>
+      <c r="F6" s="110">
         <v>0</v>
       </c>
-      <c r="G6" s="105"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9102,14 +9102,14 @@
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="122" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9136,50 +9136,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9206,26 +9206,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="100" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9252,14 +9252,14 @@
     </row>
     <row r="22" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="92" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9286,14 +9286,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="116" t="s">
         <v>415</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9332,14 +9332,14 @@
     </row>
     <row r="29" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="99"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9354,44 +9354,44 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100" t="s">
+      <c r="C31" s="115"/>
+      <c r="D31" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100" t="s">
+      <c r="E31" s="115"/>
+      <c r="F31" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="100"/>
+      <c r="G31" s="115"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104">
+      <c r="E33" s="109"/>
+      <c r="F33" s="110">
         <v>1</v>
       </c>
-      <c r="G33" s="105"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -9418,14 +9418,14 @@
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="108"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -9452,50 +9452,50 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="104"/>
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="110"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="102"/>
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="102"/>
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="93"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -9522,38 +9522,38 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="99"/>
       <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="96"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="99"/>
       <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="116" t="s">
         <v>396</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -9580,38 +9580,38 @@
     </row>
     <row r="50" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="92" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="96"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="99"/>
       <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="92" t="s">
         <v>403</v>
       </c>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="99"/>
       <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="116" t="s">
         <v>389</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="106"/>
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -9638,14 +9638,14 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="87"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -9684,14 +9684,14 @@
     </row>
     <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="99"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -9706,44 +9706,44 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100" t="s">
+      <c r="C61" s="115"/>
+      <c r="D61" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100" t="s">
+      <c r="E61" s="115"/>
+      <c r="F61" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="100"/>
+      <c r="G61" s="115"/>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="107" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="101" t="s">
+      <c r="C63" s="108"/>
+      <c r="D63" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="103"/>
-      <c r="F63" s="104">
+      <c r="E63" s="109"/>
+      <c r="F63" s="110">
         <v>1</v>
       </c>
-      <c r="G63" s="105"/>
+      <c r="G63" s="111"/>
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -9770,14 +9770,14 @@
     </row>
     <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="108"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="124"/>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -9804,62 +9804,62 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="92" t="s">
         <v>402</v>
       </c>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="90"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="110"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="102"/>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="110"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="102"/>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="100" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="110"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="102"/>
       <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="95" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="93"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="97"/>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -9886,50 +9886,50 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="94" t="s">
+      <c r="B76" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="96"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="99"/>
       <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="94" t="s">
+      <c r="B77" s="100" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="95"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="96"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="99"/>
       <c r="H77" s="30"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="96"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="99"/>
       <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="85" t="s">
+      <c r="B79" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="87"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="106"/>
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -9956,38 +9956,38 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="92" t="s">
         <v>400</v>
       </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="96"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="99"/>
       <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="96"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="99"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="87"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="106"/>
       <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -10014,14 +10014,14 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="106"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -10060,14 +10060,14 @@
     </row>
     <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="97" t="s">
+      <c r="B91" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="98"/>
-      <c r="D91" s="98"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="99"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="114"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -10082,44 +10082,44 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100" t="s">
+      <c r="C93" s="115"/>
+      <c r="D93" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100" t="s">
+      <c r="E93" s="115"/>
+      <c r="F93" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G93" s="100"/>
+      <c r="G93" s="115"/>
       <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="100"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="115"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="115"/>
+      <c r="G94" s="115"/>
       <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="101" t="s">
+      <c r="B95" s="107" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="102"/>
-      <c r="D95" s="101" t="s">
+      <c r="C95" s="108"/>
+      <c r="D95" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="103"/>
-      <c r="F95" s="104">
+      <c r="E95" s="109"/>
+      <c r="F95" s="110">
         <v>1</v>
       </c>
-      <c r="G95" s="105"/>
+      <c r="G95" s="111"/>
       <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -10146,14 +10146,14 @@
     </row>
     <row r="98" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="107"/>
-      <c r="D98" s="107"/>
-      <c r="E98" s="107"/>
-      <c r="F98" s="107"/>
-      <c r="G98" s="108"/>
+      <c r="C98" s="123"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="124"/>
       <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -10180,62 +10180,62 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="90"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="104"/>
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="110"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="102"/>
       <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="110"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="102"/>
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="100" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="110"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="102"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="95" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="93"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="97"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -10262,50 +10262,50 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="94" t="s">
+      <c r="B108" s="100" t="s">
         <v>407</v>
       </c>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="96"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="98"/>
+      <c r="G108" s="99"/>
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="94" t="s">
+      <c r="B109" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="96"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="99"/>
       <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="92" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="112"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="94"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
-      <c r="B111" s="85" t="s">
+      <c r="B111" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="87"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="106"/>
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -10332,50 +10332,50 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" s="88" t="s">
+      <c r="B114" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="C114" s="95"/>
-      <c r="D114" s="95"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="96"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="99"/>
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="88" t="s">
+      <c r="B115" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="95"/>
-      <c r="F115" s="95"/>
-      <c r="G115" s="96"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="99"/>
       <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="88" t="s">
+      <c r="B116" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="C116" s="95"/>
-      <c r="D116" s="95"/>
-      <c r="E116" s="95"/>
-      <c r="F116" s="95"/>
-      <c r="G116" s="96"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="99"/>
       <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="85" t="s">
+      <c r="B117" s="116" t="s">
         <v>413</v>
       </c>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="87"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="106"/>
       <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -10402,26 +10402,26 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
-      <c r="B120" s="94" t="s">
+      <c r="B120" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="95"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="95"/>
-      <c r="G120" s="96"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="99"/>
       <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
-      <c r="B121" s="91" t="s">
+      <c r="B121" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
-      <c r="F121" s="92"/>
-      <c r="G121" s="93"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="96"/>
+      <c r="G121" s="97"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -10460,14 +10460,14 @@
     </row>
     <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
-      <c r="B125" s="97" t="s">
+      <c r="B125" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="98"/>
-      <c r="D125" s="98"/>
-      <c r="E125" s="98"/>
-      <c r="F125" s="98"/>
-      <c r="G125" s="99"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="114"/>
       <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -10482,44 +10482,44 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
-      <c r="B127" s="100" t="s">
+      <c r="B127" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100" t="s">
+      <c r="C127" s="115"/>
+      <c r="D127" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100" t="s">
+      <c r="E127" s="115"/>
+      <c r="F127" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G127" s="100"/>
+      <c r="G127" s="115"/>
       <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
-      <c r="B128" s="100"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="100"/>
-      <c r="E128" s="100"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="100"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="115"/>
+      <c r="D128" s="115"/>
+      <c r="E128" s="115"/>
+      <c r="F128" s="115"/>
+      <c r="G128" s="115"/>
       <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="101" t="s">
+      <c r="B129" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="102"/>
-      <c r="D129" s="101" t="s">
+      <c r="C129" s="108"/>
+      <c r="D129" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="103"/>
-      <c r="F129" s="104">
+      <c r="E129" s="109"/>
+      <c r="F129" s="110">
         <v>0</v>
       </c>
-      <c r="G129" s="105"/>
+      <c r="G129" s="111"/>
       <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -10546,50 +10546,50 @@
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="113" t="s">
+      <c r="B132" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="114"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="114"/>
-      <c r="F132" s="114"/>
-      <c r="G132" s="115"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="118"/>
+      <c r="E132" s="118"/>
+      <c r="F132" s="118"/>
+      <c r="G132" s="119"/>
       <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
-      <c r="B133" s="88" t="s">
+      <c r="B133" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="109"/>
-      <c r="D133" s="109"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="109"/>
-      <c r="G133" s="110"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="102"/>
       <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
-      <c r="B134" s="88" t="s">
+      <c r="B134" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="C134" s="111"/>
-      <c r="D134" s="111"/>
-      <c r="E134" s="111"/>
-      <c r="F134" s="111"/>
-      <c r="G134" s="112"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="93"/>
+      <c r="G134" s="94"/>
       <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
-      <c r="B135" s="91" t="s">
+      <c r="B135" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116"/>
-      <c r="E135" s="116"/>
-      <c r="F135" s="116"/>
-      <c r="G135" s="117"/>
+      <c r="C135" s="120"/>
+      <c r="D135" s="120"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="120"/>
+      <c r="G135" s="121"/>
       <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -10616,86 +10616,86 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="90"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="103"/>
+      <c r="F138" s="103"/>
+      <c r="G138" s="104"/>
       <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="94" t="s">
+      <c r="B139" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="C139" s="109"/>
-      <c r="D139" s="109"/>
-      <c r="E139" s="109"/>
-      <c r="F139" s="109"/>
-      <c r="G139" s="110"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="102"/>
       <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="88" t="s">
+      <c r="B140" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
-      <c r="G140" s="90"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="103"/>
+      <c r="F140" s="103"/>
+      <c r="G140" s="104"/>
       <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="109"/>
-      <c r="D141" s="109"/>
-      <c r="E141" s="109"/>
-      <c r="F141" s="109"/>
-      <c r="G141" s="110"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="101"/>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="102"/>
       <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="88" t="s">
+      <c r="B142" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="89"/>
-      <c r="G142" s="90"/>
+      <c r="C142" s="103"/>
+      <c r="D142" s="103"/>
+      <c r="E142" s="103"/>
+      <c r="F142" s="103"/>
+      <c r="G142" s="104"/>
       <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="88" t="s">
+      <c r="B143" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="89"/>
-      <c r="G143" s="90"/>
+      <c r="C143" s="103"/>
+      <c r="D143" s="103"/>
+      <c r="E143" s="103"/>
+      <c r="F143" s="103"/>
+      <c r="G143" s="104"/>
       <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="91" t="s">
+      <c r="B144" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="C144" s="92"/>
-      <c r="D144" s="92"/>
-      <c r="E144" s="92"/>
-      <c r="F144" s="92"/>
-      <c r="G144" s="93"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="97"/>
       <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -10722,38 +10722,38 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="94" t="s">
+      <c r="B147" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="95"/>
-      <c r="D147" s="95"/>
-      <c r="E147" s="95"/>
-      <c r="F147" s="95"/>
-      <c r="G147" s="96"/>
+      <c r="C147" s="98"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="99"/>
       <c r="H147" s="30"/>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="88" t="s">
+      <c r="B148" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="C148" s="95"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="95"/>
-      <c r="G148" s="96"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
+      <c r="F148" s="98"/>
+      <c r="G148" s="99"/>
       <c r="H148" s="30"/>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="88" t="s">
+      <c r="B149" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="95"/>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
-      <c r="F149" s="95"/>
-      <c r="G149" s="96"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="98"/>
+      <c r="E149" s="98"/>
+      <c r="F149" s="98"/>
+      <c r="G149" s="99"/>
       <c r="H149" s="30"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -10780,38 +10780,38 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="94" t="s">
+      <c r="B152" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="95"/>
-      <c r="D152" s="95"/>
-      <c r="E152" s="95"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="96"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="99"/>
       <c r="H152" s="30"/>
     </row>
     <row r="153" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="88" t="s">
+      <c r="B153" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="96"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="98"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="99"/>
       <c r="H153" s="30"/>
     </row>
     <row r="154" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="91" t="s">
+      <c r="B154" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
-      <c r="E154" s="86"/>
-      <c r="F154" s="86"/>
-      <c r="G154" s="87"/>
+      <c r="C154" s="105"/>
+      <c r="D154" s="105"/>
+      <c r="E154" s="105"/>
+      <c r="F154" s="105"/>
+      <c r="G154" s="106"/>
       <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -10835,24 +10835,24 @@
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="88" t="s">
+      <c r="B157" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="111"/>
-      <c r="D157" s="111"/>
-      <c r="E157" s="111"/>
-      <c r="F157" s="111"/>
-      <c r="G157" s="112"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="93"/>
+      <c r="G157" s="94"/>
     </row>
     <row r="158" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="91" t="s">
+      <c r="B158" s="95" t="s">
         <v>369</v>
       </c>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="93"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="97"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="30"/>
@@ -10884,14 +10884,14 @@
     </row>
     <row r="162" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
-      <c r="B162" s="97" t="s">
+      <c r="B162" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="98"/>
-      <c r="D162" s="98"/>
-      <c r="E162" s="98"/>
-      <c r="F162" s="98"/>
-      <c r="G162" s="99"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="113"/>
+      <c r="E162" s="113"/>
+      <c r="F162" s="113"/>
+      <c r="G162" s="114"/>
       <c r="H162" s="30"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10906,44 +10906,44 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
-      <c r="B164" s="100" t="s">
+      <c r="B164" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C164" s="100"/>
-      <c r="D164" s="100" t="s">
+      <c r="C164" s="115"/>
+      <c r="D164" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="E164" s="100"/>
-      <c r="F164" s="100" t="s">
+      <c r="E164" s="115"/>
+      <c r="F164" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G164" s="100"/>
+      <c r="G164" s="115"/>
       <c r="H164" s="30"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
-      <c r="B165" s="100"/>
-      <c r="C165" s="100"/>
-      <c r="D165" s="100"/>
-      <c r="E165" s="100"/>
-      <c r="F165" s="100"/>
-      <c r="G165" s="100"/>
+      <c r="B165" s="115"/>
+      <c r="C165" s="115"/>
+      <c r="D165" s="115"/>
+      <c r="E165" s="115"/>
+      <c r="F165" s="115"/>
+      <c r="G165" s="115"/>
       <c r="H165" s="30"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
-      <c r="B166" s="101" t="s">
+      <c r="B166" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="C166" s="102"/>
-      <c r="D166" s="101" t="s">
+      <c r="C166" s="108"/>
+      <c r="D166" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="103"/>
-      <c r="F166" s="104">
+      <c r="E166" s="109"/>
+      <c r="F166" s="110">
         <v>1</v>
       </c>
-      <c r="G166" s="105"/>
+      <c r="G166" s="111"/>
       <c r="H166" s="30"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -10970,14 +10970,14 @@
     </row>
     <row r="169" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
-      <c r="B169" s="106" t="s">
+      <c r="B169" s="122" t="s">
         <v>424</v>
       </c>
-      <c r="C169" s="107"/>
-      <c r="D169" s="107"/>
-      <c r="E169" s="107"/>
-      <c r="F169" s="107"/>
-      <c r="G169" s="108"/>
+      <c r="C169" s="123"/>
+      <c r="D169" s="123"/>
+      <c r="E169" s="123"/>
+      <c r="F169" s="123"/>
+      <c r="G169" s="124"/>
       <c r="H169" s="30"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -11004,38 +11004,38 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
-      <c r="B172" s="88" t="s">
+      <c r="B172" s="92" t="s">
         <v>425</v>
       </c>
-      <c r="C172" s="89"/>
-      <c r="D172" s="89"/>
-      <c r="E172" s="89"/>
-      <c r="F172" s="89"/>
-      <c r="G172" s="90"/>
+      <c r="C172" s="103"/>
+      <c r="D172" s="103"/>
+      <c r="E172" s="103"/>
+      <c r="F172" s="103"/>
+      <c r="G172" s="104"/>
       <c r="H172" s="30"/>
     </row>
     <row r="173" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
-      <c r="B173" s="88" t="s">
+      <c r="B173" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="C173" s="89"/>
-      <c r="D173" s="89"/>
-      <c r="E173" s="89"/>
-      <c r="F173" s="89"/>
-      <c r="G173" s="90"/>
+      <c r="C173" s="103"/>
+      <c r="D173" s="103"/>
+      <c r="E173" s="103"/>
+      <c r="F173" s="103"/>
+      <c r="G173" s="104"/>
       <c r="H173" s="30"/>
     </row>
     <row r="174" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
-      <c r="B174" s="91" t="s">
+      <c r="B174" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="C174" s="92"/>
-      <c r="D174" s="92"/>
-      <c r="E174" s="92"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="93"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="96"/>
+      <c r="F174" s="96"/>
+      <c r="G174" s="97"/>
       <c r="H174" s="30"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -11062,26 +11062,26 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="C177" s="95"/>
-      <c r="D177" s="95"/>
-      <c r="E177" s="95"/>
-      <c r="F177" s="95"/>
-      <c r="G177" s="96"/>
+      <c r="C177" s="98"/>
+      <c r="D177" s="98"/>
+      <c r="E177" s="98"/>
+      <c r="F177" s="98"/>
+      <c r="G177" s="99"/>
       <c r="H177" s="30"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
-      <c r="B178" s="85" t="s">
+      <c r="B178" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="C178" s="86"/>
-      <c r="D178" s="86"/>
-      <c r="E178" s="86"/>
-      <c r="F178" s="86"/>
-      <c r="G178" s="87"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="105"/>
+      <c r="E178" s="105"/>
+      <c r="F178" s="105"/>
+      <c r="G178" s="106"/>
       <c r="H178" s="30"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -11108,14 +11108,14 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
-      <c r="B181" s="85" t="s">
+      <c r="B181" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="C181" s="86"/>
-      <c r="D181" s="86"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="86"/>
-      <c r="G181" s="87"/>
+      <c r="C181" s="105"/>
+      <c r="D181" s="105"/>
+      <c r="E181" s="105"/>
+      <c r="F181" s="105"/>
+      <c r="G181" s="106"/>
       <c r="H181" s="30"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -11142,14 +11142,14 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
-      <c r="B184" s="85" t="s">
+      <c r="B184" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C184" s="86"/>
-      <c r="D184" s="86"/>
-      <c r="E184" s="86"/>
-      <c r="F184" s="86"/>
-      <c r="G184" s="87"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="105"/>
+      <c r="E184" s="105"/>
+      <c r="F184" s="105"/>
+      <c r="G184" s="106"/>
       <c r="H184" s="30"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -11164,20 +11164,91 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B184:G184"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B164:C165"/>
+    <mergeCell ref="D164:E165"/>
+    <mergeCell ref="F164:G165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:G129"/>
@@ -11199,91 +11270,20 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B184:G184"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B164:C165"/>
-    <mergeCell ref="D164:E165"/>
-    <mergeCell ref="F164:G165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11421,16 +11421,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11459,16 +11459,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="125" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -11713,16 +11713,16 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="125" t="s">
         <v>374</v>
       </c>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="120"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="127"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -11838,16 +11838,16 @@
     </row>
     <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="118" t="s">
+      <c r="A81" s="125" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="119"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="119"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="120"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="126"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="127"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -12583,8 +12583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12622,8 +12622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rapport/Controle Qualité.xlsx
+++ b/Rapport/Controle Qualité.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="5190" tabRatio="661" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Processus OK" sheetId="2" r:id="rId1"/>
     <sheet name="Dvlpment OK" sheetId="3" r:id="rId2"/>
     <sheet name="Risques OK" sheetId="4" r:id="rId3"/>
     <sheet name="Graphe NON" sheetId="8" r:id="rId4"/>
-    <sheet name="Tests NON" sheetId="1" r:id="rId5"/>
+    <sheet name="Tests OUI" sheetId="1" r:id="rId5"/>
     <sheet name="Fiches OK" sheetId="7" r:id="rId6"/>
     <sheet name="Preuves NON" sheetId="9" r:id="rId7"/>
     <sheet name="Revues OK" sheetId="5" r:id="rId8"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="415">
   <si>
     <t>Journal des tests à passer en recette avec la chronologie de passage</t>
   </si>
@@ -129,51 +129,6 @@
     <t>DATA-MINIG</t>
   </si>
   <si>
-    <t>Préparation de données</t>
-  </si>
-  <si>
-    <t>Préparation</t>
-  </si>
-  <si>
-    <t>Filtrage</t>
-  </si>
-  <si>
-    <t>Synonymie</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>Affichage des documents</t>
-  </si>
-  <si>
-    <t>Tri par pertinence</t>
-  </si>
-  <si>
-    <t>Affichage titre, auteur, …</t>
-  </si>
-  <si>
-    <t>Message à l'utilisateur</t>
-  </si>
-  <si>
-    <t>Aucun document retourné</t>
-  </si>
-  <si>
-    <t>Message d'erreur</t>
-  </si>
-  <si>
-    <t>Affichage</t>
-  </si>
-  <si>
-    <t>Message spécifique</t>
-  </si>
-  <si>
-    <t>Affichage de document d'une collection</t>
-  </si>
-  <si>
-    <t>Affichage de document de plusieurs collections</t>
-  </si>
-  <si>
     <t>Fiche de test</t>
   </si>
   <si>
@@ -201,15 +156,6 @@
     <t>DATA WAREHOUSE</t>
   </si>
   <si>
-    <t>Omission de la requête</t>
-  </si>
-  <si>
-    <t>Requête avec un terme spécifique à une collection</t>
-  </si>
-  <si>
-    <t>Requête avec un terme commun à plusieurs collections</t>
-  </si>
-  <si>
     <t>ORG-01</t>
   </si>
   <si>
@@ -310,9 +256,6 @@
   </si>
   <si>
     <t>Planification</t>
-  </si>
-  <si>
-    <t>La soutenance aura lieu le 2 mars 2015, ceci correspond à la présentation des résultats aux clients.</t>
   </si>
   <si>
     <t>L'organisation de l'équipe de développement mise en place par le fournisseur sera présentée au client lors de la réunion de démarrage</t>
@@ -1370,6 +1313,12 @@
   </si>
   <si>
     <t>Pas mettre</t>
+  </si>
+  <si>
+    <t>La soutenance aura lieu le 30 mars 2015, ceci correspond à la présentation des résultats aux clients.</t>
+  </si>
+  <si>
+    <t>Vérification des résultats de tétralogie</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2112,14 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2235,13 +2176,22 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,32 +2203,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2295,20 +2239,26 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2324,15 +2274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2360,6 +2301,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7399,8 +7349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7408,25 +7358,25 @@
     <col min="1" max="1" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7439,121 +7389,121 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>87</v>
+      <c r="B6" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>102</v>
+      <c r="D6" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="50">
         <v>42037</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>96</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="50">
         <v>42033</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="50">
         <v>42037</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="54">
+        <v>1</v>
+      </c>
+      <c r="D10" s="50">
         <v>42093</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -7561,12 +7511,12 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7579,7 +7529,7 @@
       <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F16"/>
@@ -7588,51 +7538,51 @@
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>104</v>
+      <c r="B17" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="54">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50">
         <v>42093</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="54">
+        <v>1</v>
+      </c>
+      <c r="D18" s="50">
         <v>42093</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51">
         <v>42093</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="A21" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7645,7 +7595,7 @@
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F23"/>
@@ -7654,43 +7604,43 @@
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>90</v>
+      <c r="B24" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>102</v>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>413</v>
       </c>
       <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
+        <v>1</v>
+      </c>
+      <c r="D26" s="51">
         <v>42093</v>
       </c>
     </row>
@@ -7793,7 +7743,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7801,24 +7751,24 @@
     <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7831,7 +7781,7 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7839,51 +7789,51 @@
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>108</v>
+      <c r="B6" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>102</v>
+      <c r="D6" s="50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="54">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50">
         <v>42093</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51">
         <v>42093</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7896,7 +7846,7 @@
       <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7904,60 +7854,60 @@
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>102</v>
+      <c r="D13" s="50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="54">
+        <v>1</v>
+      </c>
+      <c r="D14" s="50">
         <v>42093</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>111</v>
+        <v>87</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="54">
+        <v>1</v>
+      </c>
+      <c r="D15" s="50">
         <v>42093</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="52">
         <v>42065</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
+      <c r="B17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8036,7 +7986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8046,20 +7996,20 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="52" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -8067,7 +8017,7 @@
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
@@ -8081,19 +8031,19 @@
       <c r="E5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C6" s="17">
         <v>3</v>
@@ -8106,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G6" s="18"/>
       <c r="I6">
@@ -8115,7 +8065,7 @@
     </row>
     <row r="7" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>21</v>
@@ -8131,19 +8081,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C8" s="17">
         <v>3</v>
@@ -8156,21 +8106,21 @@
         <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C9" s="17">
         <v>2</v>
@@ -8183,16 +8133,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>27</v>
@@ -8216,7 +8166,7 @@
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>30</v>
@@ -8232,13 +8182,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>32</v>
@@ -8254,18 +8204,18 @@
         <v>8</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -8278,16 +8228,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -8300,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -8364,17 +8314,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="A1" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -8387,12 +8337,12 @@
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
       <c r="J3" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8350,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -8412,7 +8362,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8422,7 +8372,7 @@
       <c r="B7" s="36"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8459,10 +8409,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8484,12 +8434,12 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="45"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -8514,352 +8464,170 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="69" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>377</v>
+      <c r="E4" s="60" t="s">
+        <v>358</v>
       </c>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="67">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="63">
         <v>0</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="59">
         <v>42072</v>
       </c>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" s="68">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="59">
         <v>42072</v>
       </c>
       <c r="F7" s="30"/>
       <c r="H7" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="68">
+      <c r="B8" s="67"/>
+      <c r="C8" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="64">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="59">
         <v>42076</v>
       </c>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="68">
+      <c r="B9" s="67"/>
+      <c r="C9" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="64">
         <v>1</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="59">
         <v>42076</v>
       </c>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="62">
+      <c r="B11" s="67"/>
+      <c r="C11" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="58">
         <v>0</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="59">
         <v>42080</v>
       </c>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="65"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="130" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="131">
+        <v>1</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>83</v>
+      </c>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="48">
-        <v>1</v>
-      </c>
-      <c r="E14" s="48"/>
+      <c r="B14" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="48">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="48"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="64">
+        <v>1</v>
+      </c>
+      <c r="E15" s="59">
+        <v>42076</v>
+      </c>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="48">
-        <v>0</v>
-      </c>
-      <c r="E16" s="48"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="48">
-        <v>1</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="48">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="48">
-        <v>0</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="48">
-        <v>0</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48">
-        <v>0</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="68">
-        <v>1</v>
-      </c>
-      <c r="E23" s="63">
-        <v>42076</v>
-      </c>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="48">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="48">
-        <v>0</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="48">
-        <v>1</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="48">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="48">
-        <v>0</v>
-      </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="48">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B5:E5"/>
@@ -8887,7 +8655,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D13:E22 D1:E1 D3:E4 D24:E1048576</xm:sqref>
+          <xm:sqref>D16:E1048576 D13:E14 D1:E1 D3:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{BCE6A7D9-E57B-4556-B727-67C5FAD75137}">
@@ -8982,7 +8750,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8994,8 +8762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,14 +8784,14 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9038,44 +8806,44 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="115"/>
+      <c r="B4" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="103"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="107" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110">
+      <c r="B6" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107">
         <v>0</v>
       </c>
-      <c r="G6" s="111"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9091,7 +8859,7 @@
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -9102,14 +8870,14 @@
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
+      <c r="B9" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9125,7 +8893,7 @@
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -9136,50 +8904,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
+      <c r="B12" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="B13" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
+      <c r="B14" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
+      <c r="B15" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9195,7 +8963,7 @@
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -9206,8 +8974,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="100" t="s">
-        <v>393</v>
+      <c r="B18" s="97" t="s">
+        <v>374</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
@@ -9218,14 +8986,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
+      <c r="B19" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9241,7 +9009,7 @@
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -9252,14 +9020,14 @@
     </row>
     <row r="22" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="B22" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9275,7 +9043,7 @@
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -9286,14 +9054,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="116" t="s">
-        <v>415</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="B25" s="88" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9307,18 +9075,18 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -9332,14 +9100,14 @@
     </row>
     <row r="29" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
+      <c r="B29" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9354,44 +9122,44 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
-      <c r="B31" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="115"/>
+      <c r="B31" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="103"/>
       <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="107" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110">
+      <c r="B33" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107">
         <v>1</v>
       </c>
-      <c r="G33" s="111"/>
+      <c r="G33" s="108"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -9407,7 +9175,7 @@
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -9418,14 +9186,14 @@
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
+      <c r="B36" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="111"/>
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -9441,7 +9209,7 @@
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -9452,50 +9220,50 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="104"/>
+      <c r="B39" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93"/>
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="100" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="102"/>
+      <c r="B40" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="102"/>
+      <c r="B41" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97"/>
+      <c r="B42" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -9511,7 +9279,7 @@
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -9522,8 +9290,8 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
-      <c r="B45" s="100" t="s">
-        <v>395</v>
+      <c r="B45" s="97" t="s">
+        <v>376</v>
       </c>
       <c r="C45" s="98"/>
       <c r="D45" s="98"/>
@@ -9534,8 +9302,8 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="100" t="s">
-        <v>388</v>
+      <c r="B46" s="97" t="s">
+        <v>369</v>
       </c>
       <c r="C46" s="98"/>
       <c r="D46" s="98"/>
@@ -9546,14 +9314,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="116" t="s">
-        <v>396</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
+      <c r="B47" s="88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -9569,7 +9337,7 @@
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -9580,8 +9348,8 @@
     </row>
     <row r="50" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="92" t="s">
-        <v>397</v>
+      <c r="B50" s="91" t="s">
+        <v>378</v>
       </c>
       <c r="C50" s="98"/>
       <c r="D50" s="98"/>
@@ -9592,8 +9360,8 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="92" t="s">
-        <v>403</v>
+      <c r="B51" s="91" t="s">
+        <v>384</v>
       </c>
       <c r="C51" s="98"/>
       <c r="D51" s="98"/>
@@ -9604,14 +9372,14 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="116" t="s">
-        <v>389</v>
-      </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="106"/>
+      <c r="B52" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -9627,7 +9395,7 @@
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -9638,14 +9406,14 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="106"/>
+      <c r="B55" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
       <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -9659,18 +9427,18 @@
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
@@ -9684,14 +9452,14 @@
     </row>
     <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -9706,44 +9474,44 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" s="115"/>
+      <c r="B61" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="103"/>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
       <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C63" s="108"/>
-      <c r="D63" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="109"/>
-      <c r="F63" s="110">
+      <c r="B63" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="105"/>
+      <c r="D63" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="E63" s="106"/>
+      <c r="F63" s="107">
         <v>1</v>
       </c>
-      <c r="G63" s="111"/>
+      <c r="G63" s="108"/>
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -9759,7 +9527,7 @@
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
@@ -9770,14 +9538,14 @@
     </row>
     <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="122" t="s">
-        <v>390</v>
-      </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="124"/>
+      <c r="B66" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="111"/>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -9793,7 +9561,7 @@
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
@@ -9804,62 +9572,62 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="104"/>
+      <c r="B69" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="93"/>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
-      <c r="B70" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="102"/>
+      <c r="B70" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="113"/>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
-      <c r="B71" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="102"/>
+      <c r="B71" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="113"/>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="100" t="s">
-        <v>398</v>
-      </c>
-      <c r="C72" s="101"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="102"/>
+      <c r="B72" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="113"/>
       <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="95" t="s">
-        <v>399</v>
-      </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="97"/>
+      <c r="B73" s="94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="96"/>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -9875,7 +9643,7 @@
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
@@ -9886,8 +9654,8 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="100" t="s">
-        <v>208</v>
+      <c r="B76" s="97" t="s">
+        <v>189</v>
       </c>
       <c r="C76" s="98"/>
       <c r="D76" s="98"/>
@@ -9898,8 +9666,8 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="100" t="s">
-        <v>391</v>
+      <c r="B77" s="97" t="s">
+        <v>372</v>
       </c>
       <c r="C77" s="98"/>
       <c r="D77" s="98"/>
@@ -9910,8 +9678,8 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="100" t="s">
-        <v>206</v>
+      <c r="B78" s="97" t="s">
+        <v>187</v>
       </c>
       <c r="C78" s="98"/>
       <c r="D78" s="98"/>
@@ -9922,14 +9690,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="105"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="106"/>
+      <c r="B79" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="90"/>
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -9945,7 +9713,7 @@
     <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C81" s="32"/>
       <c r="D81" s="32"/>
@@ -9956,8 +9724,8 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="92" t="s">
-        <v>400</v>
+      <c r="B82" s="91" t="s">
+        <v>381</v>
       </c>
       <c r="C82" s="98"/>
       <c r="D82" s="98"/>
@@ -9968,8 +9736,8 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="92" t="s">
-        <v>401</v>
+      <c r="B83" s="91" t="s">
+        <v>382</v>
       </c>
       <c r="C83" s="98"/>
       <c r="D83" s="98"/>
@@ -9980,14 +9748,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="106"/>
+      <c r="B84" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -10003,7 +9771,7 @@
     <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
@@ -10014,14 +9782,14 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="106"/>
+      <c r="B87" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="90"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -10035,18 +9803,18 @@
       <c r="H88" s="30"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="61"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
@@ -10060,14 +9828,14 @@
     </row>
     <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="114"/>
+      <c r="B91" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="102"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -10082,44 +9850,44 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="E93" s="115"/>
-      <c r="F93" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="115"/>
+      <c r="B93" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="103"/>
+      <c r="F93" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" s="103"/>
       <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="115"/>
-      <c r="C94" s="115"/>
-      <c r="D94" s="115"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="115"/>
-      <c r="G94" s="115"/>
+      <c r="B94" s="103"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
       <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C95" s="108"/>
-      <c r="D95" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="E95" s="109"/>
-      <c r="F95" s="110">
+      <c r="B95" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="C95" s="105"/>
+      <c r="D95" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="106"/>
+      <c r="F95" s="107">
         <v>1</v>
       </c>
-      <c r="G95" s="111"/>
+      <c r="G95" s="108"/>
       <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -10135,7 +9903,7 @@
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
@@ -10146,14 +9914,14 @@
     </row>
     <row r="98" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="124"/>
+      <c r="B98" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="111"/>
       <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -10169,7 +9937,7 @@
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
@@ -10180,62 +9948,62 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="92" t="s">
-        <v>404</v>
-      </c>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="104"/>
+      <c r="B101" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="93"/>
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="100" t="s">
-        <v>392</v>
-      </c>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="102"/>
+      <c r="B102" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="112"/>
+      <c r="F102" s="112"/>
+      <c r="G102" s="113"/>
       <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="101"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="102"/>
+      <c r="B103" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="112"/>
+      <c r="G103" s="113"/>
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="100" t="s">
-        <v>405</v>
-      </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="102"/>
+      <c r="B104" s="97" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="113"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="96"/>
-      <c r="F105" s="96"/>
-      <c r="G105" s="97"/>
+      <c r="B105" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" s="95"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="96"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -10251,7 +10019,7 @@
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
@@ -10262,8 +10030,8 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="100" t="s">
-        <v>407</v>
+      <c r="B108" s="97" t="s">
+        <v>388</v>
       </c>
       <c r="C108" s="98"/>
       <c r="D108" s="98"/>
@@ -10274,8 +10042,8 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="100" t="s">
-        <v>198</v>
+      <c r="B109" s="97" t="s">
+        <v>179</v>
       </c>
       <c r="C109" s="98"/>
       <c r="D109" s="98"/>
@@ -10286,26 +10054,26 @@
     </row>
     <row r="110" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="92" t="s">
-        <v>408</v>
-      </c>
-      <c r="C110" s="93"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="94"/>
+      <c r="B110" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="114"/>
+      <c r="G110" s="115"/>
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
-      <c r="B111" s="116" t="s">
-        <v>409</v>
-      </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="105"/>
-      <c r="E111" s="105"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="106"/>
+      <c r="B111" s="88" t="s">
+        <v>390</v>
+      </c>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="90"/>
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -10321,7 +10089,7 @@
     <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
@@ -10332,8 +10100,8 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" s="92" t="s">
-        <v>410</v>
+      <c r="B114" s="91" t="s">
+        <v>391</v>
       </c>
       <c r="C114" s="98"/>
       <c r="D114" s="98"/>
@@ -10344,8 +10112,8 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="92" t="s">
-        <v>412</v>
+      <c r="B115" s="91" t="s">
+        <v>393</v>
       </c>
       <c r="C115" s="98"/>
       <c r="D115" s="98"/>
@@ -10356,8 +10124,8 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="92" t="s">
-        <v>411</v>
+      <c r="B116" s="91" t="s">
+        <v>392</v>
       </c>
       <c r="C116" s="98"/>
       <c r="D116" s="98"/>
@@ -10368,14 +10136,14 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="116" t="s">
-        <v>413</v>
-      </c>
-      <c r="C117" s="105"/>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="106"/>
+      <c r="B117" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="90"/>
       <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -10391,7 +10159,7 @@
     <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
       <c r="B119" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -10402,8 +10170,8 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
-      <c r="B120" s="100" t="s">
-        <v>202</v>
+      <c r="B120" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="C120" s="98"/>
       <c r="D120" s="98"/>
@@ -10414,14 +10182,14 @@
     </row>
     <row r="121" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
-      <c r="B121" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="C121" s="96"/>
-      <c r="D121" s="96"/>
-      <c r="E121" s="96"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="97"/>
+      <c r="B121" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="95"/>
+      <c r="D121" s="95"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="95"/>
+      <c r="G121" s="96"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -10435,18 +10203,18 @@
       <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="61"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
-      <c r="L123" s="61"/>
+      <c r="A123" s="57"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="57"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
@@ -10460,14 +10228,14 @@
     </row>
     <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
-      <c r="B125" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="114"/>
+      <c r="B125" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="102"/>
       <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -10482,44 +10250,44 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
-      <c r="B127" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C127" s="115"/>
-      <c r="D127" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E127" s="115"/>
-      <c r="F127" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" s="115"/>
+      <c r="B127" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" s="103"/>
+      <c r="F127" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G127" s="103"/>
       <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="115"/>
-      <c r="D128" s="115"/>
-      <c r="E128" s="115"/>
-      <c r="F128" s="115"/>
-      <c r="G128" s="115"/>
+      <c r="B128" s="103"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="103"/>
+      <c r="E128" s="103"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="103"/>
       <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="107" t="s">
-        <v>371</v>
-      </c>
-      <c r="C129" s="108"/>
-      <c r="D129" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" s="109"/>
-      <c r="F129" s="110">
+      <c r="B129" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" s="105"/>
+      <c r="D129" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="106"/>
+      <c r="F129" s="107">
         <v>0</v>
       </c>
-      <c r="G129" s="111"/>
+      <c r="G129" s="108"/>
       <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -10535,7 +10303,7 @@
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
       <c r="B131" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
@@ -10546,50 +10314,50 @@
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C132" s="118"/>
-      <c r="D132" s="118"/>
-      <c r="E132" s="118"/>
-      <c r="F132" s="118"/>
-      <c r="G132" s="119"/>
+      <c r="B132" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="117"/>
+      <c r="D132" s="117"/>
+      <c r="E132" s="117"/>
+      <c r="F132" s="117"/>
+      <c r="G132" s="118"/>
       <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
-      <c r="B133" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="C133" s="101"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="102"/>
+      <c r="B133" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" s="112"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112"/>
+      <c r="G133" s="113"/>
       <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
-      <c r="B134" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="C134" s="93"/>
-      <c r="D134" s="93"/>
-      <c r="E134" s="93"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="94"/>
+      <c r="B134" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" s="114"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="114"/>
+      <c r="G134" s="115"/>
       <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
-      <c r="B135" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="C135" s="120"/>
-      <c r="D135" s="120"/>
-      <c r="E135" s="120"/>
-      <c r="F135" s="120"/>
-      <c r="G135" s="121"/>
+      <c r="B135" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="119"/>
+      <c r="G135" s="120"/>
       <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -10605,7 +10373,7 @@
     <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
       <c r="B137" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
@@ -10616,86 +10384,86 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="C138" s="103"/>
-      <c r="D138" s="103"/>
-      <c r="E138" s="103"/>
-      <c r="F138" s="103"/>
-      <c r="G138" s="104"/>
+      <c r="B138" s="91" t="s">
+        <v>397</v>
+      </c>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="93"/>
       <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C139" s="101"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="102"/>
+      <c r="B139" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" s="112"/>
+      <c r="D139" s="112"/>
+      <c r="E139" s="112"/>
+      <c r="F139" s="112"/>
+      <c r="G139" s="113"/>
       <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="C140" s="103"/>
-      <c r="D140" s="103"/>
-      <c r="E140" s="103"/>
-      <c r="F140" s="103"/>
-      <c r="G140" s="104"/>
+      <c r="B140" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="93"/>
       <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="C141" s="101"/>
-      <c r="D141" s="101"/>
-      <c r="E141" s="101"/>
-      <c r="F141" s="101"/>
-      <c r="G141" s="102"/>
+      <c r="B141" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" s="112"/>
+      <c r="D141" s="112"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="112"/>
+      <c r="G141" s="113"/>
       <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="C142" s="103"/>
-      <c r="D142" s="103"/>
-      <c r="E142" s="103"/>
-      <c r="F142" s="103"/>
-      <c r="G142" s="104"/>
+      <c r="B142" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="93"/>
       <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C143" s="103"/>
-      <c r="D143" s="103"/>
-      <c r="E143" s="103"/>
-      <c r="F143" s="103"/>
-      <c r="G143" s="104"/>
+      <c r="B143" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="93"/>
       <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="96"/>
-      <c r="E144" s="96"/>
-      <c r="F144" s="96"/>
-      <c r="G144" s="97"/>
+      <c r="B144" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" s="95"/>
+      <c r="D144" s="95"/>
+      <c r="E144" s="95"/>
+      <c r="F144" s="95"/>
+      <c r="G144" s="96"/>
       <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -10711,7 +10479,7 @@
     <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
       <c r="B146" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
@@ -10722,8 +10490,8 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="100" t="s">
-        <v>217</v>
+      <c r="B147" s="97" t="s">
+        <v>198</v>
       </c>
       <c r="C147" s="98"/>
       <c r="D147" s="98"/>
@@ -10734,8 +10502,8 @@
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="92" t="s">
-        <v>417</v>
+      <c r="B148" s="91" t="s">
+        <v>398</v>
       </c>
       <c r="C148" s="98"/>
       <c r="D148" s="98"/>
@@ -10746,8 +10514,8 @@
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="92" t="s">
-        <v>418</v>
+      <c r="B149" s="91" t="s">
+        <v>399</v>
       </c>
       <c r="C149" s="98"/>
       <c r="D149" s="98"/>
@@ -10769,7 +10537,7 @@
     <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
@@ -10780,8 +10548,8 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="100" t="s">
-        <v>217</v>
+      <c r="B152" s="97" t="s">
+        <v>198</v>
       </c>
       <c r="C152" s="98"/>
       <c r="D152" s="98"/>
@@ -10792,8 +10560,8 @@
     </row>
     <row r="153" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="92" t="s">
-        <v>322</v>
+      <c r="B153" s="91" t="s">
+        <v>303</v>
       </c>
       <c r="C153" s="98"/>
       <c r="D153" s="98"/>
@@ -10804,14 +10572,14 @@
     </row>
     <row r="154" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="C154" s="105"/>
-      <c r="D154" s="105"/>
-      <c r="E154" s="105"/>
-      <c r="F154" s="105"/>
-      <c r="G154" s="106"/>
+      <c r="B154" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="89"/>
+      <c r="G154" s="90"/>
       <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -10826,7 +10594,7 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
@@ -10835,24 +10603,24 @@
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="C157" s="93"/>
-      <c r="D157" s="93"/>
-      <c r="E157" s="93"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="94"/>
+      <c r="B157" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" s="114"/>
+      <c r="D157" s="114"/>
+      <c r="E157" s="114"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="115"/>
     </row>
     <row r="158" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
-      <c r="G158" s="97"/>
+      <c r="B158" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="95"/>
+      <c r="D158" s="95"/>
+      <c r="E158" s="95"/>
+      <c r="F158" s="95"/>
+      <c r="G158" s="96"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="30"/>
@@ -10863,14 +10631,14 @@
       <c r="G159" s="30"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="61"/>
-      <c r="D160" s="61"/>
-      <c r="E160" s="61"/>
-      <c r="F160" s="61"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="61"/>
+      <c r="A160" s="57"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
@@ -10884,14 +10652,14 @@
     </row>
     <row r="162" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
-      <c r="B162" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C162" s="113"/>
-      <c r="D162" s="113"/>
-      <c r="E162" s="113"/>
-      <c r="F162" s="113"/>
-      <c r="G162" s="114"/>
+      <c r="B162" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="101"/>
+      <c r="D162" s="101"/>
+      <c r="E162" s="101"/>
+      <c r="F162" s="101"/>
+      <c r="G162" s="102"/>
       <c r="H162" s="30"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10906,44 +10674,44 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
-      <c r="B164" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="C164" s="115"/>
-      <c r="D164" s="115" t="s">
-        <v>419</v>
-      </c>
-      <c r="E164" s="115"/>
-      <c r="F164" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G164" s="115"/>
+      <c r="B164" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="103"/>
+      <c r="D164" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="E164" s="103"/>
+      <c r="F164" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="G164" s="103"/>
       <c r="H164" s="30"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
-      <c r="B165" s="115"/>
-      <c r="C165" s="115"/>
-      <c r="D165" s="115"/>
-      <c r="E165" s="115"/>
-      <c r="F165" s="115"/>
-      <c r="G165" s="115"/>
+      <c r="B165" s="103"/>
+      <c r="C165" s="103"/>
+      <c r="D165" s="103"/>
+      <c r="E165" s="103"/>
+      <c r="F165" s="103"/>
+      <c r="G165" s="103"/>
       <c r="H165" s="30"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
-      <c r="B166" s="107" t="s">
-        <v>420</v>
-      </c>
-      <c r="C166" s="108"/>
-      <c r="D166" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="E166" s="109"/>
-      <c r="F166" s="110">
+      <c r="B166" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="C166" s="105"/>
+      <c r="D166" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="E166" s="106"/>
+      <c r="F166" s="107">
         <v>1</v>
       </c>
-      <c r="G166" s="111"/>
+      <c r="G166" s="108"/>
       <c r="H166" s="30"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -10959,7 +10727,7 @@
     <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="30"/>
       <c r="B168" s="31" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
@@ -10970,30 +10738,30 @@
     </row>
     <row r="169" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
-      <c r="B169" s="122" t="s">
-        <v>424</v>
-      </c>
-      <c r="C169" s="123"/>
-      <c r="D169" s="123"/>
-      <c r="E169" s="123"/>
-      <c r="F169" s="123"/>
-      <c r="G169" s="124"/>
+      <c r="B169" s="109" t="s">
+        <v>405</v>
+      </c>
+      <c r="C169" s="110"/>
+      <c r="D169" s="110"/>
+      <c r="E169" s="110"/>
+      <c r="F169" s="110"/>
+      <c r="G169" s="111"/>
       <c r="H169" s="30"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
-      <c r="B170" s="66"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="66"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
       <c r="H170" s="30"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="30"/>
       <c r="B171" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C171" s="32"/>
       <c r="D171" s="32"/>
@@ -11004,38 +10772,38 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
-      <c r="B172" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="C172" s="103"/>
-      <c r="D172" s="103"/>
-      <c r="E172" s="103"/>
-      <c r="F172" s="103"/>
-      <c r="G172" s="104"/>
+      <c r="B172" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="93"/>
       <c r="H172" s="30"/>
     </row>
     <row r="173" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
-      <c r="B173" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="C173" s="103"/>
-      <c r="D173" s="103"/>
-      <c r="E173" s="103"/>
-      <c r="F173" s="103"/>
-      <c r="G173" s="104"/>
+      <c r="B173" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="93"/>
       <c r="H173" s="30"/>
     </row>
     <row r="174" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
-      <c r="B174" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="C174" s="96"/>
-      <c r="D174" s="96"/>
-      <c r="E174" s="96"/>
-      <c r="F174" s="96"/>
-      <c r="G174" s="97"/>
+      <c r="B174" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="95"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="95"/>
+      <c r="F174" s="95"/>
+      <c r="G174" s="96"/>
       <c r="H174" s="30"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -11051,7 +10819,7 @@
     <row r="176" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="30"/>
       <c r="B176" s="31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
@@ -11062,8 +10830,8 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
-      <c r="B177" s="100" t="s">
-        <v>422</v>
+      <c r="B177" s="97" t="s">
+        <v>403</v>
       </c>
       <c r="C177" s="98"/>
       <c r="D177" s="98"/>
@@ -11074,14 +10842,14 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
-      <c r="B178" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="105"/>
-      <c r="E178" s="105"/>
-      <c r="F178" s="105"/>
-      <c r="G178" s="106"/>
+      <c r="B178" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C178" s="89"/>
+      <c r="D178" s="89"/>
+      <c r="E178" s="89"/>
+      <c r="F178" s="89"/>
+      <c r="G178" s="90"/>
       <c r="H178" s="30"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -11097,7 +10865,7 @@
     <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
       <c r="B180" s="31" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
@@ -11108,14 +10876,14 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
-      <c r="B181" s="116" t="s">
-        <v>423</v>
-      </c>
-      <c r="C181" s="105"/>
-      <c r="D181" s="105"/>
-      <c r="E181" s="105"/>
-      <c r="F181" s="105"/>
-      <c r="G181" s="106"/>
+      <c r="B181" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="C181" s="89"/>
+      <c r="D181" s="89"/>
+      <c r="E181" s="89"/>
+      <c r="F181" s="89"/>
+      <c r="G181" s="90"/>
       <c r="H181" s="30"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -11131,7 +10899,7 @@
     <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
       <c r="B183" s="31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
@@ -11142,14 +10910,14 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
-      <c r="B184" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C184" s="105"/>
-      <c r="D184" s="105"/>
-      <c r="E184" s="105"/>
-      <c r="F184" s="105"/>
-      <c r="G184" s="106"/>
+      <c r="B184" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" s="89"/>
+      <c r="D184" s="89"/>
+      <c r="E184" s="89"/>
+      <c r="F184" s="89"/>
+      <c r="G184" s="90"/>
       <c r="H184" s="30"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -11164,91 +10932,20 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B184:G184"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B164:C165"/>
-    <mergeCell ref="D164:E165"/>
-    <mergeCell ref="F164:G165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:G129"/>
@@ -11270,20 +10967,91 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B184:G184"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B164:C165"/>
+    <mergeCell ref="D164:E165"/>
+    <mergeCell ref="F164:G165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B172:G172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11421,561 +11189,561 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="125" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
+      <c r="A1" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="125" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="A9" s="121" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="55">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="55"/>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="55"/>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="55"/>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="55"/>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="55"/>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="60" t="s">
-        <v>431</v>
+      <c r="O20" s="56" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
+      <c r="A22" s="56">
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="55">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="59">
+      <c r="A41" s="55">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="55"/>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="55"/>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="55"/>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="55"/>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="59">
+      <c r="A48" s="55">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="55"/>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="55"/>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="55"/>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="55"/>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="55"/>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="125" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="127"/>
+      <c r="A55" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="123"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="125" t="s">
-        <v>375</v>
-      </c>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="126"/>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="127"/>
+      <c r="A81" s="121" t="s">
+        <v>356</v>
+      </c>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="123"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" t="s">
         <v>224</v>
-      </c>
-      <c r="F88" t="s">
-        <v>242</v>
-      </c>
-      <c r="G88" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>225</v>
       </c>
-      <c r="F89" t="s">
-        <v>244</v>
-      </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F92" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G92" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F93" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G94">
         <v>2004</v>
@@ -11983,240 +11751,240 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F95" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G95" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F96" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="G98" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G99" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="G104" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="F107" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="F109" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F111" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G111" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H111" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="I111" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="J111" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K111" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L111" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M111" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="N111" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O111" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="P111" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="Q111" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="R111" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="S111" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G112" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="H112" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="I112">
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F113" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="F116" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F117" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="F119" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G119">
         <v>292</v>
@@ -12224,344 +11992,344 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G126" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="F129" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F130" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F131" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F132" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F133" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F134" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F136" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F138" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="F139" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F140" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F141" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F142" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F143" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="F144" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F145" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F146" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="F147" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F148" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F149" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F150" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="F151" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="F152" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="F153" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="F154" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F155" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F156" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="F157" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="F158" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="F159" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F160" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F161" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F162" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F163" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F164" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F165" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="F166" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -12593,21 +12361,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12622,28 +12390,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="A1" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
